--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1260576.361734639</v>
+        <v>1257763.080204405</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6522309.095912872</v>
+        <v>6522309.095912868</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>86.59330789289109</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>114.9761501174901</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6167350275427</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>301.7255291397124</v>
       </c>
       <c r="I11" t="n">
-        <v>68.37127866750313</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>125.0252879002355</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>206.960373674696</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0507727088291</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>135.3713319643069</v>
       </c>
       <c r="H12" t="n">
-        <v>9.021503644765451</v>
+        <v>30.5161460953275</v>
       </c>
       <c r="I12" t="n">
-        <v>21.49464245056205</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>113.5340315843726</v>
+        <v>113.5340315843724</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,13 +1610,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>26.55004225416894</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>125.0252879002354</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.960373674696</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0507727088291</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>159.2728096680849</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>82.36640011070685</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>135.0506960277089</v>
+        <v>50.88391248854851</v>
       </c>
       <c r="T15" t="n">
         <v>192.2154383536262</v>
@@ -1844,22 +1844,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6167350275427</v>
+        <v>182.7736613050547</v>
       </c>
       <c r="H17" t="n">
-        <v>301.7255291397124</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>125.0252879002354</v>
       </c>
       <c r="T17" t="n">
         <v>206.960373674696</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0507727088291</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>143.6527814551249</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>135.3713319643069</v>
       </c>
       <c r="H18" t="n">
-        <v>30.5161460953275</v>
+        <v>93.18828718392596</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.49464245056205</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>135.0506960277089</v>
+        <v>50.88391248854762</v>
       </c>
       <c r="T18" t="n">
         <v>192.2154383536262</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3375655376925</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.5268205373537</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.7278120263952</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.9498935816226</v>
       </c>
       <c r="S19" t="n">
         <v>195.2021044514358</v>
       </c>
       <c r="T19" t="n">
-        <v>59.88314464826889</v>
+        <v>220.8810031031891</v>
       </c>
       <c r="U19" t="n">
         <v>286.2288431480854</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>227.5173953534179</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6167350275427</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>112.9289664115489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>125.0252879002354</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>206.960373674696</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0507727088291</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>332.3533898434483</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>73.47829691623954</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2175,7 +2175,7 @@
         <v>135.3713319643069</v>
       </c>
       <c r="H21" t="n">
-        <v>93.18828718392598</v>
+        <v>9.021503644764564</v>
       </c>
       <c r="I21" t="n">
         <v>21.49464245056205</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>97.01978350665807</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>166.3375655376925</v>
       </c>
       <c r="H22" t="n">
-        <v>80.26566581153112</v>
+        <v>147.5268205373537</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6167350275427</v>
+        <v>97.92417334595422</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>125.0252879002354</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>206.009502566565</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2412,7 +2412,7 @@
         <v>135.3713319643069</v>
       </c>
       <c r="H24" t="n">
-        <v>93.18828718392598</v>
+        <v>93.18828718392596</v>
       </c>
       <c r="I24" t="n">
         <v>21.49464245056205</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.5268205373537</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.9498935816226</v>
       </c>
       <c r="S25" t="n">
-        <v>49.19537135336099</v>
+        <v>195.2021044514358</v>
       </c>
       <c r="T25" t="n">
         <v>220.8810031031891</v>
@@ -2533,16 +2533,16 @@
         <v>286.2288431480854</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>90.77722888572262</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>247.8951369156393</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>195.7021327946102</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>135.3713319643069</v>
       </c>
       <c r="H27" t="n">
-        <v>93.18828718392598</v>
+        <v>93.18828718392596</v>
       </c>
       <c r="I27" t="n">
         <v>21.49464245056205</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.9498935816227</v>
+        <v>102.9498935816226</v>
       </c>
       <c r="S28" t="n">
-        <v>195.2021044514358</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>220.8810031031891</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2288431480854</v>
+        <v>52.64234073788706</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>263.2760270459304</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>149.358289538075</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.6167350275427</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>10.92417704689057</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0507727088291</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2962,13 +2962,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3375655376925</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.5268205373537</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.7278120263952</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>195.2021044514358</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8810031031891</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>113.5340315843726</v>
+        <v>117.043122131189</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.960373674696</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>3.789818177700645</v>
+        <v>210.750191852396</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.7278120263952</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>102.9498935816226</v>
       </c>
       <c r="S34" t="n">
         <v>195.2021044514358</v>
       </c>
       <c r="T34" t="n">
-        <v>99.91495541101928</v>
+        <v>220.8810031031891</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2288431480854</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>125.9612866007642</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>70.68010833336474</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>125.0252879002354</v>
+        <v>113.8416457980115</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0507727088291</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>63.27828202547775</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3363,7 +3363,7 @@
         <v>93.18828718392596</v>
       </c>
       <c r="I36" t="n">
-        <v>21.49464245056205</v>
+        <v>21.49464245056204</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>192.2154383536262</v>
       </c>
       <c r="U36" t="n">
-        <v>141.6448495155694</v>
+        <v>225.8116330547311</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.9498935816226</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>195.2021044514358</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8810031031891</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2288431480854</v>
+        <v>60.61094330585863</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>195.3376820614345</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>297.5695478471703</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>185.4369896929224</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6167350275427</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.7255291397124</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>68.37127866750313</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3713319643069</v>
+        <v>51.20454842514594</v>
       </c>
       <c r="H39" t="n">
-        <v>30.51614609532618</v>
+        <v>93.18828718392596</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.49464245056204</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>72.83553142647811</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3375655376925</v>
       </c>
       <c r="H40" t="n">
-        <v>89.60987003503929</v>
+        <v>147.5268205373537</v>
       </c>
       <c r="I40" t="n">
-        <v>105.7278120263952</v>
+        <v>105.7278120263951</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>102.9498935816226</v>
       </c>
       <c r="S40" t="n">
-        <v>195.2021044514358</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8810031031891</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2288431480854</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,16 +3749,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>160.6735539842527</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6167350275427</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.7255291397124</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>68.37127866750313</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>125.0252879002354</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0507727088291</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>126.5834083132356</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3828,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>60.90242885422296</v>
       </c>
       <c r="G42" t="n">
         <v>135.3713319643069</v>
@@ -3837,7 +3837,7 @@
         <v>93.18828718392596</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.49464245056204</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>143.1008441148778</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3375655376925</v>
       </c>
       <c r="H43" t="n">
-        <v>147.5268205373537</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>83.08473096276828</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.9498935816226</v>
+        <v>101.4424591677637</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.8810031031891</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2288431480854</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>354.0892496687839</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>130.610283269357</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6167350275427</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.7255291397124</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>68.37127866750313</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>125.0252879002354</v>
       </c>
       <c r="T44" t="n">
-        <v>206.960373674696</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0507727088291</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>51.20454842514503</v>
+        <v>72.69919087570797</v>
       </c>
       <c r="H45" t="n">
         <v>93.18828718392596</v>
       </c>
       <c r="I45" t="n">
-        <v>21.49464245056205</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3375655376925</v>
       </c>
       <c r="H46" t="n">
-        <v>89.60987003503929</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.7278120263952</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.9498935816226</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.2021044514358</v>
+        <v>99.74686868800995</v>
       </c>
       <c r="T46" t="n">
         <v>220.8810031031891</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2288431480854</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1735.258924564458</v>
+        <v>354.3365999934929</v>
       </c>
       <c r="C11" t="n">
-        <v>1366.296407624046</v>
+        <v>354.3365999934929</v>
       </c>
       <c r="D11" t="n">
-        <v>1366.296407624046</v>
+        <v>354.3365999934929</v>
       </c>
       <c r="E11" t="n">
-        <v>1250.158882252844</v>
+        <v>354.3365999934929</v>
       </c>
       <c r="F11" t="n">
-        <v>839.1729774632363</v>
+        <v>354.3365999934929</v>
       </c>
       <c r="G11" t="n">
-        <v>423.3984976374355</v>
+        <v>354.3365999934929</v>
       </c>
       <c r="H11" t="n">
-        <v>118.6252358801502</v>
+        <v>49.56333823620768</v>
       </c>
       <c r="I11" t="n">
         <v>49.56333823620768</v>
@@ -5054,10 +5054,10 @@
         <v>1605.51464430129</v>
       </c>
       <c r="O11" t="n">
-        <v>1992.556867108827</v>
+        <v>1992.556867108826</v>
       </c>
       <c r="P11" t="n">
-        <v>2288.387448877806</v>
+        <v>2288.387448877805</v>
       </c>
       <c r="Q11" t="n">
         <v>2462.371149022766</v>
@@ -5066,25 +5066,25 @@
         <v>2478.166911810384</v>
       </c>
       <c r="S11" t="n">
-        <v>2478.166911810384</v>
+        <v>2351.878742214186</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.166911810384</v>
+        <v>2142.827859714494</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.166911810384</v>
+        <v>1889.241220614666</v>
       </c>
       <c r="V11" t="n">
-        <v>2478.166911810384</v>
+        <v>1558.178333271096</v>
       </c>
       <c r="W11" t="n">
-        <v>2125.398256540269</v>
+        <v>1205.409678000982</v>
       </c>
       <c r="X11" t="n">
-        <v>2125.398256540269</v>
+        <v>831.9439197399017</v>
       </c>
       <c r="Y11" t="n">
-        <v>1735.258924564458</v>
+        <v>441.80458776409</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>80.38772823148798</v>
       </c>
       <c r="H12" t="n">
-        <v>71.27509828728046</v>
+        <v>49.56333823620768</v>
       </c>
       <c r="I12" t="n">
         <v>49.56333823620768</v>
       </c>
       <c r="J12" t="n">
-        <v>233.2891819279929</v>
+        <v>108.4590569409882</v>
       </c>
       <c r="K12" t="n">
-        <v>412.1061706914443</v>
+        <v>287.2760457044394</v>
       </c>
       <c r="L12" t="n">
-        <v>698.8702206260932</v>
+        <v>574.0400956390882</v>
       </c>
       <c r="M12" t="n">
-        <v>1114.12950144628</v>
+        <v>1110.894995419793</v>
       </c>
       <c r="N12" t="n">
-        <v>1491.904381960516</v>
+        <v>1488.669875934029</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.250692633586</v>
+        <v>1812.040292092287</v>
       </c>
       <c r="P12" t="n">
-        <v>2345.45089419679</v>
+        <v>2367.518634609028</v>
       </c>
       <c r="Q12" t="n">
-        <v>2456.099171398146</v>
+        <v>2478.166911810384</v>
       </c>
       <c r="R12" t="n">
         <v>2478.166911810384</v>
@@ -5197,25 +5197,25 @@
         <v>49.56333823620768</v>
       </c>
       <c r="J13" t="n">
-        <v>72.86514347759774</v>
+        <v>72.86514347759771</v>
       </c>
       <c r="K13" t="n">
-        <v>240.9940042345143</v>
+        <v>240.9940042345142</v>
       </c>
       <c r="L13" t="n">
-        <v>511.6674958655369</v>
+        <v>511.6674958655368</v>
       </c>
       <c r="M13" t="n">
-        <v>807.4438646610199</v>
+        <v>807.4438646610198</v>
       </c>
       <c r="N13" t="n">
-        <v>1101.62194892109</v>
+        <v>1101.621948921089</v>
       </c>
       <c r="O13" t="n">
         <v>1357.32672832346</v>
       </c>
       <c r="P13" t="n">
-        <v>1552.605659238979</v>
+        <v>1552.605659238978</v>
       </c>
       <c r="Q13" t="n">
         <v>1604.371588747507</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>445.3440796757799</v>
+        <v>1187.777458572977</v>
       </c>
       <c r="C14" t="n">
-        <v>76.38156273536822</v>
+        <v>818.8149416325657</v>
       </c>
       <c r="D14" t="n">
-        <v>76.38156273536822</v>
+        <v>460.5492430258153</v>
       </c>
       <c r="E14" t="n">
-        <v>76.38156273536822</v>
+        <v>460.5492430258153</v>
       </c>
       <c r="F14" t="n">
         <v>49.56333823620768</v>
@@ -5276,16 +5276,16 @@
         <v>49.56333823620768</v>
       </c>
       <c r="J14" t="n">
-        <v>180.0442978497636</v>
+        <v>180.0442978497638</v>
       </c>
       <c r="K14" t="n">
-        <v>426.3399508569928</v>
+        <v>426.3399508569933</v>
       </c>
       <c r="L14" t="n">
-        <v>768.7932492218226</v>
+        <v>768.7932492218229</v>
       </c>
       <c r="M14" t="n">
-        <v>1181.507964783272</v>
+        <v>1181.507964783273</v>
       </c>
       <c r="N14" t="n">
         <v>1605.51464430129</v>
@@ -5303,25 +5303,25 @@
         <v>2478.166911810384</v>
       </c>
       <c r="S14" t="n">
-        <v>2351.878742214186</v>
+        <v>2478.166911810384</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.827859714494</v>
+        <v>2478.166911810384</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.241220614666</v>
+        <v>2478.166911810384</v>
       </c>
       <c r="V14" t="n">
-        <v>1558.178333271096</v>
+        <v>2478.166911810384</v>
       </c>
       <c r="W14" t="n">
-        <v>1205.409678000982</v>
+        <v>2125.398256540269</v>
       </c>
       <c r="X14" t="n">
-        <v>831.9439197399017</v>
+        <v>1964.516630612911</v>
       </c>
       <c r="Y14" t="n">
-        <v>831.9439197399017</v>
+        <v>1574.377298637099</v>
       </c>
     </row>
     <row r="15">
@@ -5355,52 +5355,52 @@
         <v>49.56333823620768</v>
       </c>
       <c r="J15" t="n">
-        <v>233.2891819279929</v>
+        <v>108.4590569409882</v>
       </c>
       <c r="K15" t="n">
-        <v>412.1061706914443</v>
+        <v>287.2760457044395</v>
       </c>
       <c r="L15" t="n">
-        <v>698.8702206260932</v>
+        <v>574.0400956390886</v>
       </c>
       <c r="M15" t="n">
-        <v>1312.216531299163</v>
+        <v>1187.386406312159</v>
       </c>
       <c r="N15" t="n">
-        <v>1689.9914118134</v>
+        <v>1565.161286826395</v>
       </c>
       <c r="O15" t="n">
-        <v>2013.361827971657</v>
+        <v>1888.531702984653</v>
       </c>
       <c r="P15" t="n">
-        <v>2345.45089419679</v>
+        <v>2159.542119750537</v>
       </c>
       <c r="Q15" t="n">
-        <v>2456.099171398146</v>
+        <v>2478.166911810384</v>
       </c>
       <c r="R15" t="n">
         <v>2478.166911810384</v>
       </c>
       <c r="S15" t="n">
-        <v>2341.75206733795</v>
+        <v>2426.769020407809</v>
       </c>
       <c r="T15" t="n">
-        <v>2147.595058899944</v>
+        <v>2232.612011969803</v>
       </c>
       <c r="U15" t="n">
-        <v>1919.502500258801</v>
+        <v>2004.51945332866</v>
       </c>
       <c r="V15" t="n">
-        <v>1684.350392027059</v>
+        <v>1769.367345096918</v>
       </c>
       <c r="W15" t="n">
-        <v>1430.113035298857</v>
+        <v>1515.129988368716</v>
       </c>
       <c r="X15" t="n">
-        <v>1222.261535093324</v>
+        <v>1307.278488163183</v>
       </c>
       <c r="Y15" t="n">
-        <v>1014.50123632837</v>
+        <v>1099.518189398229</v>
       </c>
     </row>
     <row r="16">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1539.362683215652</v>
+        <v>1399.919872468567</v>
       </c>
       <c r="C17" t="n">
-        <v>1539.362683215652</v>
+        <v>1030.957355528155</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.096984608901</v>
+        <v>1030.957355528155</v>
       </c>
       <c r="E17" t="n">
-        <v>1181.096984608901</v>
+        <v>645.1691029299109</v>
       </c>
       <c r="F17" t="n">
-        <v>770.1110798192938</v>
+        <v>234.1831981403033</v>
       </c>
       <c r="G17" t="n">
-        <v>354.3365999934929</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="H17" t="n">
-        <v>49.56333823620768</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56333823620768</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J17" t="n">
-        <v>180.044297849764</v>
+        <v>180.0442978497637</v>
       </c>
       <c r="K17" t="n">
-        <v>426.3399508569937</v>
+        <v>426.3399508569933</v>
       </c>
       <c r="L17" t="n">
-        <v>768.7932492218235</v>
+        <v>768.7932492218229</v>
       </c>
       <c r="M17" t="n">
         <v>1181.507964783273</v>
       </c>
       <c r="N17" t="n">
-        <v>1605.514644301291</v>
+        <v>1605.51464430129</v>
       </c>
       <c r="O17" t="n">
-        <v>1992.556867108827</v>
+        <v>1992.556867108826</v>
       </c>
       <c r="P17" t="n">
-        <v>2288.387448877806</v>
+        <v>2288.387448877805</v>
       </c>
       <c r="Q17" t="n">
-        <v>2462.371149022766</v>
+        <v>2462.371149022765</v>
       </c>
       <c r="R17" t="n">
-        <v>2478.166911810384</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S17" t="n">
-        <v>2478.166911810384</v>
+        <v>2351.878742214185</v>
       </c>
       <c r="T17" t="n">
-        <v>2269.116029310691</v>
+        <v>2142.827859714493</v>
       </c>
       <c r="U17" t="n">
-        <v>2015.529390210864</v>
+        <v>2142.827859714493</v>
       </c>
       <c r="V17" t="n">
-        <v>1684.466502867293</v>
+        <v>2142.827859714493</v>
       </c>
       <c r="W17" t="n">
-        <v>1539.362683215652</v>
+        <v>1790.059204444379</v>
       </c>
       <c r="X17" t="n">
-        <v>1539.362683215652</v>
+        <v>1790.059204444379</v>
       </c>
       <c r="Y17" t="n">
-        <v>1539.362683215652</v>
+        <v>1399.919872468567</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.2858993083023</v>
+        <v>931.3028523781614</v>
       </c>
       <c r="C18" t="n">
-        <v>671.8328700271753</v>
+        <v>756.8498230970345</v>
       </c>
       <c r="D18" t="n">
-        <v>522.8984603659241</v>
+        <v>607.9154134357832</v>
       </c>
       <c r="E18" t="n">
-        <v>363.6610053604686</v>
+        <v>448.6779584303276</v>
       </c>
       <c r="F18" t="n">
-        <v>217.1264473873535</v>
+        <v>302.1434004572126</v>
       </c>
       <c r="G18" t="n">
-        <v>80.38772823148798</v>
+        <v>165.4046813013471</v>
       </c>
       <c r="H18" t="n">
-        <v>49.56333823620768</v>
+        <v>71.27509828728044</v>
       </c>
       <c r="I18" t="n">
-        <v>49.56333823620768</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J18" t="n">
-        <v>108.4590569409882</v>
+        <v>233.2891819279929</v>
       </c>
       <c r="K18" t="n">
-        <v>287.2760457044395</v>
+        <v>412.1061706914442</v>
       </c>
       <c r="L18" t="n">
-        <v>574.0400956390883</v>
+        <v>698.8702206260932</v>
       </c>
       <c r="M18" t="n">
-        <v>1187.386406312158</v>
+        <v>1312.216531299163</v>
       </c>
       <c r="N18" t="n">
-        <v>1781.880276475329</v>
+        <v>1689.991411813399</v>
       </c>
       <c r="O18" t="n">
-        <v>2105.250692633587</v>
+        <v>2013.361827971657</v>
       </c>
       <c r="P18" t="n">
-        <v>2345.45089419679</v>
+        <v>2253.562029534861</v>
       </c>
       <c r="Q18" t="n">
-        <v>2456.099171398146</v>
+        <v>2456.099171398145</v>
       </c>
       <c r="R18" t="n">
-        <v>2478.166911810384</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S18" t="n">
-        <v>2341.75206733795</v>
+        <v>2426.769020407809</v>
       </c>
       <c r="T18" t="n">
-        <v>2147.595058899944</v>
+        <v>2232.612011969803</v>
       </c>
       <c r="U18" t="n">
-        <v>1919.502500258801</v>
+        <v>2004.51945332866</v>
       </c>
       <c r="V18" t="n">
-        <v>1684.350392027059</v>
+        <v>1769.367345096918</v>
       </c>
       <c r="W18" t="n">
-        <v>1430.113035298857</v>
+        <v>1515.129988368716</v>
       </c>
       <c r="X18" t="n">
-        <v>1222.261535093324</v>
+        <v>1307.278488163183</v>
       </c>
       <c r="Y18" t="n">
-        <v>1014.50123632837</v>
+        <v>1099.518189398229</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.4880191432555</v>
+        <v>306.4757473721749</v>
       </c>
       <c r="C19" t="n">
-        <v>513.4880191432555</v>
+        <v>306.4757473721749</v>
       </c>
       <c r="D19" t="n">
-        <v>513.4880191432555</v>
+        <v>156.3591079598392</v>
       </c>
       <c r="E19" t="n">
-        <v>513.4880191432555</v>
+        <v>156.3591079598392</v>
       </c>
       <c r="F19" t="n">
-        <v>366.5980716453452</v>
+        <v>156.3591079598392</v>
       </c>
       <c r="G19" t="n">
-        <v>198.5803286779791</v>
+        <v>156.3591079598392</v>
       </c>
       <c r="H19" t="n">
-        <v>49.56333823620768</v>
+        <v>156.3591079598392</v>
       </c>
       <c r="I19" t="n">
-        <v>49.56333823620768</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J19" t="n">
-        <v>72.86514347759774</v>
+        <v>72.86514347759773</v>
       </c>
       <c r="K19" t="n">
         <v>240.9940042345143</v>
@@ -5695,28 +5695,28 @@
         <v>1604.371588747507</v>
       </c>
       <c r="R19" t="n">
-        <v>1604.371588747507</v>
+        <v>1500.381797250919</v>
       </c>
       <c r="S19" t="n">
-        <v>1407.197745867269</v>
+        <v>1303.20795437068</v>
       </c>
       <c r="T19" t="n">
-        <v>1346.709720970028</v>
+        <v>1080.095830024025</v>
       </c>
       <c r="U19" t="n">
-        <v>1057.589677386103</v>
+        <v>790.9757864401</v>
       </c>
       <c r="V19" t="n">
-        <v>802.9051891802162</v>
+        <v>536.2912982342132</v>
       </c>
       <c r="W19" t="n">
-        <v>513.4880191432555</v>
+        <v>306.4757473721749</v>
       </c>
       <c r="X19" t="n">
-        <v>513.4880191432555</v>
+        <v>306.4757473721749</v>
       </c>
       <c r="Y19" t="n">
-        <v>513.4880191432555</v>
+        <v>306.4757473721749</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1348.659084500335</v>
+        <v>776.7915537833699</v>
       </c>
       <c r="C20" t="n">
-        <v>1348.659084500335</v>
+        <v>407.8290368429581</v>
       </c>
       <c r="D20" t="n">
-        <v>990.3933858935845</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="E20" t="n">
-        <v>990.3933858935845</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="F20" t="n">
-        <v>579.407481103977</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="G20" t="n">
-        <v>163.6330012781763</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="H20" t="n">
         <v>49.56333823620766</v>
@@ -5750,13 +5750,13 @@
         <v>49.56333823620766</v>
       </c>
       <c r="J20" t="n">
-        <v>180.0442978497637</v>
+        <v>180.0442978497631</v>
       </c>
       <c r="K20" t="n">
-        <v>426.3399508569931</v>
+        <v>426.3399508569927</v>
       </c>
       <c r="L20" t="n">
-        <v>768.7932492218226</v>
+        <v>768.7932492218224</v>
       </c>
       <c r="M20" t="n">
         <v>1181.507964783272</v>
@@ -5768,7 +5768,7 @@
         <v>1992.556867108827</v>
       </c>
       <c r="P20" t="n">
-        <v>2288.387448877805</v>
+        <v>2288.387448877806</v>
       </c>
       <c r="Q20" t="n">
         <v>2462.371149022765</v>
@@ -5777,25 +5777,25 @@
         <v>2478.166911810383</v>
       </c>
       <c r="S20" t="n">
-        <v>2478.166911810383</v>
+        <v>2351.878742214185</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.166911810383</v>
+        <v>2142.827859714493</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.166911810383</v>
+        <v>1889.241220614665</v>
       </c>
       <c r="V20" t="n">
-        <v>2478.166911810383</v>
+        <v>1889.241220614665</v>
       </c>
       <c r="W20" t="n">
-        <v>2125.398256540268</v>
+        <v>1889.241220614665</v>
       </c>
       <c r="X20" t="n">
-        <v>2125.398256540268</v>
+        <v>1553.530725823303</v>
       </c>
       <c r="Y20" t="n">
-        <v>1735.258924564457</v>
+        <v>1163.391393847492</v>
       </c>
     </row>
     <row r="21">
@@ -5814,13 +5814,13 @@
         <v>522.8984603659231</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6779584303276</v>
+        <v>363.6610053604676</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1434004572126</v>
+        <v>217.1264473873526</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4046813013471</v>
+        <v>80.38772823148707</v>
       </c>
       <c r="H21" t="n">
         <v>71.27509828728044</v>
@@ -5832,16 +5832,16 @@
         <v>233.2891819279929</v>
       </c>
       <c r="K21" t="n">
-        <v>555.3678425083675</v>
+        <v>555.3678425083669</v>
       </c>
       <c r="L21" t="n">
-        <v>842.1318924430165</v>
+        <v>842.1318924430159</v>
       </c>
       <c r="M21" t="n">
         <v>1196.128881102601</v>
       </c>
       <c r="N21" t="n">
-        <v>1573.903761616838</v>
+        <v>1573.903761616837</v>
       </c>
       <c r="O21" t="n">
         <v>1897.274177775095</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1786.308697799652</v>
+        <v>611.4878004631122</v>
       </c>
       <c r="C22" t="n">
-        <v>1617.372514871746</v>
+        <v>611.4878004631122</v>
       </c>
       <c r="D22" t="n">
-        <v>1467.25587545941</v>
+        <v>611.4878004631122</v>
       </c>
       <c r="E22" t="n">
-        <v>1319.342781877017</v>
+        <v>513.4880191432555</v>
       </c>
       <c r="F22" t="n">
-        <v>1172.452834379107</v>
+        <v>366.5980716453452</v>
       </c>
       <c r="G22" t="n">
-        <v>1004.435091411741</v>
+        <v>198.580328677979</v>
       </c>
       <c r="H22" t="n">
-        <v>923.3586612990829</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="I22" t="n">
-        <v>923.3586612990829</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J22" t="n">
-        <v>946.660466540473</v>
+        <v>72.86514347759773</v>
       </c>
       <c r="K22" t="n">
-        <v>1114.789327297389</v>
+        <v>240.9940042345143</v>
       </c>
       <c r="L22" t="n">
-        <v>1385.462818928412</v>
+        <v>511.6674958655369</v>
       </c>
       <c r="M22" t="n">
-        <v>1681.239187723895</v>
+        <v>807.4438646610199</v>
       </c>
       <c r="N22" t="n">
-        <v>1975.417271983965</v>
+        <v>1101.62194892109</v>
       </c>
       <c r="O22" t="n">
-        <v>2231.122051386335</v>
+        <v>1357.32672832346</v>
       </c>
       <c r="P22" t="n">
-        <v>2426.400982301854</v>
+        <v>1552.605659238979</v>
       </c>
       <c r="Q22" t="n">
-        <v>2478.166911810383</v>
+        <v>1604.371588747507</v>
       </c>
       <c r="R22" t="n">
-        <v>2478.166911810383</v>
+        <v>1604.371588747507</v>
       </c>
       <c r="S22" t="n">
-        <v>2478.166911810383</v>
+        <v>1604.371588747507</v>
       </c>
       <c r="T22" t="n">
-        <v>2478.166911810383</v>
+        <v>1604.371588747507</v>
       </c>
       <c r="U22" t="n">
-        <v>2478.166911810383</v>
+        <v>1604.371588747507</v>
       </c>
       <c r="V22" t="n">
-        <v>2478.166911810383</v>
+        <v>1349.68710054162</v>
       </c>
       <c r="W22" t="n">
-        <v>2188.749741773422</v>
+        <v>1060.26993050466</v>
       </c>
       <c r="X22" t="n">
-        <v>2188.749741773422</v>
+        <v>832.2803796066423</v>
       </c>
       <c r="Y22" t="n">
-        <v>1967.957162629892</v>
+        <v>611.4878004631122</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1580.089326065983</v>
+        <v>1288.425804841601</v>
       </c>
       <c r="C23" t="n">
-        <v>1211.126809125572</v>
+        <v>919.463287901189</v>
       </c>
       <c r="D23" t="n">
-        <v>852.8611105188213</v>
+        <v>561.1975892944386</v>
       </c>
       <c r="E23" t="n">
-        <v>467.072857920577</v>
+        <v>561.1975892944386</v>
       </c>
       <c r="F23" t="n">
-        <v>467.072857920577</v>
+        <v>150.211684504831</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29837809477622</v>
+        <v>51.29837809477623</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29837809477622</v>
+        <v>51.29837809477623</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29837809477622</v>
+        <v>51.29837809477623</v>
       </c>
       <c r="J23" t="n">
-        <v>181.7793377083322</v>
+        <v>201.737035103939</v>
       </c>
       <c r="K23" t="n">
-        <v>428.0749907155617</v>
+        <v>448.0326881111686</v>
       </c>
       <c r="L23" t="n">
-        <v>770.5282890803915</v>
+        <v>790.4859864759983</v>
       </c>
       <c r="M23" t="n">
-        <v>1268.259957711701</v>
+        <v>1203.200702037448</v>
       </c>
       <c r="N23" t="n">
-        <v>1692.266637229718</v>
+        <v>1627.207381555466</v>
       </c>
       <c r="O23" t="n">
-        <v>2079.308860037255</v>
+        <v>2014.249604363003</v>
       </c>
       <c r="P23" t="n">
-        <v>2375.139441806234</v>
+        <v>2310.080186131981</v>
       </c>
       <c r="Q23" t="n">
-        <v>2549.123141951193</v>
+        <v>2484.063886276941</v>
       </c>
       <c r="R23" t="n">
         <v>2564.918904738811</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.918904738811</v>
+        <v>2438.630735142614</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.918904738811</v>
+        <v>2438.630735142614</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.918904738811</v>
+        <v>2438.630735142614</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.918904738811</v>
+        <v>2438.630735142614</v>
       </c>
       <c r="W23" t="n">
-        <v>2356.828498105917</v>
+        <v>2438.630735142614</v>
       </c>
       <c r="X23" t="n">
-        <v>2356.828498105917</v>
+        <v>2065.164976881534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1966.689166130105</v>
+        <v>1675.025644905722</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>933.0378922367295</v>
+        <v>933.0378922367299</v>
       </c>
       <c r="C24" t="n">
-        <v>758.5848629556025</v>
+        <v>758.5848629556029</v>
       </c>
       <c r="D24" t="n">
-        <v>609.6504532943513</v>
+        <v>609.6504532943516</v>
       </c>
       <c r="E24" t="n">
-        <v>450.4129982888958</v>
+        <v>450.412998288896</v>
       </c>
       <c r="F24" t="n">
-        <v>303.8784403157808</v>
+        <v>303.8784403157811</v>
       </c>
       <c r="G24" t="n">
         <v>167.1397211599156</v>
       </c>
       <c r="H24" t="n">
-        <v>73.01013814584894</v>
+        <v>73.01013814584901</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29837809477622</v>
+        <v>51.29837809477623</v>
       </c>
       <c r="J24" t="n">
         <v>110.1940967995567</v>
       </c>
       <c r="K24" t="n">
-        <v>289.011085563008</v>
+        <v>289.0110855630081</v>
       </c>
       <c r="L24" t="n">
-        <v>575.7751354976569</v>
+        <v>825.4133874653373</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.592564420513</v>
+        <v>1179.410376124922</v>
       </c>
       <c r="N24" t="n">
-        <v>1845.409993343368</v>
+        <v>1557.185256639159</v>
       </c>
       <c r="O24" t="n">
-        <v>2214.070425974252</v>
+        <v>2192.002685562014</v>
       </c>
       <c r="P24" t="n">
-        <v>2454.270627537455</v>
+        <v>2432.202887125218</v>
       </c>
       <c r="Q24" t="n">
-        <v>2564.918904738811</v>
+        <v>2542.851164326574</v>
       </c>
       <c r="R24" t="n">
         <v>2564.918904738811</v>
@@ -6096,7 +6096,7 @@
         <v>2428.504060266378</v>
       </c>
       <c r="T24" t="n">
-        <v>2234.347051828371</v>
+        <v>2234.347051828372</v>
       </c>
       <c r="U24" t="n">
         <v>2006.254493187229</v>
@@ -6105,10 +6105,10 @@
         <v>1771.102384955486</v>
       </c>
       <c r="W24" t="n">
-        <v>1516.865028227284</v>
+        <v>1516.865028227285</v>
       </c>
       <c r="X24" t="n">
-        <v>1309.013528021751</v>
+        <v>1309.013528021752</v>
       </c>
       <c r="Y24" t="n">
         <v>1101.253229256798</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.29837809477622</v>
+        <v>1478.180467009525</v>
       </c>
       <c r="C25" t="n">
-        <v>51.29837809477622</v>
+        <v>1309.244284081618</v>
       </c>
       <c r="D25" t="n">
-        <v>51.29837809477622</v>
+        <v>1159.127644669283</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29837809477622</v>
+        <v>1159.127644669283</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29837809477622</v>
+        <v>1159.127644669283</v>
       </c>
       <c r="G25" t="n">
-        <v>51.29837809477622</v>
+        <v>1159.127644669283</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29837809477622</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="I25" t="n">
-        <v>51.29837809477622</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="J25" t="n">
-        <v>74.60018333616628</v>
+        <v>1033.412459468901</v>
       </c>
       <c r="K25" t="n">
-        <v>242.7290440930828</v>
+        <v>1201.541320225818</v>
       </c>
       <c r="L25" t="n">
-        <v>513.4025357241054</v>
+        <v>1472.214811856841</v>
       </c>
       <c r="M25" t="n">
-        <v>809.1789045195884</v>
+        <v>1767.991180652324</v>
       </c>
       <c r="N25" t="n">
-        <v>1103.356988779658</v>
+        <v>2062.169264912393</v>
       </c>
       <c r="O25" t="n">
-        <v>1359.061768182028</v>
+        <v>2317.874044314764</v>
       </c>
       <c r="P25" t="n">
-        <v>1554.340699097547</v>
+        <v>2513.152975230283</v>
       </c>
       <c r="Q25" t="n">
-        <v>1606.106628606076</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="R25" t="n">
-        <v>1606.106628606076</v>
+        <v>2460.929113242223</v>
       </c>
       <c r="S25" t="n">
-        <v>1556.414334309751</v>
+        <v>2263.755270361984</v>
       </c>
       <c r="T25" t="n">
-        <v>1333.302209963096</v>
+        <v>2040.643146015329</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.182166379171</v>
+        <v>1751.523102431404</v>
       </c>
       <c r="V25" t="n">
-        <v>789.4976781732843</v>
+        <v>1659.828931839765</v>
       </c>
       <c r="W25" t="n">
-        <v>500.0805081363237</v>
+        <v>1659.828931839765</v>
       </c>
       <c r="X25" t="n">
-        <v>272.0909572383063</v>
+        <v>1659.828931839765</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.29837809477622</v>
+        <v>1659.828931839765</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1045.751457497386</v>
       </c>
       <c r="D26" t="n">
-        <v>687.4857588906359</v>
+        <v>1045.751457497386</v>
       </c>
       <c r="E26" t="n">
-        <v>301.6975062923917</v>
+        <v>659.9632048991416</v>
       </c>
       <c r="F26" t="n">
-        <v>51.29837809477623</v>
+        <v>248.977300109534</v>
       </c>
       <c r="G26" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="J26" t="n">
-        <v>181.7793377083322</v>
+        <v>266.7962907781912</v>
       </c>
       <c r="K26" t="n">
-        <v>428.0749907155617</v>
+        <v>513.0919437854208</v>
       </c>
       <c r="L26" t="n">
-        <v>855.5452421502515</v>
+        <v>855.5452421502505</v>
       </c>
       <c r="M26" t="n">
-        <v>1268.259957711701</v>
+        <v>1268.2599577117</v>
       </c>
       <c r="N26" t="n">
-        <v>1692.266637229719</v>
+        <v>1692.266637229718</v>
       </c>
       <c r="O26" t="n">
         <v>2079.308860037255</v>
@@ -6245,7 +6245,7 @@
         <v>2375.139441806234</v>
       </c>
       <c r="Q26" t="n">
-        <v>2549.123141951194</v>
+        <v>2549.123141951193</v>
       </c>
       <c r="R26" t="n">
         <v>2564.918904738811</v>
@@ -6269,7 +6269,7 @@
         <v>2191.453146477731</v>
       </c>
       <c r="Y26" t="n">
-        <v>1801.31381450192</v>
+        <v>1801.313814501919</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>933.0378922367299</v>
+        <v>933.0378922367295</v>
       </c>
       <c r="C27" t="n">
-        <v>758.5848629556029</v>
+        <v>758.5848629556025</v>
       </c>
       <c r="D27" t="n">
-        <v>609.6504532943518</v>
+        <v>609.6504532943513</v>
       </c>
       <c r="E27" t="n">
-        <v>450.4129982888962</v>
+        <v>450.4129982888958</v>
       </c>
       <c r="F27" t="n">
-        <v>303.8784403157813</v>
+        <v>303.8784403157808</v>
       </c>
       <c r="G27" t="n">
-        <v>167.1397211599157</v>
+        <v>167.1397211599156</v>
       </c>
       <c r="H27" t="n">
-        <v>73.01013814584901</v>
+        <v>73.01013814584894</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="J27" t="n">
-        <v>110.1940967995567</v>
+        <v>235.0242217865615</v>
       </c>
       <c r="K27" t="n">
-        <v>550.8316702054608</v>
+        <v>413.8412105500128</v>
       </c>
       <c r="L27" t="n">
-        <v>837.5957201401097</v>
+        <v>700.6052604846618</v>
       </c>
       <c r="M27" t="n">
-        <v>1191.592708799694</v>
+        <v>1054.602249144247</v>
       </c>
       <c r="N27" t="n">
-        <v>1569.367589313931</v>
+        <v>1682.723494957503</v>
       </c>
       <c r="O27" t="n">
-        <v>1892.738005472188</v>
+        <v>2006.093911115761</v>
       </c>
       <c r="P27" t="n">
-        <v>2448.21634798893</v>
+        <v>2246.294112678964</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.918904738811</v>
@@ -6333,19 +6333,19 @@
         <v>2428.504060266378</v>
       </c>
       <c r="T27" t="n">
-        <v>2234.347051828372</v>
+        <v>2234.347051828371</v>
       </c>
       <c r="U27" t="n">
         <v>2006.254493187229</v>
       </c>
       <c r="V27" t="n">
-        <v>1771.102384955487</v>
+        <v>1771.102384955486</v>
       </c>
       <c r="W27" t="n">
-        <v>1516.865028227285</v>
+        <v>1516.865028227284</v>
       </c>
       <c r="X27" t="n">
-        <v>1309.013528021752</v>
+        <v>1309.013528021751</v>
       </c>
       <c r="Y27" t="n">
         <v>1101.253229256798</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.29837809477623</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="C28" t="n">
-        <v>51.29837809477623</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="D28" t="n">
-        <v>51.29837809477623</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="E28" t="n">
-        <v>51.29837809477623</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="F28" t="n">
-        <v>51.29837809477623</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="G28" t="n">
-        <v>51.29837809477623</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29837809477623</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29837809477623</v>
+        <v>1010.110654227511</v>
       </c>
       <c r="J28" t="n">
-        <v>74.60018333616628</v>
+        <v>1033.412459468901</v>
       </c>
       <c r="K28" t="n">
-        <v>242.7290440930828</v>
+        <v>1201.541320225818</v>
       </c>
       <c r="L28" t="n">
-        <v>513.4025357241054</v>
+        <v>1472.21481185684</v>
       </c>
       <c r="M28" t="n">
-        <v>809.1789045195884</v>
+        <v>1767.991180652323</v>
       </c>
       <c r="N28" t="n">
-        <v>1103.356988779658</v>
+        <v>2062.169264912393</v>
       </c>
       <c r="O28" t="n">
-        <v>1359.061768182028</v>
+        <v>2317.874044314763</v>
       </c>
       <c r="P28" t="n">
-        <v>1554.340699097547</v>
+        <v>2513.152975230282</v>
       </c>
       <c r="Q28" t="n">
-        <v>1606.106628606076</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="R28" t="n">
-        <v>1502.116837109487</v>
+        <v>2460.929113242222</v>
       </c>
       <c r="S28" t="n">
-        <v>1304.942994229249</v>
+        <v>2460.929113242222</v>
       </c>
       <c r="T28" t="n">
-        <v>1081.830869882593</v>
+        <v>2237.816988895567</v>
       </c>
       <c r="U28" t="n">
-        <v>792.7108262986684</v>
+        <v>2184.642907342145</v>
       </c>
       <c r="V28" t="n">
-        <v>538.0263380927815</v>
+        <v>1929.958419136259</v>
       </c>
       <c r="W28" t="n">
-        <v>272.0909572383063</v>
+        <v>1640.541249099298</v>
       </c>
       <c r="X28" t="n">
-        <v>272.0909572383063</v>
+        <v>1412.551698201281</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.29837809477623</v>
+        <v>1191.759119057751</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>852.8611105188213</v>
+        <v>1414.713974437798</v>
       </c>
       <c r="C29" t="n">
-        <v>852.8611105188213</v>
+        <v>1263.847015308429</v>
       </c>
       <c r="D29" t="n">
-        <v>852.8611105188213</v>
+        <v>1263.847015308429</v>
       </c>
       <c r="E29" t="n">
-        <v>467.072857920577</v>
+        <v>878.0587627101845</v>
       </c>
       <c r="F29" t="n">
         <v>467.072857920577</v>
       </c>
       <c r="G29" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="J29" t="n">
-        <v>181.7793377083323</v>
+        <v>181.7793377083322</v>
       </c>
       <c r="K29" t="n">
         <v>428.0749907155619</v>
@@ -6470,19 +6470,19 @@
         <v>770.5282890803916</v>
       </c>
       <c r="M29" t="n">
-        <v>1268.2599577117</v>
+        <v>1183.243004641841</v>
       </c>
       <c r="N29" t="n">
-        <v>1692.266637229718</v>
+        <v>1607.249684159859</v>
       </c>
       <c r="O29" t="n">
-        <v>2079.308860037255</v>
+        <v>1994.291906967396</v>
       </c>
       <c r="P29" t="n">
         <v>2375.139441806234</v>
       </c>
       <c r="Q29" t="n">
-        <v>2549.123141951194</v>
+        <v>2549.123141951193</v>
       </c>
       <c r="R29" t="n">
         <v>2564.918904738811</v>
@@ -6491,22 +6491,22 @@
         <v>2564.918904738811</v>
       </c>
       <c r="T29" t="n">
-        <v>2553.884382469225</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="U29" t="n">
-        <v>2300.297743369398</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="V29" t="n">
-        <v>1969.234856025827</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="W29" t="n">
-        <v>1616.466200755713</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="X29" t="n">
-        <v>1243.000442494633</v>
+        <v>2191.453146477731</v>
       </c>
       <c r="Y29" t="n">
-        <v>852.8611105188213</v>
+        <v>1801.313814501919</v>
       </c>
     </row>
     <row r="30">
@@ -6531,13 +6531,13 @@
         <v>303.8784403157812</v>
       </c>
       <c r="G30" t="n">
-        <v>167.1397211599157</v>
+        <v>167.1397211599156</v>
       </c>
       <c r="H30" t="n">
-        <v>73.01013814584901</v>
+        <v>73.010138145849</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="J30" t="n">
         <v>110.1940967995567</v>
@@ -6549,10 +6549,10 @@
         <v>575.7751354976571</v>
       </c>
       <c r="M30" t="n">
-        <v>1201.478116537159</v>
+        <v>1210.592564420513</v>
       </c>
       <c r="N30" t="n">
-        <v>1579.252997051396</v>
+        <v>1588.367444934749</v>
       </c>
       <c r="O30" t="n">
         <v>2214.070425974252</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1088.984744648091</v>
+        <v>665.1542415153223</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0485617201845</v>
+        <v>496.2180585874154</v>
       </c>
       <c r="D31" t="n">
-        <v>769.9319223078487</v>
+        <v>346.1014191750797</v>
       </c>
       <c r="E31" t="n">
-        <v>622.0188287254556</v>
+        <v>198.1883255926866</v>
       </c>
       <c r="F31" t="n">
-        <v>475.1288812275452</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="G31" t="n">
-        <v>307.1111382601791</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="H31" t="n">
-        <v>158.0941478184077</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="J31" t="n">
-        <v>74.6001833361663</v>
+        <v>74.60018333616628</v>
       </c>
       <c r="K31" t="n">
         <v>242.7290440930828</v>
@@ -6646,25 +6646,25 @@
         <v>1606.106628606076</v>
       </c>
       <c r="S31" t="n">
-        <v>1606.106628606076</v>
+        <v>1408.932785725838</v>
       </c>
       <c r="T31" t="n">
-        <v>1606.106628606076</v>
+        <v>1185.820661379182</v>
       </c>
       <c r="U31" t="n">
-        <v>1606.106628606076</v>
+        <v>1185.820661379182</v>
       </c>
       <c r="V31" t="n">
-        <v>1606.106628606076</v>
+        <v>1185.820661379182</v>
       </c>
       <c r="W31" t="n">
-        <v>1606.106628606076</v>
+        <v>1185.820661379182</v>
       </c>
       <c r="X31" t="n">
-        <v>1491.425788621861</v>
+        <v>1067.595285489092</v>
       </c>
       <c r="Y31" t="n">
-        <v>1270.633209478331</v>
+        <v>846.802706345562</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>462.2842828843838</v>
       </c>
       <c r="F32" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="G32" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="H32" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="I32" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="J32" t="n">
-        <v>201.737035103939</v>
+        <v>181.7793377083322</v>
       </c>
       <c r="K32" t="n">
-        <v>448.0326881111686</v>
+        <v>428.0749907155619</v>
       </c>
       <c r="L32" t="n">
-        <v>790.4859864759983</v>
+        <v>770.5282890803916</v>
       </c>
       <c r="M32" t="n">
-        <v>1203.200702037448</v>
+        <v>1268.2599577117</v>
       </c>
       <c r="N32" t="n">
-        <v>1627.207381555466</v>
+        <v>1692.266637229718</v>
       </c>
       <c r="O32" t="n">
-        <v>2014.249604363003</v>
+        <v>2079.308860037255</v>
       </c>
       <c r="P32" t="n">
-        <v>2310.080186131981</v>
+        <v>2375.139441806234</v>
       </c>
       <c r="Q32" t="n">
-        <v>2484.063886276941</v>
+        <v>2549.123141951193</v>
       </c>
       <c r="R32" t="n">
         <v>2564.918904738811</v>
@@ -6728,16 +6728,16 @@
         <v>2564.918904738811</v>
       </c>
       <c r="T32" t="n">
-        <v>2355.868022239119</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="U32" t="n">
-        <v>2355.868022239119</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="V32" t="n">
-        <v>2355.868022239119</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="W32" t="n">
-        <v>2355.868022239119</v>
+        <v>2564.918904738811</v>
       </c>
       <c r="X32" t="n">
         <v>2352.039923069724</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>933.03789223673</v>
+        <v>933.0378922367299</v>
       </c>
       <c r="C33" t="n">
-        <v>758.5848629556031</v>
+        <v>758.5848629556029</v>
       </c>
       <c r="D33" t="n">
-        <v>609.6504532943518</v>
+        <v>609.6504532943516</v>
       </c>
       <c r="E33" t="n">
-        <v>450.4129982888962</v>
+        <v>450.412998288896</v>
       </c>
       <c r="F33" t="n">
-        <v>303.8784403157812</v>
+        <v>303.8784403157811</v>
       </c>
       <c r="G33" t="n">
-        <v>167.1397211599157</v>
+        <v>167.1397211599156</v>
       </c>
       <c r="H33" t="n">
-        <v>73.01013814584901</v>
+        <v>73.010138145849</v>
       </c>
       <c r="I33" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="J33" t="n">
-        <v>110.1940967995567</v>
+        <v>235.0242217865615</v>
       </c>
       <c r="K33" t="n">
-        <v>289.0110855630081</v>
+        <v>675.6617951924655</v>
       </c>
       <c r="L33" t="n">
-        <v>923.8285144858639</v>
+        <v>962.4258451271146</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.825503145449</v>
+        <v>1316.422833786699</v>
       </c>
       <c r="N33" t="n">
-        <v>1655.600383659685</v>
+        <v>1890.700009815994</v>
       </c>
       <c r="O33" t="n">
         <v>2214.070425974252</v>
@@ -6807,7 +6807,7 @@
         <v>2428.504060266378</v>
       </c>
       <c r="T33" t="n">
-        <v>2234.347051828372</v>
+        <v>2234.347051828371</v>
       </c>
       <c r="U33" t="n">
         <v>2006.254493187229</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>327.0303307463146</v>
+        <v>518.264294017412</v>
       </c>
       <c r="C34" t="n">
-        <v>158.0941478184077</v>
+        <v>349.3281110895051</v>
       </c>
       <c r="D34" t="n">
-        <v>158.0941478184077</v>
+        <v>199.2114716771693</v>
       </c>
       <c r="E34" t="n">
-        <v>158.0941478184077</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="F34" t="n">
-        <v>158.0941478184077</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="G34" t="n">
-        <v>158.0941478184077</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="H34" t="n">
-        <v>158.0941478184077</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="I34" t="n">
-        <v>51.29837809477623</v>
+        <v>51.29837809477622</v>
       </c>
       <c r="J34" t="n">
-        <v>74.6001833361663</v>
+        <v>74.60018333616628</v>
       </c>
       <c r="K34" t="n">
         <v>242.7290440930828</v>
@@ -6880,28 +6880,28 @@
         <v>1606.106628606076</v>
       </c>
       <c r="R34" t="n">
-        <v>1606.106628606076</v>
+        <v>1502.116837109487</v>
       </c>
       <c r="S34" t="n">
-        <v>1408.932785725838</v>
+        <v>1304.942994229249</v>
       </c>
       <c r="T34" t="n">
-        <v>1308.00858834097</v>
+        <v>1081.830869882593</v>
       </c>
       <c r="U34" t="n">
-        <v>1018.888544757045</v>
+        <v>1081.830869882593</v>
       </c>
       <c r="V34" t="n">
-        <v>1018.888544757045</v>
+        <v>827.1463816767065</v>
       </c>
       <c r="W34" t="n">
-        <v>729.4713747200844</v>
+        <v>827.1463816767065</v>
       </c>
       <c r="X34" t="n">
-        <v>729.4713747200844</v>
+        <v>827.1463816767065</v>
       </c>
       <c r="Y34" t="n">
-        <v>508.6787955765543</v>
+        <v>699.9127588476517</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1321.552931074424</v>
+        <v>2363.17535039825</v>
       </c>
       <c r="C35" t="n">
-        <v>1321.552931074424</v>
+        <v>1994.212833457839</v>
       </c>
       <c r="D35" t="n">
-        <v>1321.552931074424</v>
+        <v>1635.947134851088</v>
       </c>
       <c r="E35" t="n">
         <v>1250.158882252844</v>
       </c>
       <c r="F35" t="n">
-        <v>839.1729774632362</v>
+        <v>839.1729774632363</v>
       </c>
       <c r="G35" t="n">
-        <v>423.3984976374354</v>
+        <v>423.3984976374355</v>
       </c>
       <c r="H35" t="n">
         <v>118.6252358801502</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J35" t="n">
-        <v>180.0442978497637</v>
+        <v>180.0442978497638</v>
       </c>
       <c r="K35" t="n">
-        <v>426.3399508569933</v>
+        <v>426.3399508569934</v>
       </c>
       <c r="L35" t="n">
-        <v>768.793249221823</v>
+        <v>768.7932492218232</v>
       </c>
       <c r="M35" t="n">
         <v>1181.507964783273</v>
       </c>
       <c r="N35" t="n">
-        <v>1605.514644301289</v>
+        <v>1605.514644301291</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.556867108826</v>
+        <v>1992.556867108828</v>
       </c>
       <c r="P35" t="n">
-        <v>2288.387448877805</v>
+        <v>2288.387448877806</v>
       </c>
       <c r="Q35" t="n">
-        <v>2462.371149022765</v>
+        <v>2462.371149022767</v>
       </c>
       <c r="R35" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S35" t="n">
-        <v>2351.878742214185</v>
+        <v>2363.17535039825</v>
       </c>
       <c r="T35" t="n">
-        <v>2351.878742214185</v>
+        <v>2363.17535039825</v>
       </c>
       <c r="U35" t="n">
-        <v>2098.292103114358</v>
+        <v>2363.17535039825</v>
       </c>
       <c r="V35" t="n">
-        <v>2098.292103114358</v>
+        <v>2363.17535039825</v>
       </c>
       <c r="W35" t="n">
-        <v>2098.292103114358</v>
+        <v>2363.17535039825</v>
       </c>
       <c r="X35" t="n">
-        <v>2098.292103114358</v>
+        <v>2363.17535039825</v>
       </c>
       <c r="Y35" t="n">
-        <v>1708.152771138546</v>
+        <v>2363.17535039825</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3028523781614</v>
+        <v>846.2858993083019</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8498230970345</v>
+        <v>671.8328700271749</v>
       </c>
       <c r="D36" t="n">
         <v>607.9154134357832</v>
@@ -7011,7 +7011,7 @@
         <v>71.27509828728043</v>
       </c>
       <c r="I36" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J36" t="n">
         <v>108.4590569409882</v>
@@ -7020,46 +7020,46 @@
         <v>287.2760457044395</v>
       </c>
       <c r="L36" t="n">
-        <v>756.8980067602058</v>
+        <v>574.0400956390886</v>
       </c>
       <c r="M36" t="n">
-        <v>1110.894995419791</v>
+        <v>928.0370842986733</v>
       </c>
       <c r="N36" t="n">
-        <v>1488.669875934027</v>
+        <v>1541.383394971743</v>
       </c>
       <c r="O36" t="n">
-        <v>1812.040292092285</v>
+        <v>1919.341918187333</v>
       </c>
       <c r="P36" t="n">
-        <v>2367.518634609026</v>
+        <v>2159.542119750537</v>
       </c>
       <c r="Q36" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="R36" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S36" t="n">
-        <v>2341.752067337949</v>
+        <v>2341.75206733795</v>
       </c>
       <c r="T36" t="n">
-        <v>2147.595058899943</v>
+        <v>2147.595058899944</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.51945332866</v>
+        <v>1919.502500258801</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.367345096918</v>
+        <v>1684.350392027058</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.129988368716</v>
+        <v>1430.113035298857</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.278488163183</v>
+        <v>1222.261535093324</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.518189398229</v>
+        <v>1014.50123632837</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.56333823620765</v>
+        <v>1242.411483639326</v>
       </c>
       <c r="C37" t="n">
-        <v>49.56333823620765</v>
+        <v>1073.475300711419</v>
       </c>
       <c r="D37" t="n">
-        <v>49.56333823620765</v>
+        <v>923.3586612990833</v>
       </c>
       <c r="E37" t="n">
-        <v>49.56333823620765</v>
+        <v>923.3586612990833</v>
       </c>
       <c r="F37" t="n">
-        <v>49.56333823620765</v>
+        <v>923.3586612990833</v>
       </c>
       <c r="G37" t="n">
-        <v>49.56333823620765</v>
+        <v>923.3586612990833</v>
       </c>
       <c r="H37" t="n">
-        <v>49.56333823620765</v>
+        <v>923.3586612990833</v>
       </c>
       <c r="I37" t="n">
-        <v>49.56333823620765</v>
+        <v>923.3586612990833</v>
       </c>
       <c r="J37" t="n">
-        <v>72.86514347759771</v>
+        <v>946.6604665404734</v>
       </c>
       <c r="K37" t="n">
-        <v>240.9940042345143</v>
+        <v>1114.78932729739</v>
       </c>
       <c r="L37" t="n">
-        <v>511.6674958655369</v>
+        <v>1385.462818928413</v>
       </c>
       <c r="M37" t="n">
-        <v>807.4438646610199</v>
+        <v>1681.239187723896</v>
       </c>
       <c r="N37" t="n">
-        <v>1101.62194892109</v>
+        <v>1975.417271983965</v>
       </c>
       <c r="O37" t="n">
-        <v>1357.32672832346</v>
+        <v>2231.122051386335</v>
       </c>
       <c r="P37" t="n">
-        <v>1552.605659238979</v>
+        <v>2426.400982301855</v>
       </c>
       <c r="Q37" t="n">
-        <v>1604.371588747507</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="R37" t="n">
-        <v>1500.381797250919</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S37" t="n">
-        <v>1303.20795437068</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="T37" t="n">
-        <v>1080.095830024025</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="U37" t="n">
-        <v>790.9757864401</v>
+        <v>2416.94373675396</v>
       </c>
       <c r="V37" t="n">
-        <v>536.2912982342132</v>
+        <v>2162.259248548074</v>
       </c>
       <c r="W37" t="n">
-        <v>246.8741281972526</v>
+        <v>1872.842078511113</v>
       </c>
       <c r="X37" t="n">
-        <v>49.56333823620765</v>
+        <v>1644.852527613096</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.56333823620765</v>
+        <v>1424.059948469566</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1181.096984608901</v>
+        <v>1460.975182473664</v>
       </c>
       <c r="C38" t="n">
-        <v>1181.096984608901</v>
+        <v>1273.665091874753</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.096984608901</v>
+        <v>915.3993932680021</v>
       </c>
       <c r="E38" t="n">
-        <v>1181.096984608901</v>
+        <v>529.6111406697578</v>
       </c>
       <c r="F38" t="n">
-        <v>770.1110798192936</v>
+        <v>118.6252358801502</v>
       </c>
       <c r="G38" t="n">
-        <v>354.3365999934929</v>
+        <v>118.6252358801502</v>
       </c>
       <c r="H38" t="n">
-        <v>49.56333823620765</v>
+        <v>118.6252358801502</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J38" t="n">
-        <v>180.0442978497622</v>
+        <v>180.0442978497638</v>
       </c>
       <c r="K38" t="n">
-        <v>426.3399508569918</v>
+        <v>426.3399508569934</v>
       </c>
       <c r="L38" t="n">
-        <v>768.7932492218215</v>
+        <v>768.7932492218232</v>
       </c>
       <c r="M38" t="n">
-        <v>1181.507964783271</v>
+        <v>1181.507964783273</v>
       </c>
       <c r="N38" t="n">
-        <v>1605.514644301289</v>
+        <v>1605.514644301291</v>
       </c>
       <c r="O38" t="n">
-        <v>1992.556867108826</v>
+        <v>1992.556867108828</v>
       </c>
       <c r="P38" t="n">
-        <v>2288.387448877805</v>
+        <v>2288.387448877806</v>
       </c>
       <c r="Q38" t="n">
         <v>2462.371149022765</v>
       </c>
       <c r="R38" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S38" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.580272710555</v>
+        <v>2224.580272710556</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.580272710555</v>
+        <v>2224.580272710556</v>
       </c>
       <c r="W38" t="n">
-        <v>1871.811617440441</v>
+        <v>2224.580272710556</v>
       </c>
       <c r="X38" t="n">
-        <v>1871.811617440441</v>
+        <v>1851.114514449476</v>
       </c>
       <c r="Y38" t="n">
-        <v>1481.672285464629</v>
+        <v>1460.975182473664</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.2858993083009</v>
+        <v>846.2858993083019</v>
       </c>
       <c r="C39" t="n">
-        <v>671.832870027174</v>
+        <v>671.8328700271749</v>
       </c>
       <c r="D39" t="n">
-        <v>522.8984603659227</v>
+        <v>522.8984603659236</v>
       </c>
       <c r="E39" t="n">
-        <v>363.6610053604672</v>
+        <v>363.6610053604681</v>
       </c>
       <c r="F39" t="n">
-        <v>217.1264473873522</v>
+        <v>217.1264473873531</v>
       </c>
       <c r="G39" t="n">
-        <v>80.38772823148662</v>
+        <v>165.4046813013471</v>
       </c>
       <c r="H39" t="n">
-        <v>49.56333823620765</v>
+        <v>71.27509828728043</v>
       </c>
       <c r="I39" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J39" t="n">
-        <v>233.2891819279929</v>
+        <v>108.4590569409882</v>
       </c>
       <c r="K39" t="n">
-        <v>555.3678425083665</v>
+        <v>549.0966303468923</v>
       </c>
       <c r="L39" t="n">
-        <v>842.1318924430154</v>
+        <v>835.8606802815414</v>
       </c>
       <c r="M39" t="n">
-        <v>1196.1288811026</v>
+        <v>1189.857668941126</v>
       </c>
       <c r="N39" t="n">
-        <v>1573.903761616837</v>
+        <v>1567.632549455363</v>
       </c>
       <c r="O39" t="n">
-        <v>1897.274177775095</v>
+        <v>1891.002965613621</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.474379338298</v>
+        <v>2345.45089419679</v>
       </c>
       <c r="Q39" t="n">
-        <v>2456.099171398145</v>
+        <v>2456.099171398146</v>
       </c>
       <c r="R39" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S39" t="n">
-        <v>2341.752067337949</v>
+        <v>2341.75206733795</v>
       </c>
       <c r="T39" t="n">
-        <v>2147.595058899943</v>
+        <v>2147.595058899944</v>
       </c>
       <c r="U39" t="n">
-        <v>1919.5025002588</v>
+        <v>1919.502500258801</v>
       </c>
       <c r="V39" t="n">
-        <v>1684.350392027057</v>
+        <v>1684.350392027058</v>
       </c>
       <c r="W39" t="n">
-        <v>1430.113035298856</v>
+        <v>1430.113035298857</v>
       </c>
       <c r="X39" t="n">
-        <v>1222.261535093323</v>
+        <v>1222.261535093324</v>
       </c>
       <c r="Y39" t="n">
-        <v>1014.501236328369</v>
+        <v>1014.50123632837</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>246.8741281972526</v>
+        <v>1567.650355794892</v>
       </c>
       <c r="C40" t="n">
-        <v>246.8741281972526</v>
+        <v>1567.650355794892</v>
       </c>
       <c r="D40" t="n">
-        <v>246.8741281972526</v>
+        <v>1567.650355794892</v>
       </c>
       <c r="E40" t="n">
-        <v>246.8741281972526</v>
+        <v>1494.079111929763</v>
       </c>
       <c r="F40" t="n">
-        <v>246.8741281972526</v>
+        <v>1347.189164431852</v>
       </c>
       <c r="G40" t="n">
-        <v>246.8741281972526</v>
+        <v>1179.171421464486</v>
       </c>
       <c r="H40" t="n">
-        <v>156.3591079598391</v>
+        <v>1030.154431022715</v>
       </c>
       <c r="I40" t="n">
-        <v>49.56333823620765</v>
+        <v>923.3586612990833</v>
       </c>
       <c r="J40" t="n">
-        <v>72.86514347759771</v>
+        <v>946.6604665404734</v>
       </c>
       <c r="K40" t="n">
-        <v>240.9940042345143</v>
+        <v>1114.78932729739</v>
       </c>
       <c r="L40" t="n">
-        <v>511.6674958655369</v>
+        <v>1385.462818928413</v>
       </c>
       <c r="M40" t="n">
-        <v>807.4438646610199</v>
+        <v>1681.239187723896</v>
       </c>
       <c r="N40" t="n">
-        <v>1101.62194892109</v>
+        <v>1975.417271983965</v>
       </c>
       <c r="O40" t="n">
-        <v>1357.32672832346</v>
+        <v>2231.122051386335</v>
       </c>
       <c r="P40" t="n">
-        <v>1552.605659238979</v>
+        <v>2426.400982301855</v>
       </c>
       <c r="Q40" t="n">
-        <v>1604.371588747507</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="R40" t="n">
-        <v>1500.381797250919</v>
+        <v>2374.177120313795</v>
       </c>
       <c r="S40" t="n">
-        <v>1303.20795437068</v>
+        <v>2374.177120313795</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.095830024025</v>
+        <v>2374.177120313795</v>
       </c>
       <c r="U40" t="n">
-        <v>790.9757864401</v>
+        <v>2085.05707672987</v>
       </c>
       <c r="V40" t="n">
-        <v>536.2912982342132</v>
+        <v>2085.05707672987</v>
       </c>
       <c r="W40" t="n">
-        <v>246.8741281972526</v>
+        <v>1795.639906692909</v>
       </c>
       <c r="X40" t="n">
-        <v>246.8741281972526</v>
+        <v>1567.650355794892</v>
       </c>
       <c r="Y40" t="n">
-        <v>246.8741281972526</v>
+        <v>1567.650355794892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.523447844244</v>
+        <v>1573.565711171222</v>
       </c>
       <c r="C41" t="n">
-        <v>1745.523447844244</v>
+        <v>1204.60319423081</v>
       </c>
       <c r="D41" t="n">
-        <v>1387.257749237493</v>
+        <v>846.3374956240594</v>
       </c>
       <c r="E41" t="n">
-        <v>1001.469496639249</v>
+        <v>460.5492430258152</v>
       </c>
       <c r="F41" t="n">
-        <v>839.1729774632362</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="G41" t="n">
-        <v>423.3984976374354</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="H41" t="n">
-        <v>118.6252358801502</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J41" t="n">
-        <v>180.0442978497637</v>
+        <v>180.0442978497638</v>
       </c>
       <c r="K41" t="n">
-        <v>426.3399508569933</v>
+        <v>426.3399508569934</v>
       </c>
       <c r="L41" t="n">
         <v>768.7932492218229</v>
       </c>
       <c r="M41" t="n">
-        <v>1181.507964783273</v>
+        <v>1181.507964783272</v>
       </c>
       <c r="N41" t="n">
         <v>1605.51464430129</v>
       </c>
       <c r="O41" t="n">
-        <v>1992.556867108826</v>
+        <v>1992.556867108827</v>
       </c>
       <c r="P41" t="n">
-        <v>2288.387448877805</v>
+        <v>2288.387448877806</v>
       </c>
       <c r="Q41" t="n">
         <v>2462.371149022765</v>
       </c>
       <c r="R41" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S41" t="n">
-        <v>2351.878742214185</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="T41" t="n">
-        <v>2351.878742214185</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="U41" t="n">
-        <v>2098.292103114358</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="V41" t="n">
-        <v>2098.292103114358</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="W41" t="n">
-        <v>1745.523447844244</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="X41" t="n">
-        <v>1745.523447844244</v>
+        <v>2350.304883211155</v>
       </c>
       <c r="Y41" t="n">
-        <v>1745.523447844244</v>
+        <v>1960.165551235343</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>909.5910923270886</v>
+        <v>846.2858993083019</v>
       </c>
       <c r="C42" t="n">
-        <v>735.1380630459616</v>
+        <v>671.8328700271749</v>
       </c>
       <c r="D42" t="n">
-        <v>586.2036533847104</v>
+        <v>522.8984603659236</v>
       </c>
       <c r="E42" t="n">
-        <v>426.9661983792548</v>
+        <v>363.6610053604681</v>
       </c>
       <c r="F42" t="n">
-        <v>280.4316404061398</v>
+        <v>302.1434004572126</v>
       </c>
       <c r="G42" t="n">
-        <v>143.6929212502743</v>
+        <v>165.4046813013471</v>
       </c>
       <c r="H42" t="n">
-        <v>49.56333823620765</v>
+        <v>71.27509828728043</v>
       </c>
       <c r="I42" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J42" t="n">
-        <v>233.2891819279929</v>
+        <v>233.289181927993</v>
       </c>
       <c r="K42" t="n">
-        <v>555.3678425083665</v>
+        <v>555.3678425083673</v>
       </c>
       <c r="L42" t="n">
-        <v>842.1318924430154</v>
+        <v>842.1318924430163</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.1288811026</v>
+        <v>1196.128881102601</v>
       </c>
       <c r="N42" t="n">
-        <v>1573.903761616837</v>
+        <v>1573.903761616838</v>
       </c>
       <c r="O42" t="n">
         <v>1897.274177775095</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.474379338298</v>
+        <v>2137.474379338299</v>
       </c>
       <c r="Q42" t="n">
-        <v>2456.099171398145</v>
+        <v>2456.099171398146</v>
       </c>
       <c r="R42" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S42" t="n">
-        <v>2341.752067337949</v>
+        <v>2341.75206733795</v>
       </c>
       <c r="T42" t="n">
-        <v>2147.595058899943</v>
+        <v>2147.595058899944</v>
       </c>
       <c r="U42" t="n">
-        <v>1919.5025002588</v>
+        <v>1919.502500258801</v>
       </c>
       <c r="V42" t="n">
-        <v>1684.350392027057</v>
+        <v>1684.350392027058</v>
       </c>
       <c r="W42" t="n">
-        <v>1430.113035298856</v>
+        <v>1430.113035298857</v>
       </c>
       <c r="X42" t="n">
-        <v>1285.56672811211</v>
+        <v>1222.261535093324</v>
       </c>
       <c r="Y42" t="n">
-        <v>1077.806429347157</v>
+        <v>1014.50123632837</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.5340323421708</v>
+        <v>217.5810812035738</v>
       </c>
       <c r="C43" t="n">
-        <v>580.5340323421708</v>
+        <v>217.5810812035738</v>
       </c>
       <c r="D43" t="n">
-        <v>430.417392929835</v>
+        <v>217.5810812035738</v>
       </c>
       <c r="E43" t="n">
-        <v>282.5042993474419</v>
+        <v>217.5810812035738</v>
       </c>
       <c r="F43" t="n">
-        <v>282.5042993474419</v>
+        <v>217.5810812035738</v>
       </c>
       <c r="G43" t="n">
-        <v>282.5042993474419</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="H43" t="n">
-        <v>133.4873089056705</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="I43" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J43" t="n">
-        <v>72.86514347759771</v>
+        <v>72.86514347759774</v>
       </c>
       <c r="K43" t="n">
         <v>240.9940042345143</v>
       </c>
       <c r="L43" t="n">
-        <v>511.6674958655369</v>
+        <v>511.667495865537</v>
       </c>
       <c r="M43" t="n">
-        <v>807.4438646610199</v>
+        <v>807.44386466102</v>
       </c>
       <c r="N43" t="n">
         <v>1101.62194892109</v>
@@ -7588,31 +7588,31 @@
         <v>1552.605659238979</v>
       </c>
       <c r="Q43" t="n">
-        <v>1604.371588747507</v>
+        <v>1604.371588747508</v>
       </c>
       <c r="R43" t="n">
-        <v>1500.381797250919</v>
+        <v>1501.904458275019</v>
       </c>
       <c r="S43" t="n">
-        <v>1500.381797250919</v>
+        <v>1501.904458275019</v>
       </c>
       <c r="T43" t="n">
-        <v>1500.381797250919</v>
+        <v>1278.792333928363</v>
       </c>
       <c r="U43" t="n">
-        <v>1500.381797250919</v>
+        <v>989.6722903444387</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.381797250919</v>
+        <v>734.9878021385518</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.964627213958</v>
+        <v>445.5706321015912</v>
       </c>
       <c r="X43" t="n">
-        <v>982.9750763159407</v>
+        <v>217.5810812035738</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.1824971724105</v>
+        <v>217.5810812035738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>181.4929172961642</v>
+        <v>2351.878742214186</v>
       </c>
       <c r="C44" t="n">
-        <v>181.4929172961642</v>
+        <v>1994.212833457839</v>
       </c>
       <c r="D44" t="n">
-        <v>181.4929172961642</v>
+        <v>1635.947134851088</v>
       </c>
       <c r="E44" t="n">
-        <v>49.56333823620765</v>
+        <v>1250.158882252844</v>
       </c>
       <c r="F44" t="n">
-        <v>49.56333823620765</v>
+        <v>839.1729774632363</v>
       </c>
       <c r="G44" t="n">
-        <v>49.56333823620765</v>
+        <v>423.3984976374355</v>
       </c>
       <c r="H44" t="n">
-        <v>49.56333823620765</v>
+        <v>118.6252358801502</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J44" t="n">
-        <v>180.0442978497637</v>
+        <v>180.0442978497625</v>
       </c>
       <c r="K44" t="n">
-        <v>426.3399508569933</v>
+        <v>426.3399508569921</v>
       </c>
       <c r="L44" t="n">
-        <v>768.793249221823</v>
+        <v>768.793249221822</v>
       </c>
       <c r="M44" t="n">
-        <v>1181.507964783273</v>
+        <v>1181.507964783272</v>
       </c>
       <c r="N44" t="n">
         <v>1605.51464430129</v>
       </c>
       <c r="O44" t="n">
-        <v>1992.556867108827</v>
+        <v>1992.556867108826</v>
       </c>
       <c r="P44" t="n">
-        <v>2288.387448877806</v>
+        <v>2288.387448877805</v>
       </c>
       <c r="Q44" t="n">
-        <v>2462.371149022766</v>
+        <v>2462.371149022765</v>
       </c>
       <c r="R44" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S44" t="n">
-        <v>2478.166911810382</v>
+        <v>2351.878742214186</v>
       </c>
       <c r="T44" t="n">
-        <v>2269.11602931069</v>
+        <v>2351.878742214186</v>
       </c>
       <c r="U44" t="n">
-        <v>2015.529390210862</v>
+        <v>2351.878742214186</v>
       </c>
       <c r="V44" t="n">
-        <v>1684.466502867292</v>
+        <v>2351.878742214186</v>
       </c>
       <c r="W44" t="n">
-        <v>1331.697847597178</v>
+        <v>2351.878742214186</v>
       </c>
       <c r="X44" t="n">
-        <v>958.2320893360977</v>
+        <v>2351.878742214186</v>
       </c>
       <c r="Y44" t="n">
-        <v>568.092757360286</v>
+        <v>2351.878742214186</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.2858993083009</v>
+        <v>846.2858993083019</v>
       </c>
       <c r="C45" t="n">
-        <v>671.832870027174</v>
+        <v>671.8328700271749</v>
       </c>
       <c r="D45" t="n">
-        <v>522.8984603659227</v>
+        <v>522.8984603659236</v>
       </c>
       <c r="E45" t="n">
-        <v>363.6610053604672</v>
+        <v>363.6610053604681</v>
       </c>
       <c r="F45" t="n">
-        <v>217.1264473873522</v>
+        <v>217.1264473873531</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4046813013471</v>
+        <v>143.6929212502743</v>
       </c>
       <c r="H45" t="n">
-        <v>71.27509828728043</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="I45" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J45" t="n">
         <v>108.4590569409882</v>
@@ -7731,46 +7731,46 @@
         <v>287.2760457044395</v>
       </c>
       <c r="L45" t="n">
-        <v>900.622356377509</v>
+        <v>574.0400956390886</v>
       </c>
       <c r="M45" t="n">
-        <v>1254.619345037094</v>
+        <v>928.0370842986733</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.39422555133</v>
+        <v>1305.81196481291</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.250692633585</v>
+        <v>1812.040292092286</v>
       </c>
       <c r="P45" t="n">
-        <v>2345.450894196789</v>
+        <v>2367.518634609027</v>
       </c>
       <c r="Q45" t="n">
-        <v>2456.099171398145</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="R45" t="n">
-        <v>2478.166911810382</v>
+        <v>2478.166911810383</v>
       </c>
       <c r="S45" t="n">
-        <v>2341.752067337949</v>
+        <v>2341.75206733795</v>
       </c>
       <c r="T45" t="n">
-        <v>2147.595058899943</v>
+        <v>2147.595058899944</v>
       </c>
       <c r="U45" t="n">
-        <v>1919.5025002588</v>
+        <v>1919.502500258801</v>
       </c>
       <c r="V45" t="n">
-        <v>1684.350392027057</v>
+        <v>1684.350392027058</v>
       </c>
       <c r="W45" t="n">
-        <v>1430.113035298856</v>
+        <v>1430.113035298857</v>
       </c>
       <c r="X45" t="n">
-        <v>1222.261535093323</v>
+        <v>1222.261535093324</v>
       </c>
       <c r="Y45" t="n">
-        <v>1014.501236328369</v>
+        <v>1014.50123632837</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>246.8741281972526</v>
+        <v>515.6108141983027</v>
       </c>
       <c r="C46" t="n">
-        <v>246.8741281972526</v>
+        <v>515.6108141983027</v>
       </c>
       <c r="D46" t="n">
-        <v>246.8741281972526</v>
+        <v>365.4941747859669</v>
       </c>
       <c r="E46" t="n">
-        <v>246.8741281972526</v>
+        <v>217.5810812035738</v>
       </c>
       <c r="F46" t="n">
-        <v>246.8741281972526</v>
+        <v>217.5810812035738</v>
       </c>
       <c r="G46" t="n">
-        <v>246.8741281972526</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="H46" t="n">
-        <v>156.3591079598391</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="I46" t="n">
-        <v>49.56333823620765</v>
+        <v>49.56333823620766</v>
       </c>
       <c r="J46" t="n">
-        <v>72.86514347759771</v>
+        <v>72.86514347759774</v>
       </c>
       <c r="K46" t="n">
         <v>240.9940042345143</v>
       </c>
       <c r="L46" t="n">
-        <v>511.6674958655369</v>
+        <v>511.667495865537</v>
       </c>
       <c r="M46" t="n">
-        <v>807.4438646610199</v>
+        <v>807.44386466102</v>
       </c>
       <c r="N46" t="n">
         <v>1101.62194892109</v>
@@ -7825,31 +7825,31 @@
         <v>1552.605659238979</v>
       </c>
       <c r="Q46" t="n">
-        <v>1604.371588747507</v>
+        <v>1604.371588747508</v>
       </c>
       <c r="R46" t="n">
-        <v>1500.381797250919</v>
+        <v>1604.371588747508</v>
       </c>
       <c r="S46" t="n">
-        <v>1303.20795437068</v>
+        <v>1503.617175931336</v>
       </c>
       <c r="T46" t="n">
-        <v>1080.095830024025</v>
+        <v>1280.50505158468</v>
       </c>
       <c r="U46" t="n">
-        <v>790.9757864401</v>
+        <v>1280.50505158468</v>
       </c>
       <c r="V46" t="n">
-        <v>536.2912982342132</v>
+        <v>1025.820563378793</v>
       </c>
       <c r="W46" t="n">
-        <v>246.8741281972526</v>
+        <v>736.4033933418328</v>
       </c>
       <c r="X46" t="n">
-        <v>246.8741281972526</v>
+        <v>736.4033933418328</v>
       </c>
       <c r="Y46" t="n">
-        <v>246.8741281972526</v>
+        <v>515.6108141983027</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>61.88110319252718</v>
+        <v>184.7049607284038</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>292.9049439543558</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>23.23102293027281</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>92.81703501204959</v>
+        <v>31.12142949765718</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>23.23102293027279</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>261.9690121348336</v>
+        <v>261.9690121348333</v>
       </c>
       <c r="N18" t="n">
-        <v>218.9080703524589</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>92.81703501204873</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>144.7087594110337</v>
+        <v>144.708759411033</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>20.15929029859262</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>85.87571017157535</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>252.1598504724045</v>
       </c>
       <c r="M24" t="n">
-        <v>283.6570103669404</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>259.638937786484</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>45.74749138649042</v>
+        <v>314.5929421864627</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>23.2310229302728</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>85.87571017157467</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>85.8757101715758</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>252.8751164636564</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.115433887399632</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>23.2310229302728</v>
+        <v>23.23102293027279</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>85.87571017157467</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>85.87571017157484</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10197,13 +10197,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>274.4504973534519</v>
+        <v>283.6570103669404</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>314.5929421864627</v>
+        <v>305.3864291729745</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>20.15929029859262</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>85.87571017157467</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>351.5690696850574</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>198.4871671869272</v>
       </c>
       <c r="O33" t="n">
-        <v>237.4743698548572</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-2.469253402183182e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10668,25 +10668,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>184.7049607284014</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>237.950939554377</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>55.1395020781132</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>23.23102293027279</v>
+        <v>23.23102293027277</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-2.391052248127438e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>144.7087594110326</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>216.4118454747127</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>144.7087594110326</v>
+        <v>144.7087594110333</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>329.8810714529502</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>150.9960110343409</v>
+        <v>184.7049607284019</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>23.23102293027277</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>296.1405337705895</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>266.9542199547716</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6167350275427</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>68.37127866750316</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>125.0252879002354</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.960373674696</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0507727088291</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23352,10 +23352,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>84.16678353916052</v>
+        <v>62.67214108859848</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.49464245056207</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.9498935816226</v>
+        <v>102.9498935816227</v>
       </c>
       <c r="S13" t="n">
         <v>195.2021044514358</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>112.1756238046645</v>
+        <v>112.1756238046647</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>380.3260034875425</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.6167350275427</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>125.0252879002354</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.960373674696</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0507727088291</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>210.4582910103841</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.16678353916049</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>84.16678353916035</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23732,25 +23732,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>228.843073722488</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.7255291397124</v>
       </c>
       <c r="I17" t="n">
-        <v>68.37127866750316</v>
+        <v>68.37127866750313</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>125.0252879002354</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0507727088291</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>205.5881872622882</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23826,10 +23826,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>62.67214108859848</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>21.49464245056205</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,7 +23859,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>84.16678353916123</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3375655376925</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.5268205373537</v>
       </c>
       <c r="I19" t="n">
-        <v>105.7278120263952</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.9498935816227</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>160.9978584549202</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>59.00560298317308</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,16 +23978,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6167350275427</v>
       </c>
       <c r="H20" t="n">
-        <v>188.7965627281635</v>
+        <v>301.7255291397124</v>
       </c>
       <c r="I20" t="n">
-        <v>68.37127866750316</v>
+        <v>68.37127866750313</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,22 +24017,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>125.0252879002354</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.960373674696</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0507727088291</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>37.37771083502071</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24054,16 +24054,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>84.1667835391614</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>49.4141791399111</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>67.26115472582255</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>105.7278120263952</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>102.9498935816227</v>
+        <v>102.9498935816226</v>
       </c>
       <c r="S22" t="n">
         <v>195.2021044514358</v>
@@ -24184,13 +24184,13 @@
         <v>286.2288431480854</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24212,19 +24212,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>313.6925616815885</v>
       </c>
       <c r="H23" t="n">
         <v>301.7255291397124</v>
       </c>
       <c r="I23" t="n">
-        <v>68.37127866750316</v>
+        <v>68.37127866750313</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>125.0252879002354</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>206.960373674696</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>143.231466150848</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24379,7 @@
         <v>166.3375655376925</v>
       </c>
       <c r="H25" t="n">
-        <v>147.5268205373537</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>105.7278120263952</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.9498935816227</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>146.0067330980748</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>161.3604144381054</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24446,22 +24446,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>158.9809088260722</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6167350275427</v>
+        <v>215.9146022329325</v>
       </c>
       <c r="H26" t="n">
         <v>301.7255291397124</v>
       </c>
       <c r="I26" t="n">
-        <v>68.37127866750316</v>
+        <v>68.37127866750313</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24649,22 +24649,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.2021044514358</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>233.5865024101984</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>23.24697129066055</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>215.9146022329325</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24731,16 +24731,16 @@
         <v>125.0252879002354</v>
       </c>
       <c r="T29" t="n">
-        <v>196.0361966278054</v>
+        <v>206.960373674696</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0507727088291</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3375655376925</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.5268205373537</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.7278120263952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>102.9498935816226</v>
       </c>
       <c r="S31" t="n">
-        <v>195.2021044514358</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8810031031891</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2288431480854</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>112.1756238046645</v>
+        <v>108.6665332578481</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>125.0252879002354</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.960373674696</v>
       </c>
       <c r="U32" t="n">
         <v>251.0507727088291</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>365.9412825007684</v>
+        <v>158.980908826073</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>147.5268205373537</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.7278120263952</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.9498935816226</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>120.9660476921698</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2288431480854</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>92.62336675133059</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>311.2502617388971</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,13 +25202,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>11.18364210222397</v>
       </c>
       <c r="T35" t="n">
         <v>206.960373674696</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0507727088291</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>84.166783539161</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>84.16678353916171</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25330,7 @@
         <v>147.5268205373537</v>
       </c>
       <c r="I37" t="n">
-        <v>105.7278120263952</v>
+        <v>105.7278120263951</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.9498935816226</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.2021044514358</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8810031031891</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>225.6178998422268</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>30.37197332760269</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25388,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>85.16429381631025</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>179.8359020780852</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6167350275427</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.7255291397124</v>
       </c>
       <c r="I38" t="n">
-        <v>68.37127866750313</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25482,13 +25482,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>84.16678353916095</v>
       </c>
       <c r="H39" t="n">
-        <v>62.67214108859979</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.49464245056205</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>73.59843122009106</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3375655376925</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.91695050231438</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,22 +25597,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.2021044514358</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.8810031031891</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>246.2024917574588</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6167350275427</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.7255291397124</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>68.37127866750313</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25676,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>125.0252879002354</v>
       </c>
       <c r="T41" t="n">
         <v>206.960373674696</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0507727088291</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>243.1476923652335</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25716,7 +25716,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>84.16678353916092</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25725,7 +25725,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>21.49464245056205</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25770,7 +25770,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>62.67214108859969</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3375655376925</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.5268205373537</v>
       </c>
       <c r="I43" t="n">
-        <v>22.64308106362688</v>
+        <v>105.7278120263951</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.507434413858903</v>
       </c>
       <c r="S43" t="n">
         <v>195.2021044514358</v>
       </c>
       <c r="T43" t="n">
-        <v>220.8810031031891</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2288431480854</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>11.1836421022237</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>251.3200868029048</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6167350275427</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.7255291397124</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>68.37127866750313</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>125.0252879002354</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.960373674696</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0507727088291</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25956,13 +25956,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.16678353916184</v>
+        <v>62.67214108859891</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.49464245056204</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3375655376925</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.91695050231438</v>
+        <v>147.5268205373537</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.7278120263951</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.9498935816226</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>95.45523576342586</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2288431480854</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677215.6101384907</v>
+        <v>677215.6101384908</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677215.6101384907</v>
+        <v>677215.6101384906</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677215.6101384907</v>
+        <v>677215.6101384906</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692177.6853137722</v>
+        <v>692177.6853137723</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692177.6853137723</v>
+        <v>692177.6853137721</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692177.6853137721</v>
+        <v>692177.6853137722</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677215.6101384904</v>
+        <v>677215.6101384906</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677215.6101384903</v>
+        <v>677215.6101384904</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677215.6101384906</v>
+        <v>677215.6101384904</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677215.6101384904</v>
+        <v>677215.6101384907</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>532534.406949674</v>
+        <v>532534.4069496739</v>
       </c>
       <c r="E2" t="n">
-        <v>390422.1283515812</v>
+        <v>390422.1283515811</v>
       </c>
       <c r="F2" t="n">
-        <v>390422.128351581</v>
+        <v>390422.1283515809</v>
       </c>
       <c r="G2" t="n">
         <v>390422.1283515811</v>
       </c>
       <c r="H2" t="n">
-        <v>390422.1283515809</v>
+        <v>390422.128351581</v>
       </c>
       <c r="I2" t="n">
-        <v>397096.5542862365</v>
+        <v>397096.5542862364</v>
       </c>
       <c r="J2" t="n">
-        <v>397096.5542862363</v>
+        <v>397096.5542862364</v>
       </c>
       <c r="K2" t="n">
         <v>397096.5542862365</v>
       </c>
       <c r="L2" t="n">
-        <v>397096.5542862366</v>
+        <v>397096.5542862362</v>
       </c>
       <c r="M2" t="n">
-        <v>390422.128351581</v>
+        <v>390422.1283515812</v>
       </c>
       <c r="N2" t="n">
-        <v>390422.128351581</v>
+        <v>390422.1283515811</v>
       </c>
       <c r="O2" t="n">
-        <v>390422.128351581</v>
+        <v>390422.1283515809</v>
       </c>
       <c r="P2" t="n">
-        <v>390422.1283515809</v>
+        <v>390422.1283515812</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>19708.98312032399</v>
       </c>
       <c r="E3" t="n">
-        <v>903127.191672024</v>
+        <v>903127.1916720237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5767.294177880191</v>
+        <v>5767.294177880161</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148987.5408612649</v>
+        <v>148987.5408612647</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419447.199162568</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="C4" t="n">
-        <v>419447.199162568</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="D4" t="n">
-        <v>413860.042797513</v>
+        <v>414525.2106227416</v>
       </c>
       <c r="E4" t="n">
-        <v>16853.08700562044</v>
+        <v>17006.70125467832</v>
       </c>
       <c r="F4" t="n">
-        <v>16853.08700562044</v>
+        <v>17006.7012546783</v>
       </c>
       <c r="G4" t="n">
-        <v>16853.08700562045</v>
+        <v>17006.70125467828</v>
       </c>
       <c r="H4" t="n">
-        <v>16853.08700562044</v>
+        <v>17006.70125467828</v>
       </c>
       <c r="I4" t="n">
-        <v>20501.55904307595</v>
+        <v>20689.30933396595</v>
       </c>
       <c r="J4" t="n">
-        <v>20501.55904307597</v>
+        <v>20689.30933396593</v>
       </c>
       <c r="K4" t="n">
-        <v>20501.55904307593</v>
+        <v>20689.30933396595</v>
       </c>
       <c r="L4" t="n">
-        <v>20501.55904307594</v>
+        <v>20689.30933396594</v>
       </c>
       <c r="M4" t="n">
-        <v>16853.08700562039</v>
+        <v>17006.70125467825</v>
       </c>
       <c r="N4" t="n">
-        <v>16853.08700562039</v>
+        <v>17006.70125467825</v>
       </c>
       <c r="O4" t="n">
-        <v>16853.08700562042</v>
+        <v>17006.70125467829</v>
       </c>
       <c r="P4" t="n">
-        <v>16853.08700562043</v>
+        <v>17006.70125467829</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>34129.29174257201</v>
       </c>
       <c r="E5" t="n">
-        <v>57656.40704910906</v>
+        <v>57656.40704910905</v>
       </c>
       <c r="F5" t="n">
         <v>57656.40704910906</v>
@@ -26485,31 +26485,31 @@
         <v>57656.40704910905</v>
       </c>
       <c r="H5" t="n">
-        <v>57656.40704910904</v>
+        <v>57656.40704910905</v>
       </c>
       <c r="I5" t="n">
-        <v>58975.03734162115</v>
+        <v>58975.03734162116</v>
       </c>
       <c r="J5" t="n">
         <v>58975.03734162115</v>
       </c>
       <c r="K5" t="n">
-        <v>58975.03734162116</v>
+        <v>58975.03734162115</v>
       </c>
       <c r="L5" t="n">
-        <v>58975.03734162116</v>
+        <v>58975.03734162115</v>
       </c>
       <c r="M5" t="n">
-        <v>57656.40704910904</v>
+        <v>57656.40704910905</v>
       </c>
       <c r="N5" t="n">
-        <v>57656.40704910904</v>
+        <v>57656.40704910905</v>
       </c>
       <c r="O5" t="n">
-        <v>57656.40704910904</v>
+        <v>57656.40704910905</v>
       </c>
       <c r="P5" t="n">
-        <v>57656.40704910904</v>
+        <v>57656.40704910905</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79454.8210035071</v>
+        <v>78754.25127654389</v>
       </c>
       <c r="C6" t="n">
-        <v>79454.82100350704</v>
+        <v>78754.25127654377</v>
       </c>
       <c r="D6" t="n">
-        <v>64836.08928926507</v>
+        <v>64170.92146403634</v>
       </c>
       <c r="E6" t="n">
-        <v>-587214.5573751723</v>
+        <v>-587368.17162423</v>
       </c>
       <c r="F6" t="n">
-        <v>315912.6342968515</v>
+        <v>315759.0200477935</v>
       </c>
       <c r="G6" t="n">
-        <v>315912.6342968516</v>
+        <v>315759.0200477937</v>
       </c>
       <c r="H6" t="n">
-        <v>315912.6342968515</v>
+        <v>315759.0200477936</v>
       </c>
       <c r="I6" t="n">
-        <v>311852.6637236591</v>
+        <v>311664.9134327691</v>
       </c>
       <c r="J6" t="n">
-        <v>317619.9579015392</v>
+        <v>317432.2076106495</v>
       </c>
       <c r="K6" t="n">
-        <v>317619.9579015394</v>
+        <v>317432.2076106494</v>
       </c>
       <c r="L6" t="n">
-        <v>317619.9579015395</v>
+        <v>317432.2076106492</v>
       </c>
       <c r="M6" t="n">
-        <v>166925.0934355867</v>
+        <v>166771.4791865291</v>
       </c>
       <c r="N6" t="n">
-        <v>315912.6342968515</v>
+        <v>315759.0200477937</v>
       </c>
       <c r="O6" t="n">
-        <v>315912.6342968515</v>
+        <v>315759.0200477936</v>
       </c>
       <c r="P6" t="n">
-        <v>315912.6342968514</v>
+        <v>315759.0200477939</v>
       </c>
     </row>
   </sheetData>
@@ -26744,22 +26744,22 @@
         <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>916.8931187885885</v>
+        <v>916.8931187885883</v>
       </c>
       <c r="F3" t="n">
         <v>916.8931187885885</v>
       </c>
       <c r="G3" t="n">
-        <v>916.8931187885884</v>
+        <v>916.8931187885885</v>
       </c>
       <c r="H3" t="n">
-        <v>916.8931187885884</v>
+        <v>916.8931187885885</v>
       </c>
       <c r="I3" t="n">
-        <v>916.8931187885884</v>
+        <v>916.8931187885885</v>
       </c>
       <c r="J3" t="n">
-        <v>916.8931187885884</v>
+        <v>916.8931187885885</v>
       </c>
       <c r="K3" t="n">
         <v>916.8931187885885</v>
@@ -26768,16 +26768,16 @@
         <v>916.8931187885885</v>
       </c>
       <c r="M3" t="n">
-        <v>916.8931187885885</v>
+        <v>916.8931187885886</v>
       </c>
       <c r="N3" t="n">
-        <v>916.8931187885885</v>
+        <v>916.8931187885886</v>
       </c>
       <c r="O3" t="n">
-        <v>916.8931187885885</v>
+        <v>916.8931187885886</v>
       </c>
       <c r="P3" t="n">
-        <v>916.8931187885885</v>
+        <v>916.8931187885886</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26802,34 @@
         <v>619.5417279525959</v>
       </c>
       <c r="G4" t="n">
-        <v>619.5417279525959</v>
+        <v>619.5417279525957</v>
       </c>
       <c r="H4" t="n">
         <v>619.5417279525957</v>
       </c>
       <c r="I4" t="n">
+        <v>641.2297261847028</v>
+      </c>
+      <c r="J4" t="n">
         <v>641.2297261847027</v>
       </c>
-      <c r="J4" t="n">
-        <v>641.2297261847028</v>
-      </c>
       <c r="K4" t="n">
-        <v>641.2297261847028</v>
+        <v>641.2297261847027</v>
       </c>
       <c r="L4" t="n">
-        <v>641.2297261847028</v>
+        <v>641.2297261847027</v>
       </c>
       <c r="M4" t="n">
-        <v>619.5417279525956</v>
+        <v>619.5417279525958</v>
       </c>
       <c r="N4" t="n">
-        <v>619.5417279525956</v>
+        <v>619.5417279525958</v>
       </c>
       <c r="O4" t="n">
-        <v>619.5417279525956</v>
+        <v>619.5417279525958</v>
       </c>
       <c r="P4" t="n">
-        <v>619.5417279525956</v>
+        <v>619.5417279525958</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="E3" t="n">
-        <v>893.8797361017992</v>
+        <v>893.8797361017989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.68799823210725</v>
+        <v>21.68799823210713</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>597.8537297204895</v>
+        <v>597.8537297204889</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.686002487592313</v>
+        <v>3.686002487592312</v>
       </c>
       <c r="H11" t="n">
         <v>37.74927297605478</v>
       </c>
       <c r="I11" t="n">
-        <v>142.1046109029028</v>
+        <v>142.1046109029027</v>
       </c>
       <c r="J11" t="n">
-        <v>312.8448536312883</v>
+        <v>312.8448536312882</v>
       </c>
       <c r="K11" t="n">
-        <v>468.873338931071</v>
+        <v>468.8733389310709</v>
       </c>
       <c r="L11" t="n">
-        <v>581.6788375607243</v>
+        <v>581.6788375607242</v>
       </c>
       <c r="M11" t="n">
-        <v>647.2297842994442</v>
+        <v>647.229784299444</v>
       </c>
       <c r="N11" t="n">
-        <v>657.7026388673158</v>
+        <v>657.7026388673157</v>
       </c>
       <c r="O11" t="n">
-        <v>621.0499516313198</v>
+        <v>621.0499516313196</v>
       </c>
       <c r="P11" t="n">
-        <v>530.0517652188845</v>
+        <v>530.0517652188844</v>
       </c>
       <c r="Q11" t="n">
-        <v>398.0468011319846</v>
+        <v>398.0468011319845</v>
       </c>
       <c r="R11" t="n">
         <v>231.5408537612208</v>
       </c>
       <c r="S11" t="n">
-        <v>83.99478168600992</v>
+        <v>83.99478168600989</v>
       </c>
       <c r="T11" t="n">
-        <v>16.13547588943536</v>
+        <v>16.13547588943535</v>
       </c>
       <c r="U11" t="n">
         <v>0.2948801990073849</v>
@@ -31835,40 +31835,40 @@
         <v>19.04715705257049</v>
       </c>
       <c r="I12" t="n">
-        <v>67.90199040085302</v>
+        <v>67.90199040085301</v>
       </c>
       <c r="J12" t="n">
         <v>186.3282516209904</v>
       </c>
       <c r="K12" t="n">
-        <v>318.4646599475421</v>
+        <v>318.464659947542</v>
       </c>
       <c r="L12" t="n">
-        <v>428.2150362795196</v>
+        <v>428.2150362795195</v>
       </c>
       <c r="M12" t="n">
-        <v>499.7067497397807</v>
+        <v>499.7067497397805</v>
       </c>
       <c r="N12" t="n">
-        <v>512.932500481552</v>
+        <v>512.9325004815519</v>
       </c>
       <c r="O12" t="n">
-        <v>469.2330284426845</v>
+        <v>469.2330284426844</v>
       </c>
       <c r="P12" t="n">
-        <v>376.6008736397884</v>
+        <v>376.6008736397883</v>
       </c>
       <c r="Q12" t="n">
-        <v>251.747710653048</v>
+        <v>251.7477106530479</v>
       </c>
       <c r="R12" t="n">
-        <v>122.4484810336912</v>
+        <v>122.4484810336911</v>
       </c>
       <c r="S12" t="n">
-        <v>36.63247507612896</v>
+        <v>36.63247507612895</v>
       </c>
       <c r="T12" t="n">
-        <v>7.949290341195401</v>
+        <v>7.949290341195399</v>
       </c>
       <c r="U12" t="n">
         <v>0.1297490262436682</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.653413820766307</v>
+        <v>1.653413820766306</v>
       </c>
       <c r="H13" t="n">
         <v>14.7003519700859</v>
       </c>
       <c r="I13" t="n">
-        <v>49.72266290086313</v>
+        <v>49.72266290086312</v>
       </c>
       <c r="J13" t="n">
         <v>116.8963571281779</v>
       </c>
       <c r="K13" t="n">
-        <v>192.0966239035764</v>
+        <v>192.0966239035763</v>
       </c>
       <c r="L13" t="n">
-        <v>245.8175420437472</v>
+        <v>245.8175420437471</v>
       </c>
       <c r="M13" t="n">
         <v>259.1801319224857</v>
@@ -31938,19 +31938,19 @@
         <v>199.9728861043176</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.4508609370769</v>
+        <v>138.4508609370768</v>
       </c>
       <c r="R13" t="n">
-        <v>74.34349779554684</v>
+        <v>74.34349779554682</v>
       </c>
       <c r="S13" t="n">
-        <v>28.81449358553645</v>
+        <v>28.81449358553644</v>
       </c>
       <c r="T13" t="n">
-        <v>7.0645863250924</v>
+        <v>7.064586325092399</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09018620840543502</v>
+        <v>0.09018620840543501</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,13 +32224,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.686002487592312</v>
+        <v>3.686002487592313</v>
       </c>
       <c r="H17" t="n">
         <v>37.74927297605478</v>
       </c>
       <c r="I17" t="n">
-        <v>142.1046109029027</v>
+        <v>142.1046109029028</v>
       </c>
       <c r="J17" t="n">
         <v>312.8448536312883</v>
@@ -32242,16 +32242,16 @@
         <v>581.6788375607243</v>
       </c>
       <c r="M17" t="n">
-        <v>647.2297842994441</v>
+        <v>647.2297842994442</v>
       </c>
       <c r="N17" t="n">
         <v>657.7026388673158</v>
       </c>
       <c r="O17" t="n">
-        <v>621.0499516313197</v>
+        <v>621.0499516313198</v>
       </c>
       <c r="P17" t="n">
-        <v>530.0517652188844</v>
+        <v>530.0517652188845</v>
       </c>
       <c r="Q17" t="n">
         <v>398.0468011319846</v>
@@ -32260,7 +32260,7 @@
         <v>231.5408537612208</v>
       </c>
       <c r="S17" t="n">
-        <v>83.9947816860099</v>
+        <v>83.99478168600992</v>
       </c>
       <c r="T17" t="n">
         <v>16.13547588943536</v>
@@ -32321,7 +32321,7 @@
         <v>428.2150362795196</v>
       </c>
       <c r="M18" t="n">
-        <v>499.7067497397806</v>
+        <v>499.7067497397807</v>
       </c>
       <c r="N18" t="n">
         <v>512.932500481552</v>
@@ -32330,10 +32330,10 @@
         <v>469.2330284426845</v>
       </c>
       <c r="P18" t="n">
-        <v>376.6008736397883</v>
+        <v>376.6008736397884</v>
       </c>
       <c r="Q18" t="n">
-        <v>251.7477106530479</v>
+        <v>251.747710653048</v>
       </c>
       <c r="R18" t="n">
         <v>122.4484810336912</v>
@@ -32342,7 +32342,7 @@
         <v>36.63247507612896</v>
       </c>
       <c r="T18" t="n">
-        <v>7.9492903411954</v>
+        <v>7.949290341195401</v>
       </c>
       <c r="U18" t="n">
         <v>0.1297490262436682</v>
@@ -32394,10 +32394,10 @@
         <v>116.8963571281779</v>
       </c>
       <c r="K19" t="n">
-        <v>192.0966239035763</v>
+        <v>192.0966239035764</v>
       </c>
       <c r="L19" t="n">
-        <v>245.8175420437471</v>
+        <v>245.8175420437472</v>
       </c>
       <c r="M19" t="n">
         <v>259.1801319224857</v>
@@ -32412,19 +32412,19 @@
         <v>199.9728861043176</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4508609370768</v>
+        <v>138.4508609370769</v>
       </c>
       <c r="R19" t="n">
-        <v>74.34349779554682</v>
+        <v>74.34349779554684</v>
       </c>
       <c r="S19" t="n">
-        <v>28.81449358553644</v>
+        <v>28.81449358553645</v>
       </c>
       <c r="T19" t="n">
-        <v>7.064586325092399</v>
+        <v>7.0645863250924</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09018620840543501</v>
+        <v>0.09018620840543502</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.686002487592312</v>
+        <v>3.686002487592313</v>
       </c>
       <c r="H20" t="n">
         <v>37.74927297605478</v>
       </c>
       <c r="I20" t="n">
-        <v>142.1046109029027</v>
+        <v>142.1046109029028</v>
       </c>
       <c r="J20" t="n">
         <v>312.8448536312883</v>
@@ -32479,16 +32479,16 @@
         <v>581.6788375607243</v>
       </c>
       <c r="M20" t="n">
-        <v>647.2297842994441</v>
+        <v>647.2297842994442</v>
       </c>
       <c r="N20" t="n">
         <v>657.7026388673158</v>
       </c>
       <c r="O20" t="n">
-        <v>621.0499516313197</v>
+        <v>621.0499516313198</v>
       </c>
       <c r="P20" t="n">
-        <v>530.0517652188844</v>
+        <v>530.0517652188845</v>
       </c>
       <c r="Q20" t="n">
         <v>398.0468011319846</v>
@@ -32497,7 +32497,7 @@
         <v>231.5408537612208</v>
       </c>
       <c r="S20" t="n">
-        <v>83.9947816860099</v>
+        <v>83.99478168600992</v>
       </c>
       <c r="T20" t="n">
         <v>16.13547588943536</v>
@@ -32558,7 +32558,7 @@
         <v>428.2150362795196</v>
       </c>
       <c r="M21" t="n">
-        <v>499.7067497397806</v>
+        <v>499.7067497397807</v>
       </c>
       <c r="N21" t="n">
         <v>512.932500481552</v>
@@ -32567,10 +32567,10 @@
         <v>469.2330284426845</v>
       </c>
       <c r="P21" t="n">
-        <v>376.6008736397883</v>
+        <v>376.6008736397884</v>
       </c>
       <c r="Q21" t="n">
-        <v>251.7477106530479</v>
+        <v>251.747710653048</v>
       </c>
       <c r="R21" t="n">
         <v>122.4484810336912</v>
@@ -32579,7 +32579,7 @@
         <v>36.63247507612896</v>
       </c>
       <c r="T21" t="n">
-        <v>7.9492903411954</v>
+        <v>7.949290341195401</v>
       </c>
       <c r="U21" t="n">
         <v>0.1297490262436682</v>
@@ -32631,10 +32631,10 @@
         <v>116.8963571281779</v>
       </c>
       <c r="K22" t="n">
-        <v>192.0966239035763</v>
+        <v>192.0966239035764</v>
       </c>
       <c r="L22" t="n">
-        <v>245.8175420437471</v>
+        <v>245.8175420437472</v>
       </c>
       <c r="M22" t="n">
         <v>259.1801319224857</v>
@@ -32649,19 +32649,19 @@
         <v>199.9728861043176</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4508609370768</v>
+        <v>138.4508609370769</v>
       </c>
       <c r="R22" t="n">
-        <v>74.34349779554682</v>
+        <v>74.34349779554684</v>
       </c>
       <c r="S22" t="n">
-        <v>28.81449358553644</v>
+        <v>28.81449358553645</v>
       </c>
       <c r="T22" t="n">
-        <v>7.064586325092399</v>
+        <v>7.0645863250924</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09018620840543501</v>
+        <v>0.09018620840543502</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.686002487592312</v>
+        <v>3.686002487592313</v>
       </c>
       <c r="H23" t="n">
         <v>37.74927297605478</v>
       </c>
       <c r="I23" t="n">
-        <v>142.1046109029027</v>
+        <v>142.1046109029028</v>
       </c>
       <c r="J23" t="n">
         <v>312.8448536312883</v>
@@ -32716,16 +32716,16 @@
         <v>581.6788375607243</v>
       </c>
       <c r="M23" t="n">
-        <v>647.2297842994441</v>
+        <v>647.2297842994442</v>
       </c>
       <c r="N23" t="n">
         <v>657.7026388673158</v>
       </c>
       <c r="O23" t="n">
-        <v>621.0499516313197</v>
+        <v>621.0499516313198</v>
       </c>
       <c r="P23" t="n">
-        <v>530.0517652188844</v>
+        <v>530.0517652188845</v>
       </c>
       <c r="Q23" t="n">
         <v>398.0468011319846</v>
@@ -32734,7 +32734,7 @@
         <v>231.5408537612208</v>
       </c>
       <c r="S23" t="n">
-        <v>83.9947816860099</v>
+        <v>83.99478168600992</v>
       </c>
       <c r="T23" t="n">
         <v>16.13547588943536</v>
@@ -32795,7 +32795,7 @@
         <v>428.2150362795196</v>
       </c>
       <c r="M24" t="n">
-        <v>499.7067497397806</v>
+        <v>499.7067497397807</v>
       </c>
       <c r="N24" t="n">
         <v>512.932500481552</v>
@@ -32804,10 +32804,10 @@
         <v>469.2330284426845</v>
       </c>
       <c r="P24" t="n">
-        <v>376.6008736397883</v>
+        <v>376.6008736397884</v>
       </c>
       <c r="Q24" t="n">
-        <v>251.7477106530479</v>
+        <v>251.747710653048</v>
       </c>
       <c r="R24" t="n">
         <v>122.4484810336912</v>
@@ -32816,7 +32816,7 @@
         <v>36.63247507612896</v>
       </c>
       <c r="T24" t="n">
-        <v>7.9492903411954</v>
+        <v>7.949290341195401</v>
       </c>
       <c r="U24" t="n">
         <v>0.1297490262436682</v>
@@ -32868,10 +32868,10 @@
         <v>116.8963571281779</v>
       </c>
       <c r="K25" t="n">
-        <v>192.0966239035763</v>
+        <v>192.0966239035764</v>
       </c>
       <c r="L25" t="n">
-        <v>245.8175420437471</v>
+        <v>245.8175420437472</v>
       </c>
       <c r="M25" t="n">
         <v>259.1801319224857</v>
@@ -32886,19 +32886,19 @@
         <v>199.9728861043176</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4508609370768</v>
+        <v>138.4508609370769</v>
       </c>
       <c r="R25" t="n">
-        <v>74.34349779554682</v>
+        <v>74.34349779554684</v>
       </c>
       <c r="S25" t="n">
-        <v>28.81449358553644</v>
+        <v>28.81449358553645</v>
       </c>
       <c r="T25" t="n">
-        <v>7.064586325092399</v>
+        <v>7.0645863250924</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09018620840543501</v>
+        <v>0.09018620840543502</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.686002487592312</v>
+        <v>3.686002487592313</v>
       </c>
       <c r="H26" t="n">
         <v>37.74927297605478</v>
       </c>
       <c r="I26" t="n">
-        <v>142.1046109029027</v>
+        <v>142.1046109029028</v>
       </c>
       <c r="J26" t="n">
         <v>312.8448536312883</v>
@@ -32953,16 +32953,16 @@
         <v>581.6788375607243</v>
       </c>
       <c r="M26" t="n">
-        <v>647.2297842994441</v>
+        <v>647.2297842994442</v>
       </c>
       <c r="N26" t="n">
         <v>657.7026388673158</v>
       </c>
       <c r="O26" t="n">
-        <v>621.0499516313197</v>
+        <v>621.0499516313198</v>
       </c>
       <c r="P26" t="n">
-        <v>530.0517652188844</v>
+        <v>530.0517652188845</v>
       </c>
       <c r="Q26" t="n">
         <v>398.0468011319846</v>
@@ -32971,7 +32971,7 @@
         <v>231.5408537612208</v>
       </c>
       <c r="S26" t="n">
-        <v>83.9947816860099</v>
+        <v>83.99478168600992</v>
       </c>
       <c r="T26" t="n">
         <v>16.13547588943536</v>
@@ -33032,7 +33032,7 @@
         <v>428.2150362795196</v>
       </c>
       <c r="M27" t="n">
-        <v>499.7067497397806</v>
+        <v>499.7067497397807</v>
       </c>
       <c r="N27" t="n">
         <v>512.932500481552</v>
@@ -33041,10 +33041,10 @@
         <v>469.2330284426845</v>
       </c>
       <c r="P27" t="n">
-        <v>376.6008736397883</v>
+        <v>376.6008736397884</v>
       </c>
       <c r="Q27" t="n">
-        <v>251.7477106530479</v>
+        <v>251.747710653048</v>
       </c>
       <c r="R27" t="n">
         <v>122.4484810336912</v>
@@ -33053,7 +33053,7 @@
         <v>36.63247507612896</v>
       </c>
       <c r="T27" t="n">
-        <v>7.9492903411954</v>
+        <v>7.949290341195401</v>
       </c>
       <c r="U27" t="n">
         <v>0.1297490262436682</v>
@@ -33105,10 +33105,10 @@
         <v>116.8963571281779</v>
       </c>
       <c r="K28" t="n">
-        <v>192.0966239035763</v>
+        <v>192.0966239035764</v>
       </c>
       <c r="L28" t="n">
-        <v>245.8175420437471</v>
+        <v>245.8175420437472</v>
       </c>
       <c r="M28" t="n">
         <v>259.1801319224857</v>
@@ -33123,19 +33123,19 @@
         <v>199.9728861043176</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4508609370768</v>
+        <v>138.4508609370769</v>
       </c>
       <c r="R28" t="n">
-        <v>74.34349779554682</v>
+        <v>74.34349779554684</v>
       </c>
       <c r="S28" t="n">
-        <v>28.81449358553644</v>
+        <v>28.81449358553645</v>
       </c>
       <c r="T28" t="n">
-        <v>7.064586325092399</v>
+        <v>7.0645863250924</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09018620840543501</v>
+        <v>0.09018620840543502</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33649,25 +33649,25 @@
         <v>3.686002487592313</v>
       </c>
       <c r="H35" t="n">
-        <v>37.74927297605478</v>
+        <v>37.74927297605479</v>
       </c>
       <c r="I35" t="n">
         <v>142.1046109029028</v>
       </c>
       <c r="J35" t="n">
-        <v>312.8448536312883</v>
+        <v>312.8448536312884</v>
       </c>
       <c r="K35" t="n">
-        <v>468.873338931071</v>
+        <v>468.8733389310711</v>
       </c>
       <c r="L35" t="n">
-        <v>581.6788375607243</v>
+        <v>581.6788375607244</v>
       </c>
       <c r="M35" t="n">
         <v>647.2297842994442</v>
       </c>
       <c r="N35" t="n">
-        <v>657.7026388673158</v>
+        <v>657.702638867316</v>
       </c>
       <c r="O35" t="n">
         <v>621.0499516313198</v>
@@ -33676,10 +33676,10 @@
         <v>530.0517652188845</v>
       </c>
       <c r="Q35" t="n">
-        <v>398.0468011319846</v>
+        <v>398.0468011319847</v>
       </c>
       <c r="R35" t="n">
-        <v>231.5408537612208</v>
+        <v>231.5408537612209</v>
       </c>
       <c r="S35" t="n">
         <v>83.99478168600992</v>
@@ -33688,7 +33688,7 @@
         <v>16.13547588943536</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2948801990073849</v>
+        <v>0.294880199007385</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.972185198903756</v>
+        <v>1.972185198903757</v>
       </c>
       <c r="H36" t="n">
         <v>19.04715705257049</v>
       </c>
       <c r="I36" t="n">
-        <v>67.90199040085302</v>
+        <v>67.90199040085304</v>
       </c>
       <c r="J36" t="n">
-        <v>186.3282516209904</v>
+        <v>186.3282516209905</v>
       </c>
       <c r="K36" t="n">
         <v>318.4646599475421</v>
       </c>
       <c r="L36" t="n">
-        <v>428.2150362795196</v>
+        <v>428.2150362795197</v>
       </c>
       <c r="M36" t="n">
         <v>499.7067497397807</v>
       </c>
       <c r="N36" t="n">
-        <v>512.932500481552</v>
+        <v>512.9325004815521</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2330284426845</v>
+        <v>469.2330284426846</v>
       </c>
       <c r="P36" t="n">
-        <v>376.6008736397884</v>
+        <v>376.6008736397885</v>
       </c>
       <c r="Q36" t="n">
         <v>251.747710653048</v>
@@ -33764,7 +33764,7 @@
         <v>36.63247507612896</v>
       </c>
       <c r="T36" t="n">
-        <v>7.949290341195401</v>
+        <v>7.949290341195402</v>
       </c>
       <c r="U36" t="n">
         <v>0.1297490262436682</v>
@@ -33810,7 +33810,7 @@
         <v>14.7003519700859</v>
       </c>
       <c r="I37" t="n">
-        <v>49.72266290086313</v>
+        <v>49.72266290086314</v>
       </c>
       <c r="J37" t="n">
         <v>116.8963571281779</v>
@@ -33825,10 +33825,10 @@
         <v>259.1801319224857</v>
       </c>
       <c r="N37" t="n">
-        <v>253.0174076814478</v>
+        <v>253.0174076814479</v>
       </c>
       <c r="O37" t="n">
-        <v>233.7025280479504</v>
+        <v>233.7025280479505</v>
       </c>
       <c r="P37" t="n">
         <v>199.9728861043176</v>
@@ -33843,10 +33843,10 @@
         <v>28.81449358553645</v>
       </c>
       <c r="T37" t="n">
-        <v>7.0645863250924</v>
+        <v>7.064586325092401</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09018620840543502</v>
+        <v>0.09018620840543504</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,25 +33886,25 @@
         <v>3.686002487592313</v>
       </c>
       <c r="H38" t="n">
-        <v>37.74927297605478</v>
+        <v>37.74927297605479</v>
       </c>
       <c r="I38" t="n">
         <v>142.1046109029028</v>
       </c>
       <c r="J38" t="n">
-        <v>312.8448536312883</v>
+        <v>312.8448536312884</v>
       </c>
       <c r="K38" t="n">
-        <v>468.873338931071</v>
+        <v>468.8733389310711</v>
       </c>
       <c r="L38" t="n">
-        <v>581.6788375607243</v>
+        <v>581.6788375607244</v>
       </c>
       <c r="M38" t="n">
         <v>647.2297842994442</v>
       </c>
       <c r="N38" t="n">
-        <v>657.7026388673158</v>
+        <v>657.702638867316</v>
       </c>
       <c r="O38" t="n">
         <v>621.0499516313198</v>
@@ -33913,10 +33913,10 @@
         <v>530.0517652188845</v>
       </c>
       <c r="Q38" t="n">
-        <v>398.0468011319846</v>
+        <v>398.0468011319847</v>
       </c>
       <c r="R38" t="n">
-        <v>231.5408537612208</v>
+        <v>231.5408537612209</v>
       </c>
       <c r="S38" t="n">
         <v>83.99478168600992</v>
@@ -33925,7 +33925,7 @@
         <v>16.13547588943536</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2948801990073849</v>
+        <v>0.294880199007385</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.972185198903756</v>
+        <v>1.972185198903757</v>
       </c>
       <c r="H39" t="n">
         <v>19.04715705257049</v>
       </c>
       <c r="I39" t="n">
-        <v>67.90199040085302</v>
+        <v>67.90199040085304</v>
       </c>
       <c r="J39" t="n">
-        <v>186.3282516209904</v>
+        <v>186.3282516209905</v>
       </c>
       <c r="K39" t="n">
         <v>318.4646599475421</v>
       </c>
       <c r="L39" t="n">
-        <v>428.2150362795196</v>
+        <v>428.2150362795197</v>
       </c>
       <c r="M39" t="n">
         <v>499.7067497397807</v>
       </c>
       <c r="N39" t="n">
-        <v>512.932500481552</v>
+        <v>512.9325004815521</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2330284426845</v>
+        <v>469.2330284426846</v>
       </c>
       <c r="P39" t="n">
-        <v>376.6008736397884</v>
+        <v>376.6008736397885</v>
       </c>
       <c r="Q39" t="n">
         <v>251.747710653048</v>
@@ -34001,7 +34001,7 @@
         <v>36.63247507612896</v>
       </c>
       <c r="T39" t="n">
-        <v>7.949290341195401</v>
+        <v>7.949290341195402</v>
       </c>
       <c r="U39" t="n">
         <v>0.1297490262436682</v>
@@ -34047,7 +34047,7 @@
         <v>14.7003519700859</v>
       </c>
       <c r="I40" t="n">
-        <v>49.72266290086313</v>
+        <v>49.72266290086314</v>
       </c>
       <c r="J40" t="n">
         <v>116.8963571281779</v>
@@ -34062,10 +34062,10 @@
         <v>259.1801319224857</v>
       </c>
       <c r="N40" t="n">
-        <v>253.0174076814478</v>
+        <v>253.0174076814479</v>
       </c>
       <c r="O40" t="n">
-        <v>233.7025280479504</v>
+        <v>233.7025280479505</v>
       </c>
       <c r="P40" t="n">
         <v>199.9728861043176</v>
@@ -34080,10 +34080,10 @@
         <v>28.81449358553645</v>
       </c>
       <c r="T40" t="n">
-        <v>7.0645863250924</v>
+        <v>7.064586325092401</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09018620840543502</v>
+        <v>0.09018620840543504</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,25 +34123,25 @@
         <v>3.686002487592313</v>
       </c>
       <c r="H41" t="n">
-        <v>37.74927297605478</v>
+        <v>37.74927297605479</v>
       </c>
       <c r="I41" t="n">
         <v>142.1046109029028</v>
       </c>
       <c r="J41" t="n">
-        <v>312.8448536312883</v>
+        <v>312.8448536312884</v>
       </c>
       <c r="K41" t="n">
-        <v>468.873338931071</v>
+        <v>468.8733389310711</v>
       </c>
       <c r="L41" t="n">
-        <v>581.6788375607243</v>
+        <v>581.6788375607244</v>
       </c>
       <c r="M41" t="n">
         <v>647.2297842994442</v>
       </c>
       <c r="N41" t="n">
-        <v>657.7026388673158</v>
+        <v>657.702638867316</v>
       </c>
       <c r="O41" t="n">
         <v>621.0499516313198</v>
@@ -34150,10 +34150,10 @@
         <v>530.0517652188845</v>
       </c>
       <c r="Q41" t="n">
-        <v>398.0468011319846</v>
+        <v>398.0468011319847</v>
       </c>
       <c r="R41" t="n">
-        <v>231.5408537612208</v>
+        <v>231.5408537612209</v>
       </c>
       <c r="S41" t="n">
         <v>83.99478168600992</v>
@@ -34162,7 +34162,7 @@
         <v>16.13547588943536</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2948801990073849</v>
+        <v>0.294880199007385</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.972185198903756</v>
+        <v>1.972185198903757</v>
       </c>
       <c r="H42" t="n">
         <v>19.04715705257049</v>
       </c>
       <c r="I42" t="n">
-        <v>67.90199040085302</v>
+        <v>67.90199040085304</v>
       </c>
       <c r="J42" t="n">
-        <v>186.3282516209904</v>
+        <v>186.3282516209905</v>
       </c>
       <c r="K42" t="n">
         <v>318.4646599475421</v>
       </c>
       <c r="L42" t="n">
-        <v>428.2150362795196</v>
+        <v>428.2150362795197</v>
       </c>
       <c r="M42" t="n">
         <v>499.7067497397807</v>
       </c>
       <c r="N42" t="n">
-        <v>512.932500481552</v>
+        <v>512.9325004815521</v>
       </c>
       <c r="O42" t="n">
-        <v>469.2330284426845</v>
+        <v>469.2330284426846</v>
       </c>
       <c r="P42" t="n">
-        <v>376.6008736397884</v>
+        <v>376.6008736397885</v>
       </c>
       <c r="Q42" t="n">
         <v>251.747710653048</v>
@@ -34238,7 +34238,7 @@
         <v>36.63247507612896</v>
       </c>
       <c r="T42" t="n">
-        <v>7.949290341195401</v>
+        <v>7.949290341195402</v>
       </c>
       <c r="U42" t="n">
         <v>0.1297490262436682</v>
@@ -34284,7 +34284,7 @@
         <v>14.7003519700859</v>
       </c>
       <c r="I43" t="n">
-        <v>49.72266290086313</v>
+        <v>49.72266290086314</v>
       </c>
       <c r="J43" t="n">
         <v>116.8963571281779</v>
@@ -34299,10 +34299,10 @@
         <v>259.1801319224857</v>
       </c>
       <c r="N43" t="n">
-        <v>253.0174076814478</v>
+        <v>253.0174076814479</v>
       </c>
       <c r="O43" t="n">
-        <v>233.7025280479504</v>
+        <v>233.7025280479505</v>
       </c>
       <c r="P43" t="n">
         <v>199.9728861043176</v>
@@ -34317,10 +34317,10 @@
         <v>28.81449358553645</v>
       </c>
       <c r="T43" t="n">
-        <v>7.0645863250924</v>
+        <v>7.064586325092401</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09018620840543502</v>
+        <v>0.09018620840543504</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,25 +34360,25 @@
         <v>3.686002487592313</v>
       </c>
       <c r="H44" t="n">
-        <v>37.74927297605478</v>
+        <v>37.74927297605479</v>
       </c>
       <c r="I44" t="n">
         <v>142.1046109029028</v>
       </c>
       <c r="J44" t="n">
-        <v>312.8448536312883</v>
+        <v>312.8448536312871</v>
       </c>
       <c r="K44" t="n">
-        <v>468.873338931071</v>
+        <v>468.8733389310711</v>
       </c>
       <c r="L44" t="n">
-        <v>581.6788375607243</v>
+        <v>581.6788375607244</v>
       </c>
       <c r="M44" t="n">
         <v>647.2297842994442</v>
       </c>
       <c r="N44" t="n">
-        <v>657.7026388673158</v>
+        <v>657.702638867316</v>
       </c>
       <c r="O44" t="n">
         <v>621.0499516313198</v>
@@ -34387,10 +34387,10 @@
         <v>530.0517652188845</v>
       </c>
       <c r="Q44" t="n">
-        <v>398.0468011319846</v>
+        <v>398.0468011319847</v>
       </c>
       <c r="R44" t="n">
-        <v>231.5408537612192</v>
+        <v>231.5408537612209</v>
       </c>
       <c r="S44" t="n">
         <v>83.99478168600992</v>
@@ -34399,7 +34399,7 @@
         <v>16.13547588943536</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2948801990073849</v>
+        <v>0.294880199007385</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.972185198903756</v>
+        <v>1.972185198903757</v>
       </c>
       <c r="H45" t="n">
         <v>19.04715705257049</v>
       </c>
       <c r="I45" t="n">
-        <v>67.90199040085302</v>
+        <v>67.90199040085304</v>
       </c>
       <c r="J45" t="n">
-        <v>186.3282516209904</v>
+        <v>186.3282516209905</v>
       </c>
       <c r="K45" t="n">
         <v>318.4646599475421</v>
       </c>
       <c r="L45" t="n">
-        <v>428.2150362795196</v>
+        <v>428.2150362795197</v>
       </c>
       <c r="M45" t="n">
         <v>499.7067497397807</v>
       </c>
       <c r="N45" t="n">
-        <v>512.932500481552</v>
+        <v>512.9325004815521</v>
       </c>
       <c r="O45" t="n">
-        <v>469.2330284426845</v>
+        <v>469.2330284426846</v>
       </c>
       <c r="P45" t="n">
-        <v>376.6008736397884</v>
+        <v>376.6008736397885</v>
       </c>
       <c r="Q45" t="n">
         <v>251.747710653048</v>
@@ -34475,7 +34475,7 @@
         <v>36.63247507612896</v>
       </c>
       <c r="T45" t="n">
-        <v>7.949290341195401</v>
+        <v>7.949290341195402</v>
       </c>
       <c r="U45" t="n">
         <v>0.1297490262436682</v>
@@ -34521,7 +34521,7 @@
         <v>14.7003519700859</v>
       </c>
       <c r="I46" t="n">
-        <v>49.72266290086313</v>
+        <v>49.72266290086314</v>
       </c>
       <c r="J46" t="n">
         <v>116.8963571281779</v>
@@ -34536,10 +34536,10 @@
         <v>259.1801319224857</v>
       </c>
       <c r="N46" t="n">
-        <v>253.0174076814478</v>
+        <v>253.0174076814479</v>
       </c>
       <c r="O46" t="n">
-        <v>233.7025280479504</v>
+        <v>233.7025280479505</v>
       </c>
       <c r="P46" t="n">
         <v>199.9728861043176</v>
@@ -34554,10 +34554,10 @@
         <v>28.81449358553645</v>
       </c>
       <c r="T46" t="n">
-        <v>7.0645863250924</v>
+        <v>7.064586325092401</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09018620840543502</v>
+        <v>0.09018620840543504</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>131.7989491046021</v>
+        <v>131.7989491046019</v>
       </c>
       <c r="K11" t="n">
-        <v>248.7834878860905</v>
+        <v>248.7834878860904</v>
       </c>
       <c r="L11" t="n">
-        <v>345.9124225907371</v>
+        <v>345.912422590737</v>
       </c>
       <c r="M11" t="n">
-        <v>416.8835510721715</v>
+        <v>416.8835510721713</v>
       </c>
       <c r="N11" t="n">
-        <v>428.2895752707249</v>
+        <v>428.2895752707248</v>
       </c>
       <c r="O11" t="n">
-        <v>390.951740209633</v>
+        <v>390.9517402096328</v>
       </c>
       <c r="P11" t="n">
-        <v>298.818769463615</v>
+        <v>298.8187694636148</v>
       </c>
       <c r="Q11" t="n">
-        <v>175.7411112575352</v>
+        <v>175.741111257535</v>
       </c>
       <c r="R11" t="n">
-        <v>15.95531594708871</v>
+        <v>15.95531594708865</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>185.5816602947326</v>
+        <v>59.49062495432372</v>
       </c>
       <c r="K12" t="n">
-        <v>180.6232209731832</v>
+        <v>180.623220973183</v>
       </c>
       <c r="L12" t="n">
-        <v>289.6606564996454</v>
+        <v>289.6606564996453</v>
       </c>
       <c r="M12" t="n">
-        <v>419.4538190102895</v>
+        <v>542.277676546166</v>
       </c>
       <c r="N12" t="n">
-        <v>381.5907883982187</v>
+        <v>381.5907883982186</v>
       </c>
       <c r="O12" t="n">
-        <v>619.5417279525959</v>
+        <v>326.63678399824</v>
       </c>
       <c r="P12" t="n">
-        <v>242.6264662254582</v>
+        <v>561.0892348653952</v>
       </c>
       <c r="Q12" t="n">
         <v>111.7659365670264</v>
       </c>
       <c r="R12" t="n">
-        <v>22.29064688104803</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.53717701150512</v>
+        <v>23.53717701150509</v>
       </c>
       <c r="K13" t="n">
-        <v>169.8271320776935</v>
+        <v>169.8271320776934</v>
       </c>
       <c r="L13" t="n">
         <v>273.4075673040633</v>
       </c>
       <c r="M13" t="n">
-        <v>298.7640088843263</v>
+        <v>298.7640088843262</v>
       </c>
       <c r="N13" t="n">
         <v>297.1495800606764</v>
       </c>
       <c r="O13" t="n">
-        <v>258.2876559619901</v>
+        <v>258.28765596199</v>
       </c>
       <c r="P13" t="n">
         <v>197.2514453692111</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.28881768538248</v>
+        <v>52.28881768538243</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>185.5816602947326</v>
+        <v>59.49062495432375</v>
       </c>
       <c r="K15" t="n">
         <v>180.6232209731832</v>
@@ -35741,13 +35741,13 @@
         <v>326.6367839982401</v>
       </c>
       <c r="P15" t="n">
-        <v>335.4435012375077</v>
+        <v>273.7478957231153</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.7659365670264</v>
+        <v>321.8432243028756</v>
       </c>
       <c r="R15" t="n">
-        <v>22.29064688104803</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>131.798949104602</v>
+        <v>131.7989491046021</v>
       </c>
       <c r="K17" t="n">
-        <v>248.7834878860904</v>
+        <v>248.7834878860905</v>
       </c>
       <c r="L17" t="n">
         <v>345.9124225907371</v>
       </c>
       <c r="M17" t="n">
-        <v>416.8835510721714</v>
+        <v>416.8835510721715</v>
       </c>
       <c r="N17" t="n">
         <v>428.2895752707249</v>
       </c>
       <c r="O17" t="n">
-        <v>390.9517402096329</v>
+        <v>390.951740209633</v>
       </c>
       <c r="P17" t="n">
-        <v>298.8187694636148</v>
+        <v>298.818769463615</v>
       </c>
       <c r="Q17" t="n">
-        <v>175.7411112575351</v>
+        <v>175.7411112575352</v>
       </c>
       <c r="R17" t="n">
-        <v>15.95531594708868</v>
+        <v>15.95531594708871</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>59.49062495432375</v>
+        <v>185.5816602947326</v>
       </c>
       <c r="K18" t="n">
-        <v>180.6232209731831</v>
+        <v>180.6232209731832</v>
       </c>
       <c r="L18" t="n">
         <v>289.6606564996454</v>
       </c>
       <c r="M18" t="n">
-        <v>619.5417279525959</v>
+        <v>619.5417279525957</v>
       </c>
       <c r="N18" t="n">
-        <v>600.4988587506776</v>
+        <v>381.5907883982187</v>
       </c>
       <c r="O18" t="n">
-        <v>326.63678399824</v>
+        <v>326.6367839982401</v>
       </c>
       <c r="P18" t="n">
-        <v>242.6264662254581</v>
+        <v>242.6264662254582</v>
       </c>
       <c r="Q18" t="n">
-        <v>111.7659365670264</v>
+        <v>204.5829715790752</v>
       </c>
       <c r="R18" t="n">
-        <v>22.29064688104802</v>
+        <v>22.29064688104803</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.53717701150511</v>
+        <v>23.53717701150512</v>
       </c>
       <c r="K19" t="n">
         <v>169.8271320776935</v>
@@ -36048,7 +36048,7 @@
         <v>273.4075673040633</v>
       </c>
       <c r="M19" t="n">
-        <v>298.7640088843262</v>
+        <v>298.7640088843263</v>
       </c>
       <c r="N19" t="n">
         <v>297.1495800606764</v>
@@ -36060,7 +36060,7 @@
         <v>197.2514453692111</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.28881768538245</v>
+        <v>52.28881768538248</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>131.798949104602</v>
+        <v>131.7989491046015</v>
       </c>
       <c r="K20" t="n">
-        <v>248.7834878860904</v>
+        <v>248.7834878860905</v>
       </c>
       <c r="L20" t="n">
         <v>345.9124225907371</v>
       </c>
       <c r="M20" t="n">
-        <v>416.8835510721714</v>
+        <v>416.8835510721715</v>
       </c>
       <c r="N20" t="n">
         <v>428.2895752707249</v>
       </c>
       <c r="O20" t="n">
-        <v>390.9517402096329</v>
+        <v>390.951740209633</v>
       </c>
       <c r="P20" t="n">
-        <v>298.8187694636148</v>
+        <v>298.818769463615</v>
       </c>
       <c r="Q20" t="n">
-        <v>175.7411112575351</v>
+        <v>175.7411112575352</v>
       </c>
       <c r="R20" t="n">
-        <v>15.95531594708868</v>
+        <v>15.95531594708871</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>185.5816602947326</v>
       </c>
       <c r="K21" t="n">
-        <v>325.3319803842168</v>
+        <v>325.3319803842162</v>
       </c>
       <c r="L21" t="n">
         <v>289.6606564996454</v>
@@ -36212,16 +36212,16 @@
         <v>381.5907883982187</v>
       </c>
       <c r="O21" t="n">
-        <v>326.63678399824</v>
+        <v>326.6367839982401</v>
       </c>
       <c r="P21" t="n">
-        <v>242.6264662254581</v>
+        <v>242.6264662254582</v>
       </c>
       <c r="Q21" t="n">
-        <v>321.8432243028755</v>
+        <v>321.8432243028756</v>
       </c>
       <c r="R21" t="n">
-        <v>22.29064688104802</v>
+        <v>22.29064688104803</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.53717701150511</v>
+        <v>23.53717701150512</v>
       </c>
       <c r="K22" t="n">
         <v>169.8271320776935</v>
@@ -36285,7 +36285,7 @@
         <v>273.4075673040633</v>
       </c>
       <c r="M22" t="n">
-        <v>298.7640088843262</v>
+        <v>298.7640088843263</v>
       </c>
       <c r="N22" t="n">
         <v>297.1495800606764</v>
@@ -36297,7 +36297,7 @@
         <v>197.2514453692111</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.28881768538245</v>
+        <v>52.28881768538248</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>131.798949104602</v>
+        <v>151.9582394031947</v>
       </c>
       <c r="K23" t="n">
-        <v>248.7834878860904</v>
+        <v>248.7834878860905</v>
       </c>
       <c r="L23" t="n">
         <v>345.9124225907371</v>
       </c>
       <c r="M23" t="n">
-        <v>502.7592612437467</v>
+        <v>416.8835510721715</v>
       </c>
       <c r="N23" t="n">
         <v>428.2895752707249</v>
       </c>
       <c r="O23" t="n">
-        <v>390.9517402096329</v>
+        <v>390.951740209633</v>
       </c>
       <c r="P23" t="n">
-        <v>298.8187694636148</v>
+        <v>298.818769463615</v>
       </c>
       <c r="Q23" t="n">
-        <v>175.7411112575351</v>
+        <v>175.7411112575352</v>
       </c>
       <c r="R23" t="n">
-        <v>15.95531594708868</v>
+        <v>81.67173582007115</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>59.49062495432375</v>
       </c>
       <c r="K24" t="n">
-        <v>180.6232209731831</v>
+        <v>180.6232209731832</v>
       </c>
       <c r="L24" t="n">
-        <v>289.6606564996454</v>
+        <v>541.8205069720499</v>
       </c>
       <c r="M24" t="n">
-        <v>641.2297261847027</v>
+        <v>357.5727158177623</v>
       </c>
       <c r="N24" t="n">
-        <v>641.2297261847027</v>
+        <v>381.5907883982187</v>
       </c>
       <c r="O24" t="n">
-        <v>372.3842753847305</v>
+        <v>641.2297261847028</v>
       </c>
       <c r="P24" t="n">
-        <v>242.6264662254581</v>
+        <v>242.6264662254582</v>
       </c>
       <c r="Q24" t="n">
         <v>111.7659365670264</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.29064688104803</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.53717701150511</v>
+        <v>23.53717701150512</v>
       </c>
       <c r="K25" t="n">
         <v>169.8271320776935</v>
@@ -36522,7 +36522,7 @@
         <v>273.4075673040633</v>
       </c>
       <c r="M25" t="n">
-        <v>298.7640088843262</v>
+        <v>298.7640088843263</v>
       </c>
       <c r="N25" t="n">
         <v>297.1495800606764</v>
@@ -36534,7 +36534,7 @@
         <v>197.2514453692111</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.28881768538245</v>
+        <v>52.28881768538248</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>131.798949104602</v>
+        <v>217.6746592761767</v>
       </c>
       <c r="K26" t="n">
-        <v>248.7834878860904</v>
+        <v>248.7834878860905</v>
       </c>
       <c r="L26" t="n">
-        <v>431.7881327623129</v>
+        <v>345.9124225907371</v>
       </c>
       <c r="M26" t="n">
-        <v>416.8835510721714</v>
+        <v>416.8835510721715</v>
       </c>
       <c r="N26" t="n">
         <v>428.2895752707249</v>
       </c>
       <c r="O26" t="n">
-        <v>390.9517402096329</v>
+        <v>390.951740209633</v>
       </c>
       <c r="P26" t="n">
-        <v>298.8187694636148</v>
+        <v>298.818769463615</v>
       </c>
       <c r="Q26" t="n">
-        <v>175.7411112575351</v>
+        <v>175.7411112575352</v>
       </c>
       <c r="R26" t="n">
-        <v>15.95531594708868</v>
+        <v>15.95531594708871</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>59.49062495432375</v>
+        <v>185.5816602947326</v>
       </c>
       <c r="K27" t="n">
-        <v>445.0884579857617</v>
+        <v>180.6232209731832</v>
       </c>
       <c r="L27" t="n">
         <v>289.6606564996454</v>
@@ -36683,16 +36683,16 @@
         <v>357.5727158177623</v>
       </c>
       <c r="N27" t="n">
-        <v>381.5907883982187</v>
+        <v>634.4659048618751</v>
       </c>
       <c r="O27" t="n">
-        <v>326.63678399824</v>
+        <v>326.6367839982401</v>
       </c>
       <c r="P27" t="n">
-        <v>561.0892348653953</v>
+        <v>242.6264662254582</v>
       </c>
       <c r="Q27" t="n">
-        <v>117.881370454426</v>
+        <v>321.8432243028756</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.53717701150511</v>
+        <v>23.53717701150512</v>
       </c>
       <c r="K28" t="n">
         <v>169.8271320776935</v>
@@ -36759,7 +36759,7 @@
         <v>273.4075673040633</v>
       </c>
       <c r="M28" t="n">
-        <v>298.7640088843262</v>
+        <v>298.7640088843263</v>
       </c>
       <c r="N28" t="n">
         <v>297.1495800606764</v>
@@ -36771,7 +36771,7 @@
         <v>197.2514453692111</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.28881768538245</v>
+        <v>52.28881768538248</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>345.9124225907371</v>
       </c>
       <c r="M29" t="n">
-        <v>502.7592612437462</v>
+        <v>416.8835510721715</v>
       </c>
       <c r="N29" t="n">
         <v>428.2895752707249</v>
@@ -36847,7 +36847,7 @@
         <v>390.951740209633</v>
       </c>
       <c r="P29" t="n">
-        <v>298.818769463615</v>
+        <v>384.6944796351898</v>
       </c>
       <c r="Q29" t="n">
         <v>175.7411112575352</v>
@@ -36917,13 +36917,13 @@
         <v>289.6606564996454</v>
       </c>
       <c r="M30" t="n">
-        <v>632.0232131712143</v>
+        <v>641.2297261847027</v>
       </c>
       <c r="N30" t="n">
         <v>381.5907883982187</v>
       </c>
       <c r="O30" t="n">
-        <v>641.2297261847028</v>
+        <v>632.0232131712146</v>
       </c>
       <c r="P30" t="n">
         <v>242.6264662254582</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>151.9582394031947</v>
+        <v>131.7989491046021</v>
       </c>
       <c r="K32" t="n">
         <v>248.7834878860905</v>
@@ -37075,7 +37075,7 @@
         <v>345.9124225907371</v>
       </c>
       <c r="M32" t="n">
-        <v>416.8835510721715</v>
+        <v>502.7592612437462</v>
       </c>
       <c r="N32" t="n">
         <v>428.2895752707249</v>
@@ -37090,7 +37090,7 @@
         <v>175.7411112575352</v>
       </c>
       <c r="R32" t="n">
-        <v>81.67173582007115</v>
+        <v>15.95531594708871</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>59.49062495432375</v>
+        <v>185.5816602947326</v>
       </c>
       <c r="K33" t="n">
-        <v>180.6232209731832</v>
+        <v>445.0884579857617</v>
       </c>
       <c r="L33" t="n">
-        <v>641.2297261847028</v>
+        <v>289.6606564996454</v>
       </c>
       <c r="M33" t="n">
         <v>357.5727158177623</v>
       </c>
       <c r="N33" t="n">
-        <v>381.5907883982187</v>
+        <v>580.0779555851459</v>
       </c>
       <c r="O33" t="n">
-        <v>564.1111538530973</v>
+        <v>326.6367839982401</v>
       </c>
       <c r="P33" t="n">
         <v>242.6264662254582</v>
@@ -37309,13 +37309,13 @@
         <v>248.7834878860905</v>
       </c>
       <c r="L35" t="n">
-        <v>345.9124225907371</v>
+        <v>345.9124225907372</v>
       </c>
       <c r="M35" t="n">
         <v>416.8835510721715</v>
       </c>
       <c r="N35" t="n">
-        <v>428.2895752707237</v>
+        <v>428.289575270725</v>
       </c>
       <c r="O35" t="n">
         <v>390.951740209633</v>
@@ -37327,7 +37327,7 @@
         <v>175.7411112575352</v>
       </c>
       <c r="R35" t="n">
-        <v>15.95531594708871</v>
+        <v>15.95531594708757</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>59.49062495432375</v>
+        <v>59.49062495432378</v>
       </c>
       <c r="K36" t="n">
         <v>180.6232209731832</v>
       </c>
       <c r="L36" t="n">
-        <v>474.3656172280468</v>
+        <v>289.6606564996455</v>
       </c>
       <c r="M36" t="n">
-        <v>357.5727158177623</v>
+        <v>357.5727158177624</v>
       </c>
       <c r="N36" t="n">
-        <v>381.5907883982187</v>
+        <v>619.5417279525958</v>
       </c>
       <c r="O36" t="n">
-        <v>326.6367839982401</v>
+        <v>381.7762860763534</v>
       </c>
       <c r="P36" t="n">
-        <v>561.0892348653954</v>
+        <v>242.6264662254582</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.7659365670264</v>
+        <v>321.8432243028756</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.53717701150512</v>
+        <v>23.53717701150514</v>
       </c>
       <c r="K37" t="n">
         <v>169.8271320776935</v>
@@ -37473,7 +37473,7 @@
         <v>298.7640088843263</v>
       </c>
       <c r="N37" t="n">
-        <v>297.1495800606764</v>
+        <v>297.1495800606765</v>
       </c>
       <c r="O37" t="n">
         <v>258.2876559619901</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>131.7989491046006</v>
+        <v>131.7989491046021</v>
       </c>
       <c r="K38" t="n">
         <v>248.7834878860905</v>
       </c>
       <c r="L38" t="n">
-        <v>345.9124225907371</v>
+        <v>345.9124225907372</v>
       </c>
       <c r="M38" t="n">
         <v>416.8835510721715</v>
       </c>
       <c r="N38" t="n">
-        <v>428.2895752707249</v>
+        <v>428.289575270725</v>
       </c>
       <c r="O38" t="n">
         <v>390.951740209633</v>
@@ -37561,10 +37561,10 @@
         <v>298.818769463615</v>
       </c>
       <c r="Q38" t="n">
-        <v>175.7411112575352</v>
+        <v>175.741111257534</v>
       </c>
       <c r="R38" t="n">
-        <v>15.95531594708871</v>
+        <v>15.95531594708874</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>185.5816602947326</v>
+        <v>59.49062495432378</v>
       </c>
       <c r="K39" t="n">
-        <v>325.3319803842157</v>
+        <v>445.0884579857617</v>
       </c>
       <c r="L39" t="n">
-        <v>289.6606564996454</v>
+        <v>289.6606564996455</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5727158177623</v>
+        <v>357.5727158177624</v>
       </c>
       <c r="N39" t="n">
-        <v>381.5907883982187</v>
+        <v>381.5907883982188</v>
       </c>
       <c r="O39" t="n">
-        <v>326.6367839982401</v>
+        <v>326.6367839982402</v>
       </c>
       <c r="P39" t="n">
-        <v>242.6264662254582</v>
+        <v>459.0383117001709</v>
       </c>
       <c r="Q39" t="n">
-        <v>321.8432243028756</v>
+        <v>111.7659365670265</v>
       </c>
       <c r="R39" t="n">
-        <v>22.29064688104803</v>
+        <v>22.29064688104805</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.53717701150512</v>
+        <v>23.53717701150514</v>
       </c>
       <c r="K40" t="n">
         <v>169.8271320776935</v>
@@ -37710,7 +37710,7 @@
         <v>298.7640088843263</v>
       </c>
       <c r="N40" t="n">
-        <v>297.1495800606764</v>
+        <v>297.1495800606765</v>
       </c>
       <c r="O40" t="n">
         <v>258.2876559619901</v>
@@ -37783,13 +37783,13 @@
         <v>248.7834878860905</v>
       </c>
       <c r="L41" t="n">
-        <v>345.9124225907371</v>
+        <v>345.9124225907372</v>
       </c>
       <c r="M41" t="n">
         <v>416.8835510721715</v>
       </c>
       <c r="N41" t="n">
-        <v>428.2895752707249</v>
+        <v>428.289575270725</v>
       </c>
       <c r="O41" t="n">
         <v>390.951740209633</v>
@@ -37801,7 +37801,7 @@
         <v>175.7411112575352</v>
       </c>
       <c r="R41" t="n">
-        <v>15.95531594708871</v>
+        <v>15.95531594708874</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>185.5816602947326</v>
       </c>
       <c r="K42" t="n">
-        <v>325.3319803842157</v>
+        <v>325.3319803842165</v>
       </c>
       <c r="L42" t="n">
-        <v>289.6606564996454</v>
+        <v>289.6606564996455</v>
       </c>
       <c r="M42" t="n">
-        <v>357.5727158177623</v>
+        <v>357.5727158177624</v>
       </c>
       <c r="N42" t="n">
-        <v>381.5907883982187</v>
+        <v>381.5907883982188</v>
       </c>
       <c r="O42" t="n">
-        <v>326.6367839982401</v>
+        <v>326.6367839982402</v>
       </c>
       <c r="P42" t="n">
         <v>242.6264662254582</v>
@@ -37880,7 +37880,7 @@
         <v>321.8432243028756</v>
       </c>
       <c r="R42" t="n">
-        <v>22.29064688104803</v>
+        <v>22.29064688104805</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.53717701150512</v>
+        <v>23.53717701150514</v>
       </c>
       <c r="K43" t="n">
         <v>169.8271320776935</v>
@@ -37947,7 +37947,7 @@
         <v>298.7640088843263</v>
       </c>
       <c r="N43" t="n">
-        <v>297.1495800606764</v>
+        <v>297.1495800606765</v>
       </c>
       <c r="O43" t="n">
         <v>258.2876559619901</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>131.7989491046021</v>
+        <v>131.7989491046008</v>
       </c>
       <c r="K44" t="n">
         <v>248.7834878860905</v>
       </c>
       <c r="L44" t="n">
-        <v>345.9124225907371</v>
+        <v>345.9124225907372</v>
       </c>
       <c r="M44" t="n">
         <v>416.8835510721715</v>
       </c>
       <c r="N44" t="n">
-        <v>428.2895752707249</v>
+        <v>428.289575270725</v>
       </c>
       <c r="O44" t="n">
         <v>390.951740209633</v>
@@ -38038,7 +38038,7 @@
         <v>175.7411112575352</v>
       </c>
       <c r="R44" t="n">
-        <v>15.95531594708711</v>
+        <v>15.95531594708874</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>59.49062495432375</v>
+        <v>59.49062495432378</v>
       </c>
       <c r="K45" t="n">
         <v>180.6232209731832</v>
       </c>
       <c r="L45" t="n">
-        <v>619.5417279525956</v>
+        <v>289.6606564996455</v>
       </c>
       <c r="M45" t="n">
-        <v>357.5727158177623</v>
+        <v>357.5727158177624</v>
       </c>
       <c r="N45" t="n">
-        <v>381.5907883982187</v>
+        <v>381.5907883982188</v>
       </c>
       <c r="O45" t="n">
-        <v>477.632795032581</v>
+        <v>511.3417447266421</v>
       </c>
       <c r="P45" t="n">
-        <v>242.6264662254582</v>
+        <v>561.0892348653954</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.7659365670264</v>
+        <v>111.7659365670265</v>
       </c>
       <c r="R45" t="n">
-        <v>22.29064688104803</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.53717701150512</v>
+        <v>23.53717701150514</v>
       </c>
       <c r="K46" t="n">
         <v>169.8271320776935</v>
@@ -38184,7 +38184,7 @@
         <v>298.7640088843263</v>
       </c>
       <c r="N46" t="n">
-        <v>297.1495800606764</v>
+        <v>297.1495800606765</v>
       </c>
       <c r="O46" t="n">
         <v>258.2876559619901</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1343867.486228302</v>
+        <v>1311586.08269742</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584558</v>
+        <v>6486630.972584559</v>
       </c>
     </row>
     <row r="9">
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>192.9667440472755</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>190.1639454715441</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>42.99365986874283</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355345</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>216.6260444907854</v>
       </c>
       <c r="X13" t="n">
-        <v>118.2694521832863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>149.7999729295055</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>163.2331623209966</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>42.99365986874328</v>
+        <v>21.69126064627761</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>151.8101135760801</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>118.2694521832863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.52327642642783</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>78.42881372650146</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>95.09008317441915</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1943,7 +1943,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I18" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>134.9469826428689</v>
+        <v>84.806281389885</v>
       </c>
       <c r="T18" t="n">
         <v>192.192932426668</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>45.32866349374601</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>195.1205252336517</v>
@@ -2058,7 +2058,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>200.1983439946927</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>362.5774012691227</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
-        <v>206.9146911261644</v>
+        <v>103.4145251399673</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3657483393379</v>
+        <v>85.22504708635407</v>
       </c>
       <c r="H21" t="n">
         <v>93.13436112172582</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V21" t="n">
-        <v>161.357486673978</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>92.51664689931617</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.71646221155248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>195.3237932237982</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>46.84225865824649</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>93.13436112172582</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246427</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>3.277944856056298</v>
       </c>
       <c r="G25" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>38.99416705978297</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>202.9940338518157</v>
       </c>
       <c r="G26" t="n">
-        <v>5.518327958974155</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
         <v>301.6186538912489</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>107.3781545692133</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>118.2694521832859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>43.29993404393736</v>
       </c>
       <c r="T29" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>107.1115640818458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.9181450715957</v>
+        <v>126.9275790583222</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>342.0557560972021</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>280.2061986996749</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>170.8629698603926</v>
+        <v>208.3528129222923</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>15.12513283024421</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>142.0182801759483</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>93.13436112172582</v>
+        <v>42.99365986874195</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>180.2518826854723</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.9756369948833</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>118.2694521832859</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>182.7729864828794</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>244.9037749433626</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>42.99365986874283</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T39" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512199</v>
       </c>
       <c r="U39" t="n">
         <v>225.8112657109832</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
@@ -3717,7 +3717,7 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>129.7960318999064</v>
+        <v>157.4064379019151</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>145.3799239583096</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>346.8175228318105</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>21.69126064627715</v>
+        <v>21.69126064627761</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.76397372915844</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>88.1687670812566</v>
       </c>
       <c r="T43" t="n">
         <v>220.8610019386828</v>
@@ -3957,16 +3957,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>83.97561525252688</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>115.5762118345046</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
-        <v>21.69126064627715</v>
+        <v>42.99365986874195</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.974346393156</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
         <v>220.8610019386828</v>
@@ -4194,16 +4194,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>157.2865516537393</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1803.070090056033</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="C11" t="n">
-        <v>1608.154186977976</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="D11" t="n">
-        <v>1249.888488371226</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.888488371226</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816184</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819832</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326147</v>
+        <v>2298.806653029499</v>
       </c>
       <c r="U11" t="n">
-        <v>2155.838745326147</v>
+        <v>2298.806653029499</v>
       </c>
       <c r="V11" t="n">
-        <v>2155.838745326147</v>
+        <v>1967.743765685928</v>
       </c>
       <c r="W11" t="n">
-        <v>1803.070090056033</v>
+        <v>1614.975110415814</v>
       </c>
       <c r="X11" t="n">
-        <v>1803.070090056033</v>
+        <v>1241.509352154734</v>
       </c>
       <c r="Y11" t="n">
-        <v>1803.070090056033</v>
+        <v>851.3700201789227</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C12" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D12" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F12" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
-        <v>93.24576819005841</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>49.81782892870201</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310208</v>
+        <v>109.235802444016</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570717</v>
+        <v>475.7435727620237</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397344</v>
+        <v>763.7078559446863</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288406</v>
+        <v>1119.105460193358</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.619652518711</v>
+        <v>1498.318026423663</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232468</v>
+        <v>1823.00364413742</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994177</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W12" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X12" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y12" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.315231116727</v>
+        <v>536.883665828626</v>
       </c>
       <c r="C13" t="n">
-        <v>918.37904818882</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="D13" t="n">
-        <v>768.2624087764842</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E13" t="n">
-        <v>620.3493151940911</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O13" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
         <v>1557.066378230431</v>
@@ -5229,22 +5229,22 @@
         <v>1609.220368204927</v>
       </c>
       <c r="T13" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U13" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="V13" t="n">
-        <v>1609.220368204927</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="W13" t="n">
-        <v>1609.220368204927</v>
+        <v>1167.314260700413</v>
       </c>
       <c r="X13" t="n">
-        <v>1489.756275090497</v>
+        <v>939.3247098023959</v>
       </c>
       <c r="Y13" t="n">
-        <v>1268.963695946966</v>
+        <v>718.5321306588658</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1278.291227825756</v>
+        <v>1209.635718785673</v>
       </c>
       <c r="C14" t="n">
-        <v>1278.291227825756</v>
+        <v>1209.635718785673</v>
       </c>
       <c r="D14" t="n">
-        <v>920.0255292190052</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="E14" t="n">
-        <v>534.2372766207609</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="F14" t="n">
-        <v>534.2372766207609</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G14" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H14" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I14" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799497</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549161</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.39799124066</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O14" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P14" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326147</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.838745326147</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V14" t="n">
-        <v>2155.838745326147</v>
+        <v>2326.009464292679</v>
       </c>
       <c r="W14" t="n">
-        <v>1803.070090056033</v>
+        <v>1973.240809022565</v>
       </c>
       <c r="X14" t="n">
-        <v>1429.604331794953</v>
+        <v>1599.775050761485</v>
       </c>
       <c r="Y14" t="n">
-        <v>1429.604331794953</v>
+        <v>1209.635718785673</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.138299241652</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>684.685269960525</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992738</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>376.5134052938183</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F15" t="n">
-        <v>229.9788473207032</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G15" t="n">
-        <v>93.24576819005887</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H15" t="n">
-        <v>49.81782892870202</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.2358024440161</v>
+        <v>141.515008796443</v>
       </c>
       <c r="K15" t="n">
-        <v>288.9454078621916</v>
+        <v>583.0451988570712</v>
       </c>
       <c r="L15" t="n">
-        <v>764.7650334127159</v>
+        <v>871.0094820397338</v>
       </c>
       <c r="M15" t="n">
-        <v>1120.162637661388</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N15" t="n">
-        <v>1499.375203891693</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O15" t="n">
-        <v>2115.87083688438</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P15" t="n">
-        <v>2357.126603646089</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.480498228522</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T15" t="n">
-        <v>2160.447087779003</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W15" t="n">
-        <v>1442.965435232207</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026674</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.35363626172</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.315231116727</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C16" t="n">
-        <v>918.37904818882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D16" t="n">
-        <v>768.2624087764842</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E16" t="n">
-        <v>620.3493151940911</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F16" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G16" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H16" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I16" t="n">
-        <v>49.81782892870202</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477639</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K16" t="n">
         <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5463,25 +5463,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T16" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U16" t="n">
-        <v>1609.220368204927</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="V16" t="n">
-        <v>1609.220368204927</v>
+        <v>969.6655938374497</v>
       </c>
       <c r="W16" t="n">
-        <v>1609.220368204927</v>
+        <v>680.2484238004891</v>
       </c>
       <c r="X16" t="n">
-        <v>1489.756275090497</v>
+        <v>452.2588729024718</v>
       </c>
       <c r="Y16" t="n">
-        <v>1268.963695946966</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1139.209591481948</v>
+        <v>1261.465492167923</v>
       </c>
       <c r="C17" t="n">
-        <v>770.247074541536</v>
+        <v>892.5029752275113</v>
       </c>
       <c r="D17" t="n">
-        <v>770.247074541536</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="E17" t="n">
-        <v>770.247074541536</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="F17" t="n">
-        <v>770.247074541536</v>
+        <v>534.2372766207609</v>
       </c>
       <c r="G17" t="n">
-        <v>354.4831358895594</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870199</v>
@@ -5542,25 +5542,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S17" t="n">
-        <v>2418.645712671031</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T17" t="n">
-        <v>2209.640974159754</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U17" t="n">
-        <v>2209.640974159754</v>
+        <v>2411.670422468937</v>
       </c>
       <c r="V17" t="n">
-        <v>1878.578086816183</v>
+        <v>2411.670422468937</v>
       </c>
       <c r="W17" t="n">
-        <v>1525.809431546069</v>
+        <v>2411.670422468937</v>
       </c>
       <c r="X17" t="n">
-        <v>1525.809431546069</v>
+        <v>2038.204664207856</v>
       </c>
       <c r="Y17" t="n">
-        <v>1525.809431546069</v>
+        <v>1648.065332232045</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>931.3030471966489</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C18" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D18" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F18" t="n">
-        <v>302.1435952757</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G18" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H18" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I18" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J18" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
-        <v>550.7659925046444</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L18" t="n">
-        <v>838.7302756873071</v>
+        <v>701.7398160318589</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.127879935979</v>
+        <v>1057.137420280531</v>
       </c>
       <c r="N18" t="n">
-        <v>1573.340446166284</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O18" t="n">
-        <v>1898.026063880041</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R18" t="n">
         <v>2490.8914464351</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957454</v>
+        <v>2405.228535940266</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779001</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.35490019215</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960407</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232205</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026673</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261719</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4889071588746</v>
+        <v>242.494305208174</v>
       </c>
       <c r="C19" t="n">
-        <v>931.4889071588746</v>
+        <v>242.494305208174</v>
       </c>
       <c r="D19" t="n">
-        <v>931.4889071588746</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="E19" t="n">
-        <v>931.4889071588746</v>
+        <v>196.7077764266124</v>
       </c>
       <c r="F19" t="n">
-        <v>931.4889071588746</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G19" t="n">
-        <v>931.4889071588746</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H19" t="n">
-        <v>931.4889071588746</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I19" t="n">
-        <v>931.4889071588746</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J19" t="n">
-        <v>955.118358284949</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K19" t="n">
-        <v>1123.785641879241</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L19" t="n">
-        <v>1395.148129369608</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M19" t="n">
-        <v>1691.650947694423</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N19" t="n">
-        <v>1986.538208137711</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O19" t="n">
-        <v>2242.898026528775</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P19" t="n">
-        <v>2438.737456460604</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
-        <v>2490.8914464351</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R19" t="n">
-        <v>2387.114261342225</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>2190.022821712274</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T19" t="n">
-        <v>1966.930900562089</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U19" t="n">
-        <v>1677.811114891311</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="V19" t="n">
-        <v>1423.126626685424</v>
+        <v>934.3525192189044</v>
       </c>
       <c r="W19" t="n">
-        <v>1133.709456648463</v>
+        <v>644.9353491819438</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4889071588746</v>
+        <v>644.9353491819438</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4889071588746</v>
+        <v>424.1427700384137</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>831.8215668424186</v>
+        <v>1203.087066659661</v>
       </c>
       <c r="C20" t="n">
-        <v>465.5817675806785</v>
+        <v>834.1245497192494</v>
       </c>
       <c r="D20" t="n">
-        <v>465.5817675806785</v>
+        <v>834.1245497192494</v>
       </c>
       <c r="E20" t="n">
-        <v>465.5817675806785</v>
+        <v>834.1245497192494</v>
       </c>
       <c r="F20" t="n">
-        <v>465.5817675806785</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="G20" t="n">
-        <v>49.81782892870201</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="H20" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I20" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819836</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549157</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240659</v>
@@ -5767,37 +5767,37 @@
         <v>1613.248129085908</v>
       </c>
       <c r="O20" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P20" t="n">
         <v>2299.34732796285</v>
       </c>
       <c r="Q20" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R20" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837424</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T20" t="n">
-        <v>2155.838745326147</v>
+        <v>2260.384367534426</v>
       </c>
       <c r="U20" t="n">
-        <v>1902.252949520225</v>
+        <v>2260.384367534426</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.190062176654</v>
+        <v>1929.321480190855</v>
       </c>
       <c r="W20" t="n">
-        <v>1218.42140690654</v>
+        <v>1576.552824920741</v>
       </c>
       <c r="X20" t="n">
-        <v>1218.42140690654</v>
+        <v>1203.087066659661</v>
       </c>
       <c r="Y20" t="n">
-        <v>1218.42140690654</v>
+        <v>1203.087066659661</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C21" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D21" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F21" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G21" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I21" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J21" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>288.9454078621915</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L21" t="n">
-        <v>848.5985338331556</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.996138081827</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.208704312132</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O21" t="n">
-        <v>1907.894322025889</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787598</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R21" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S21" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T21" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U21" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V21" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W21" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1087.315231116727</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C22" t="n">
-        <v>918.37904818882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D22" t="n">
-        <v>768.2624087764842</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E22" t="n">
-        <v>620.3493151940911</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F22" t="n">
-        <v>473.4593676961807</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G22" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H22" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I22" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
         <v>73.44728005477636</v>
@@ -5916,16 +5916,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M22" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O22" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P22" t="n">
         <v>1557.066378230431</v>
@@ -5937,25 +5937,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S22" t="n">
-        <v>1609.220368204927</v>
+        <v>1515.769209720769</v>
       </c>
       <c r="T22" t="n">
-        <v>1609.220368204927</v>
+        <v>1292.677288570585</v>
       </c>
       <c r="U22" t="n">
-        <v>1609.220368204927</v>
+        <v>1003.557502899807</v>
       </c>
       <c r="V22" t="n">
-        <v>1354.53587999904</v>
+        <v>748.8730146939197</v>
       </c>
       <c r="W22" t="n">
-        <v>1354.53587999904</v>
+        <v>459.455844656959</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.53587999904</v>
+        <v>231.4662937589417</v>
       </c>
       <c r="Y22" t="n">
-        <v>1268.963695946966</v>
+        <v>231.4662937589417</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1414.32401404735</v>
+        <v>1206.33043488157</v>
       </c>
       <c r="C23" t="n">
-        <v>1045.361497106938</v>
+        <v>1206.33043488157</v>
       </c>
       <c r="D23" t="n">
-        <v>1045.361497106938</v>
+        <v>848.0647362748191</v>
       </c>
       <c r="E23" t="n">
-        <v>659.5732445086942</v>
+        <v>462.2764836765748</v>
       </c>
       <c r="F23" t="n">
-        <v>248.5873397190866</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>254.8131514952472</v>
+        <v>189.7538958209935</v>
       </c>
       <c r="K23" t="n">
-        <v>502.4229978932125</v>
+        <v>437.363742218959</v>
       </c>
       <c r="L23" t="n">
-        <v>846.506669368179</v>
+        <v>781.4474136939255</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153923</v>
+        <v>1195.976233479669</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.084201475011</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2564.528944348363</v>
+        <v>2517.213531562255</v>
       </c>
       <c r="T23" t="n">
-        <v>2564.528944348363</v>
+        <v>2517.213531562255</v>
       </c>
       <c r="U23" t="n">
-        <v>2564.528944348363</v>
+        <v>2263.627735756334</v>
       </c>
       <c r="V23" t="n">
-        <v>2564.528944348363</v>
+        <v>1932.564848412763</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>1579.796193142649</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.063186087284</v>
+        <v>1206.33043488157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1800.923854111472</v>
+        <v>1206.33043488157</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C24" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G24" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033209</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915348</v>
+        <v>72.80815385915339</v>
       </c>
       <c r="I24" t="n">
-        <v>51.29057888696727</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>290.4181578204567</v>
+        <v>634.271748563755</v>
       </c>
       <c r="L24" t="n">
-        <v>578.3824410031193</v>
+        <v>922.2360317464177</v>
       </c>
       <c r="M24" t="n">
-        <v>1175.574854841118</v>
+        <v>1277.633635995089</v>
       </c>
       <c r="N24" t="n">
-        <v>1554.787421071423</v>
+        <v>1656.846202225394</v>
       </c>
       <c r="O24" t="n">
-        <v>2189.508334797642</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P24" t="n">
-        <v>2430.764101559352</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q24" t="n">
         <v>2542.117996141784</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6113,7 +6113,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y24" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2042.623807260163</v>
+        <v>372.7312882691423</v>
       </c>
       <c r="C25" t="n">
-        <v>1873.687624332256</v>
+        <v>372.7312882691423</v>
       </c>
       <c r="D25" t="n">
-        <v>1723.570984919921</v>
+        <v>222.6146488568066</v>
       </c>
       <c r="E25" t="n">
-        <v>1575.657891337527</v>
+        <v>222.6146488568066</v>
       </c>
       <c r="F25" t="n">
-        <v>1428.767943839617</v>
+        <v>219.3035934466487</v>
       </c>
       <c r="G25" t="n">
-        <v>1260.754929279936</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>1111.779978681034</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
-        <v>1005.126405072138</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>1028.755856198213</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K25" t="n">
-        <v>1197.423139792504</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L25" t="n">
-        <v>1468.785627282872</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M25" t="n">
-        <v>1765.288445607687</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N25" t="n">
-        <v>2060.175706050975</v>
+        <v>1106.339879865804</v>
       </c>
       <c r="O25" t="n">
-        <v>2316.535524442039</v>
+        <v>1362.699698256868</v>
       </c>
       <c r="P25" t="n">
-        <v>2512.374954373868</v>
+        <v>1558.539128188696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2564.528944348363</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>2460.751759255489</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.660319625537</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.272272090403</v>
+        <v>1387.601197013008</v>
       </c>
       <c r="U25" t="n">
-        <v>2224.272272090403</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V25" t="n">
-        <v>2224.272272090403</v>
+        <v>843.7969231363426</v>
       </c>
       <c r="W25" t="n">
-        <v>2224.272272090403</v>
+        <v>554.379753099382</v>
       </c>
       <c r="X25" t="n">
-        <v>2224.272272090403</v>
+        <v>554.379753099382</v>
       </c>
       <c r="Y25" t="n">
-        <v>2224.272272090403</v>
+        <v>554.379753099382</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>730.4924714336648</v>
+        <v>1720.818254342994</v>
       </c>
       <c r="C26" t="n">
-        <v>361.5299544932531</v>
+        <v>1720.818254342994</v>
       </c>
       <c r="D26" t="n">
-        <v>361.5299544932531</v>
+        <v>1362.552555736243</v>
       </c>
       <c r="E26" t="n">
-        <v>361.5299544932531</v>
+        <v>976.7643031379989</v>
       </c>
       <c r="F26" t="n">
-        <v>361.5299544932531</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G26" t="n">
         <v>355.9558858478247</v>
@@ -6229,49 +6229,49 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K26" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131804</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M26" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2300.820077921115</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R26" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="T26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="U26" t="n">
-        <v>2564.528944348363</v>
+        <v>2438.480981750686</v>
       </c>
       <c r="V26" t="n">
-        <v>2233.466057004792</v>
+        <v>2107.418094407115</v>
       </c>
       <c r="W26" t="n">
-        <v>1880.697401734678</v>
+        <v>2107.418094407115</v>
       </c>
       <c r="X26" t="n">
-        <v>1507.231643473598</v>
+        <v>2107.418094407115</v>
       </c>
       <c r="Y26" t="n">
-        <v>1117.092311497787</v>
+        <v>2107.418094407115</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G27" t="n">
         <v>166.8832661033211</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I27" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>127.7070010306074</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>307.4166064487828</v>
+        <v>415.2482828074616</v>
       </c>
       <c r="L27" t="n">
-        <v>595.3808896314454</v>
+        <v>703.2125659901242</v>
       </c>
       <c r="M27" t="n">
-        <v>1230.101803357665</v>
+        <v>1058.610170238796</v>
       </c>
       <c r="N27" t="n">
-        <v>1864.822717083885</v>
+        <v>1437.822736469101</v>
       </c>
       <c r="O27" t="n">
-        <v>2189.508334797642</v>
+        <v>1762.508354182858</v>
       </c>
       <c r="P27" t="n">
-        <v>2430.764101559351</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q27" t="n">
         <v>2542.117996141784</v>
@@ -6341,7 +6341,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V27" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W27" t="n">
         <v>1516.602933145469</v>
@@ -6350,7 +6350,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y27" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1088.787981074992</v>
+        <v>328.6895442080189</v>
       </c>
       <c r="C28" t="n">
-        <v>919.8517981470852</v>
+        <v>159.753361280112</v>
       </c>
       <c r="D28" t="n">
-        <v>769.7351587347495</v>
+        <v>159.753361280112</v>
       </c>
       <c r="E28" t="n">
-        <v>621.8220651523563</v>
+        <v>159.753361280112</v>
       </c>
       <c r="F28" t="n">
-        <v>474.932117654446</v>
+        <v>159.753361280112</v>
       </c>
       <c r="G28" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H28" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I28" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K28" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L28" t="n">
         <v>514.949801097701</v>
@@ -6417,19 +6417,19 @@
         <v>1610.693118163192</v>
       </c>
       <c r="U28" t="n">
-        <v>1610.693118163192</v>
+        <v>1321.573332492414</v>
       </c>
       <c r="V28" t="n">
-        <v>1610.693118163192</v>
+        <v>1066.888844286527</v>
       </c>
       <c r="W28" t="n">
-        <v>1610.693118163192</v>
+        <v>777.4716742495664</v>
       </c>
       <c r="X28" t="n">
-        <v>1491.229025048762</v>
+        <v>549.482123351549</v>
       </c>
       <c r="Y28" t="n">
-        <v>1270.436445905232</v>
+        <v>328.6895442080189</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>810.3996474861515</v>
+        <v>1540.971427896159</v>
       </c>
       <c r="C29" t="n">
-        <v>810.3996474861515</v>
+        <v>1540.971427896159</v>
       </c>
       <c r="D29" t="n">
-        <v>810.3996474861515</v>
+        <v>1182.705729289409</v>
       </c>
       <c r="E29" t="n">
-        <v>424.6113948879072</v>
+        <v>1182.705729289409</v>
       </c>
       <c r="F29" t="n">
-        <v>424.6113948879072</v>
+        <v>771.7198244998012</v>
       </c>
       <c r="G29" t="n">
-        <v>424.6113948879072</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I29" t="n">
         <v>51.29057888696726</v>
@@ -6466,10 +6466,10 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K29" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131804</v>
+        <v>774.3419214131807</v>
       </c>
       <c r="M29" t="n">
         <v>1188.870741198924</v>
@@ -6478,37 +6478,37 @@
         <v>1614.720879044173</v>
       </c>
       <c r="O29" t="n">
-        <v>2003.503827275789</v>
+        <v>2003.50382727579</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750686</v>
+        <v>2520.791637233275</v>
       </c>
       <c r="T29" t="n">
-        <v>2229.476243239409</v>
+        <v>2520.791637233275</v>
       </c>
       <c r="U29" t="n">
-        <v>1975.890447433488</v>
+        <v>2267.205841427353</v>
       </c>
       <c r="V29" t="n">
-        <v>1644.827560089917</v>
+        <v>2267.205841427353</v>
       </c>
       <c r="W29" t="n">
-        <v>1292.058904819803</v>
+        <v>1914.437186157239</v>
       </c>
       <c r="X29" t="n">
-        <v>918.593146558723</v>
+        <v>1540.971427896159</v>
       </c>
       <c r="Y29" t="n">
-        <v>810.3996474861515</v>
+        <v>1540.971427896159</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549145</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737875</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125361</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070805</v>
+        <v>450.1509032070801</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339656</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G30" t="n">
         <v>166.8832661033211</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915346</v>
+        <v>72.80815385915366</v>
       </c>
       <c r="I30" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022813</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>552.2387424629095</v>
+        <v>634.271748563755</v>
       </c>
       <c r="L30" t="n">
-        <v>840.2030256455721</v>
+        <v>922.2360317464177</v>
       </c>
       <c r="M30" t="n">
-        <v>1195.600629894244</v>
+        <v>1277.633635995089</v>
       </c>
       <c r="N30" t="n">
-        <v>1574.813196124549</v>
+        <v>1656.846202225394</v>
       </c>
       <c r="O30" t="n">
-        <v>1899.498813838306</v>
+        <v>1981.531819939152</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.764101559351</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q30" t="n">
         <v>2542.117996141784</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6587,7 +6587,7 @@
         <v>1308.751432939936</v>
       </c>
       <c r="Y30" t="n">
-        <v>1100.991134174983</v>
+        <v>1100.991134174982</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>982.1344074660968</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="C31" t="n">
-        <v>813.1982245381899</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="D31" t="n">
-        <v>663.0815851258542</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="E31" t="n">
-        <v>515.1684915434611</v>
+        <v>198.1805263848776</v>
       </c>
       <c r="F31" t="n">
-        <v>368.2785440455507</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
         <v>51.29057888696726</v>
@@ -6621,10 +6621,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K31" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L31" t="n">
         <v>514.949801097701</v>
@@ -6651,22 +6651,22 @@
         <v>1610.693118163192</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.693118163192</v>
+        <v>1387.601197013008</v>
       </c>
       <c r="U31" t="n">
-        <v>1610.693118163192</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V31" t="n">
-        <v>1610.693118163192</v>
+        <v>843.7969231363426</v>
       </c>
       <c r="W31" t="n">
-        <v>1321.275948126231</v>
+        <v>554.379753099382</v>
       </c>
       <c r="X31" t="n">
-        <v>1321.275948126231</v>
+        <v>326.3902022013647</v>
       </c>
       <c r="Y31" t="n">
-        <v>1163.782872296337</v>
+        <v>198.1805263848776</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.80381656663</v>
+        <v>778.5187944341294</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.841299626218</v>
+        <v>409.5562774937177</v>
       </c>
       <c r="D32" t="n">
-        <v>1193.575601019468</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E32" t="n">
-        <v>807.7873484212234</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F32" t="n">
-        <v>396.8014436316159</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6703,22 +6703,22 @@
         <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>430.258249938214</v>
+        <v>430.2582499382141</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131804</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O32" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P32" t="n">
-        <v>2300.820077921115</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q32" t="n">
         <v>2548.08420147501</v>
@@ -6733,19 +6733,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U32" t="n">
-        <v>2310.943148542442</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V32" t="n">
-        <v>2310.943148542442</v>
+        <v>2281.492380005257</v>
       </c>
       <c r="W32" t="n">
-        <v>2310.943148542442</v>
+        <v>1928.723724735143</v>
       </c>
       <c r="X32" t="n">
-        <v>2310.943148542442</v>
+        <v>1555.257966474063</v>
       </c>
       <c r="Y32" t="n">
-        <v>1920.80381656663</v>
+        <v>1165.118634498251</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>166.8832661033211</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915383</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>113.0937255557342</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>554.6239156163624</v>
+        <v>415.2482828074616</v>
       </c>
       <c r="L33" t="n">
-        <v>842.588198799025</v>
+        <v>703.2125659901242</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.985803047697</v>
+        <v>1058.610170238796</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.198369278001</v>
+        <v>1437.822736469101</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.919283004221</v>
+        <v>1762.508354182858</v>
       </c>
       <c r="P33" t="n">
-        <v>2453.17504976593</v>
+        <v>2222.787586700861</v>
       </c>
       <c r="Q33" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>518.2564948096031</v>
+        <v>667.231445408505</v>
       </c>
       <c r="C34" t="n">
-        <v>349.3203118816961</v>
+        <v>498.2952624805981</v>
       </c>
       <c r="D34" t="n">
-        <v>199.2036724693604</v>
+        <v>348.1786230682624</v>
       </c>
       <c r="E34" t="n">
-        <v>51.29057888696726</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="F34" t="n">
-        <v>51.29057888696726</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="G34" t="n">
-        <v>51.29057888696726</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H34" t="n">
         <v>51.29057888696726</v>
@@ -6858,10 +6858,10 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.92003001304161</v>
+        <v>74.92003001304163</v>
       </c>
       <c r="K34" t="n">
-        <v>243.5873136073331</v>
+        <v>243.5873136073332</v>
       </c>
       <c r="L34" t="n">
         <v>514.949801097701</v>
@@ -6888,22 +6888,22 @@
         <v>1610.693118163192</v>
       </c>
       <c r="T34" t="n">
-        <v>1610.693118163192</v>
+        <v>1387.601197013008</v>
       </c>
       <c r="U34" t="n">
-        <v>1610.693118163192</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V34" t="n">
-        <v>1438.104259718351</v>
+        <v>888.0240245520351</v>
       </c>
       <c r="W34" t="n">
-        <v>1148.68708968139</v>
+        <v>888.0240245520351</v>
       </c>
       <c r="X34" t="n">
-        <v>920.6975387833729</v>
+        <v>888.0240245520351</v>
       </c>
       <c r="Y34" t="n">
-        <v>699.9049596398428</v>
+        <v>667.231445408505</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>777.0460444758642</v>
+        <v>861.8698982662954</v>
       </c>
       <c r="C35" t="n">
-        <v>408.0835275354525</v>
+        <v>861.8698982662954</v>
       </c>
       <c r="D35" t="n">
-        <v>49.81782892870201</v>
+        <v>861.8698982662954</v>
       </c>
       <c r="E35" t="n">
-        <v>49.81782892870201</v>
+        <v>476.0816456680512</v>
       </c>
       <c r="F35" t="n">
-        <v>49.81782892870201</v>
+        <v>65.09574087844362</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
         <v>181.1756535819834</v>
@@ -6943,13 +6943,13 @@
         <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549153</v>
       </c>
       <c r="M35" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O35" t="n">
         <v>2002.031077317525</v>
@@ -6958,31 +6958,31 @@
         <v>2299.34732796285</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S35" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T35" t="n">
-        <v>2281.886707923823</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U35" t="n">
-        <v>2028.300912117902</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.238024774331</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.238024774331</v>
+        <v>2012.074828567309</v>
       </c>
       <c r="X35" t="n">
-        <v>1553.785216515798</v>
+        <v>1638.609070306229</v>
       </c>
       <c r="Y35" t="n">
-        <v>1163.645884539986</v>
+        <v>1248.469738330417</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4105161450557</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H36" t="n">
-        <v>71.33540390088822</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>288.9454078621915</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L36" t="n">
-        <v>787.1759816192947</v>
+        <v>701.7398160318589</v>
       </c>
       <c r="M36" t="n">
-        <v>1142.573585867966</v>
+        <v>1057.137420280531</v>
       </c>
       <c r="N36" t="n">
-        <v>1521.786152098271</v>
+        <v>1436.349986510836</v>
       </c>
       <c r="O36" t="n">
-        <v>2138.281785090959</v>
+        <v>1761.035604224593</v>
       </c>
       <c r="P36" t="n">
-        <v>2379.537551852668</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1087.315231116727</v>
+        <v>786.5959634510214</v>
       </c>
       <c r="C37" t="n">
-        <v>918.37904818882</v>
+        <v>617.6597805231145</v>
       </c>
       <c r="D37" t="n">
-        <v>768.2624087764842</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E37" t="n">
-        <v>620.3493151940911</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F37" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G37" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
         <v>73.44728005477636</v>
@@ -7101,16 +7101,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N37" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O37" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P37" t="n">
         <v>1557.066378230431</v>
@@ -7122,25 +7122,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T37" t="n">
-        <v>1609.220368204927</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U37" t="n">
-        <v>1609.220368204927</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="V37" t="n">
-        <v>1609.220368204927</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="W37" t="n">
-        <v>1609.220368204927</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="X37" t="n">
-        <v>1489.756275090497</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="Y37" t="n">
-        <v>1268.963695946966</v>
+        <v>968.2444282812611</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1908.461194878306</v>
+        <v>1030.320731781481</v>
       </c>
       <c r="C38" t="n">
-        <v>1539.498677937894</v>
+        <v>661.3582148410696</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.232979331143</v>
+        <v>303.0925162343191</v>
       </c>
       <c r="E38" t="n">
-        <v>1181.232979331143</v>
+        <v>303.0925162343191</v>
       </c>
       <c r="F38" t="n">
-        <v>770.247074541536</v>
+        <v>303.0925162343191</v>
       </c>
       <c r="G38" t="n">
-        <v>354.4831358895594</v>
+        <v>303.0925162343191</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870201</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.175653581985</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799506</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L38" t="n">
-        <v>772.869171454917</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240661</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085909</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317526</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962851</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837424</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T38" t="n">
-        <v>2155.838745326147</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U38" t="n">
-        <v>2155.838745326147</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V38" t="n">
-        <v>1908.461194878306</v>
+        <v>2159.828559091529</v>
       </c>
       <c r="W38" t="n">
-        <v>1908.461194878306</v>
+        <v>1807.059903821415</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.461194878306</v>
+        <v>1807.059903821415</v>
       </c>
       <c r="Y38" t="n">
-        <v>1908.461194878306</v>
+        <v>1416.920571845603</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416516</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605246</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D39" t="n">
-        <v>535.7508602992733</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>376.5134052938178</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F39" t="n">
-        <v>229.9788473207028</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G39" t="n">
-        <v>93.24576819005841</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870201</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
         <v>234.0659274310208</v>
       </c>
       <c r="K39" t="n">
-        <v>531.3276987466008</v>
+        <v>413.7755328491963</v>
       </c>
       <c r="L39" t="n">
-        <v>819.2919819292634</v>
+        <v>701.7398160318589</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.689586177935</v>
+        <v>1057.137420280531</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.185219170623</v>
+        <v>1436.349986510836</v>
       </c>
       <c r="O39" t="n">
-        <v>2115.87083688438</v>
+        <v>1761.035604224593</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.126603646089</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.480498228521</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779002</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192151</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960408</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232206</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026674</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.35363626172</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>664.735549365757</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="C40" t="n">
-        <v>495.7993664378502</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="D40" t="n">
-        <v>345.6827270255144</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E40" t="n">
-        <v>345.6827270255144</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F40" t="n">
-        <v>198.792779527604</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G40" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
         <v>73.44728005477636</v>
@@ -7338,16 +7338,16 @@
         <v>242.1145636490679</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N40" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O40" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P40" t="n">
         <v>1557.066378230431</v>
@@ -7356,28 +7356,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T40" t="n">
-        <v>1085.259822331916</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U40" t="n">
-        <v>954.1527194027176</v>
+        <v>1030.040605503665</v>
       </c>
       <c r="V40" t="n">
-        <v>954.1527194027176</v>
+        <v>1030.040605503665</v>
       </c>
       <c r="W40" t="n">
-        <v>664.735549365757</v>
+        <v>740.6234354667042</v>
       </c>
       <c r="X40" t="n">
-        <v>664.735549365757</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="Y40" t="n">
-        <v>664.735549365757</v>
+        <v>512.6338845686869</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>460.8037337183096</v>
+        <v>1618.851005311637</v>
       </c>
       <c r="C41" t="n">
-        <v>460.8037337183096</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="D41" t="n">
-        <v>460.8037337183096</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="E41" t="n">
-        <v>460.8037337183096</v>
+        <v>1249.888488371226</v>
       </c>
       <c r="F41" t="n">
-        <v>49.81782892870199</v>
+        <v>838.9025835816183</v>
       </c>
       <c r="G41" t="n">
-        <v>49.81782892870199</v>
+        <v>423.1386449296418</v>
       </c>
       <c r="H41" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I41" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819828</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L41" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N41" t="n">
         <v>1613.248129085907</v>
@@ -7432,31 +7432,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326145</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="U41" t="n">
-        <v>1902.252949520224</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="V41" t="n">
-        <v>1571.190062176653</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="W41" t="n">
-        <v>1220.869332043511</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="X41" t="n">
-        <v>847.4035737824313</v>
+        <v>2155.838745326146</v>
       </c>
       <c r="Y41" t="n">
-        <v>847.4035737824313</v>
+        <v>1765.699413350334</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C42" t="n">
-        <v>684.6852699605232</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D42" t="n">
-        <v>535.7508602992719</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E42" t="n">
-        <v>376.5134052938164</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F42" t="n">
-        <v>229.9788473207014</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G42" t="n">
-        <v>93.24576819005705</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H42" t="n">
-        <v>71.33540390088821</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I42" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K42" t="n">
-        <v>299.5362219064762</v>
+        <v>560.6342506504916</v>
       </c>
       <c r="L42" t="n">
-        <v>587.5005050891388</v>
+        <v>848.5985338331543</v>
       </c>
       <c r="M42" t="n">
         <v>1203.996138081826</v>
@@ -7514,7 +7514,7 @@
         <v>2468.48049822852</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S42" t="n">
         <v>2354.581362957454</v>
@@ -7523,7 +7523,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V42" t="n">
         <v>1697.202791960407</v>
@@ -7532,10 +7532,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X42" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y42" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.81782892870199</v>
+        <v>536.883665828626</v>
       </c>
       <c r="C43" t="n">
-        <v>49.81782892870199</v>
+        <v>367.9474829007191</v>
       </c>
       <c r="D43" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E43" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F43" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G43" t="n">
         <v>49.81782892870199</v>
@@ -7569,22 +7569,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N43" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O43" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P43" t="n">
         <v>1557.066378230431</v>
@@ -7596,25 +7596,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
-        <v>1609.220368204927</v>
+        <v>1520.161007516789</v>
       </c>
       <c r="T43" t="n">
-        <v>1386.128447054742</v>
+        <v>1297.069086366605</v>
       </c>
       <c r="U43" t="n">
-        <v>1097.008661383964</v>
+        <v>1007.949300695826</v>
       </c>
       <c r="V43" t="n">
-        <v>842.3241731780771</v>
+        <v>1007.949300695826</v>
       </c>
       <c r="W43" t="n">
-        <v>552.9070031411165</v>
+        <v>718.5321306588658</v>
       </c>
       <c r="X43" t="n">
-        <v>324.9174522430992</v>
+        <v>718.5321306588658</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.1248730995691</v>
+        <v>718.5321306588658</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1262.35592496853</v>
+        <v>861.8698982662954</v>
       </c>
       <c r="C44" t="n">
-        <v>1262.35592496853</v>
+        <v>492.9073813258837</v>
       </c>
       <c r="D44" t="n">
-        <v>1262.35592496853</v>
+        <v>134.6416827191332</v>
       </c>
       <c r="E44" t="n">
-        <v>876.5676723702861</v>
+        <v>134.6416827191332</v>
       </c>
       <c r="F44" t="n">
-        <v>465.5817675806785</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G44" t="n">
         <v>49.81782892870199</v>
@@ -7648,16 +7648,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819828</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799483</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
         <v>1613.248129085907</v>
@@ -7669,31 +7669,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R44" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S44" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U44" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V44" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="W44" t="n">
-        <v>2155.838745326145</v>
+        <v>2012.074828567309</v>
       </c>
       <c r="X44" t="n">
-        <v>2039.095097008464</v>
+        <v>1638.609070306229</v>
       </c>
       <c r="Y44" t="n">
-        <v>1648.955765032652</v>
+        <v>1248.469738330417</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C45" t="n">
-        <v>684.6852699605232</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D45" t="n">
-        <v>535.7508602992719</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E45" t="n">
-        <v>376.5134052938164</v>
+        <v>376.5134052938169</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473207014</v>
+        <v>229.9788473207019</v>
       </c>
       <c r="G45" t="n">
-        <v>93.24576819005705</v>
+        <v>93.2457681900575</v>
       </c>
       <c r="H45" t="n">
-        <v>71.33540390088821</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I45" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
-        <v>234.0659274310207</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K45" t="n">
-        <v>560.6342506504917</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L45" t="n">
-        <v>848.5985338331543</v>
+        <v>576.9096910448542</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.996138081826</v>
+        <v>932.3072952935258</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.208704312131</v>
+        <v>1311.519861523831</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025888</v>
+        <v>1636.205479237588</v>
       </c>
       <c r="P45" t="n">
         <v>2149.150088787597</v>
@@ -7751,7 +7751,7 @@
         <v>2468.48049822852</v>
       </c>
       <c r="R45" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S45" t="n">
         <v>2354.581362957454</v>
@@ -7760,7 +7760,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U45" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V45" t="n">
         <v>1697.202791960407</v>
@@ -7769,10 +7769,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X45" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y45" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>738.5469880852022</v>
+        <v>347.8475619234308</v>
       </c>
       <c r="C46" t="n">
-        <v>664.8355270820143</v>
+        <v>347.8475619234308</v>
       </c>
       <c r="D46" t="n">
-        <v>514.7188876696786</v>
+        <v>197.7309225110951</v>
       </c>
       <c r="E46" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F46" t="n">
-        <v>366.8057940872854</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G46" t="n">
-        <v>198.792779527604</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H46" t="n">
         <v>49.81782892870199</v>
@@ -7806,22 +7806,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N46" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O46" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P46" t="n">
         <v>1557.066378230431</v>
@@ -7833,25 +7833,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S46" t="n">
-        <v>1505.443183112052</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T46" t="n">
-        <v>1282.351261961867</v>
+        <v>1085.259822331916</v>
       </c>
       <c r="U46" t="n">
-        <v>993.2314762910891</v>
+        <v>796.1400366611382</v>
       </c>
       <c r="V46" t="n">
-        <v>738.5469880852022</v>
+        <v>796.1400366611382</v>
       </c>
       <c r="W46" t="n">
-        <v>738.5469880852022</v>
+        <v>506.7228666241776</v>
       </c>
       <c r="X46" t="n">
-        <v>738.5469880852022</v>
+        <v>506.7228666241776</v>
       </c>
       <c r="Y46" t="n">
-        <v>738.5469880852022</v>
+        <v>347.8475619234308</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140155</v>
+        <v>188.6850150503357</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>32.60525894184541</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>189.7528710786481</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>294.7575911908388</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>170.9794606140147</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>9.967937521057706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>148.3421391932276</v>
       </c>
       <c r="L21" t="n">
-        <v>274.4331745336378</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.89368480302878</v>
+        <v>7.177264930045311</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>221.2358239962559</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>244.2371814033606</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>313.1669656691544</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>72.89368480302824</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>7.177264930045709</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>17.17015012962227</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>282.1447570480285</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>258.0892398948637</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>221.235823996256</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10129,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>72.89368480302829</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>7.177264930045652</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.2358239962559</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>292.938910059936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>72.89368480302824</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>72.89368480302818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>2.409265811568559</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>313.1669656691543</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>221.235823996256</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>212.390192499435</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>294.7575911908387</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>148.3421391932276</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053379</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>118.7395615125299</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>239.6798654165481</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>148.3421391932276</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>10.69779196392398</v>
+        <v>148.3421391932276</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>148.3421391932279</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>274.4331745336365</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>172.306147723732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>16.75074565462037</v>
       </c>
       <c r="U11" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>71.44310047544866</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2285878140705</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>69.89695384580557</v>
       </c>
       <c r="X13" t="n">
-        <v>107.4402032057508</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>232.933868733975</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23515,7 +23515,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>164.5190961491383</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>50.14070125298254</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>100.3275297477479</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>107.4402032057508</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>53.26420654527227</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>172.6211241213608</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71.44310047544819</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>50.14070125298387</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>103.2868095244663</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>25.51131139434443</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>2.695490501884819</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>103.5001659861972</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>50.14070125298386</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>71.4431004754473</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S22" t="n">
-        <v>195.1205252336517</v>
+        <v>102.6038783343355</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.8681911405423</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>216.2825060416585</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>77.94522431345361</v>
       </c>
       <c r="T23" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>142.1431031668749</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>181.8668348788999</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>203.8820118898958</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0879713064825</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>206.9146911261644</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>58.95472984487132</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>107.4402032057513</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,22 +24685,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>81.48754892776275</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>279.1263745742078</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
         <v>105.5870378728063</v>
@@ -24891,22 +24891,22 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T31" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.66650828049907</v>
+        <v>91.65707429377262</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>69.55054316825459</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I32" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>47.54605977046003</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>105.5870378728063</v>
@@ -25128,19 +25128,19 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>81.27467346343545</v>
+        <v>43.78483040153569</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>396.4811664352125</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>227.7128205025207</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>50.14070125298387</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>71.4431004754473</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>44.63983602332904</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>107.4402032057513</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>118.8456674083695</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>82.8484835267723</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>50.14070125298299</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>71.44310047544816</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>156.4325559141641</v>
+        <v>128.8221499121554</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>237.353917705171</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>2.423445885602462</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>71.44310047544869</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126.0680064527789</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -25836,7 +25836,7 @@
         <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
-        <v>195.1205252336517</v>
+        <v>106.9517581523951</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>322.9004304891845</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
         <v>251.0499378478622</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>254.1548888439644</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25961,10 +25961,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>71.44310047544869</v>
+        <v>50.14070125298387</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>94.27247470547184</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I46" t="n">
         <v>105.5870378728063</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>61.29810169835551</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679147.575164772</v>
+        <v>679147.5751647718</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679147.575164772</v>
+        <v>679147.5751647719</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679147.5751647719</v>
+        <v>679147.5751647718</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679147.575164772</v>
+        <v>679147.5751647719</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691847.7995896663</v>
+        <v>691847.7995896662</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>691847.7995896663</v>
+        <v>691847.7995896664</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>691847.7995896663</v>
+        <v>691847.7995896665</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679147.5751647722</v>
+        <v>679147.5751647719</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679147.575164772</v>
+        <v>679147.5751647719</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679147.5751647718</v>
+        <v>679147.5751647719</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679147.5751647718</v>
+        <v>679147.575164772</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
         <v>532529.620166075</v>
@@ -26322,28 +26322,28 @@
         <v>532529.6201660751</v>
       </c>
       <c r="E2" t="n">
-        <v>391531.8826113117</v>
+        <v>391531.8826113114</v>
       </c>
       <c r="F2" t="n">
-        <v>391531.8826113117</v>
+        <v>391531.8826113118</v>
       </c>
       <c r="G2" t="n">
-        <v>391531.8826113117</v>
+        <v>391531.8826113116</v>
       </c>
       <c r="H2" t="n">
-        <v>391531.8826113117</v>
+        <v>391531.8826113116</v>
       </c>
       <c r="I2" t="n">
         <v>397197.3204790147</v>
       </c>
       <c r="J2" t="n">
-        <v>397197.3204790148</v>
+        <v>397197.3204790147</v>
       </c>
       <c r="K2" t="n">
-        <v>397197.3204790146</v>
+        <v>397197.3204790145</v>
       </c>
       <c r="L2" t="n">
-        <v>397197.3204790148</v>
+        <v>397197.3204790147</v>
       </c>
       <c r="M2" t="n">
         <v>391531.8826113117</v>
@@ -26352,7 +26352,7 @@
         <v>391531.8826113117</v>
       </c>
       <c r="O2" t="n">
-        <v>391531.8826113116</v>
+        <v>391531.8826113117</v>
       </c>
       <c r="P2" t="n">
         <v>391531.8826113116</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761242</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4895.439270648196</v>
+        <v>4895.439270648227</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.3382468591</v>
+        <v>150597.3382468589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>17063.09274441893</v>
+        <v>17063.09274441892</v>
       </c>
       <c r="F4" t="n">
-        <v>17063.09274441893</v>
+        <v>17063.09274441892</v>
       </c>
       <c r="G4" t="n">
         <v>17063.09274441891</v>
       </c>
       <c r="H4" t="n">
-        <v>17063.09274441894</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="I4" t="n">
-        <v>20188.99262982721</v>
+        <v>20188.99262982716</v>
       </c>
       <c r="J4" t="n">
         <v>20188.99262982718</v>
       </c>
       <c r="K4" t="n">
-        <v>20188.99262982719</v>
+        <v>20188.99262982717</v>
       </c>
       <c r="L4" t="n">
         <v>20188.99262982718</v>
       </c>
       <c r="M4" t="n">
-        <v>17063.09274441896</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="N4" t="n">
-        <v>17063.09274441893</v>
+        <v>17063.09274441891</v>
       </c>
       <c r="O4" t="n">
         <v>17063.09274441891</v>
       </c>
       <c r="P4" t="n">
-        <v>17063.09274441892</v>
+        <v>17063.09274441891</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="G5" t="n">
         <v>57906.41050425675</v>
@@ -26508,10 +26508,10 @@
         <v>57906.41050425675</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425675</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78754.25127654368</v>
+        <v>78710.11549786267</v>
       </c>
       <c r="C6" t="n">
-        <v>78754.25127654368</v>
+        <v>78710.11549786256</v>
       </c>
       <c r="D6" t="n">
-        <v>78754.2512765438</v>
+        <v>78710.11549786267</v>
       </c>
       <c r="E6" t="n">
-        <v>-608089.2000134882</v>
+        <v>-613556.3256981217</v>
       </c>
       <c r="F6" t="n">
-        <v>316562.379362636</v>
+        <v>311095.2536780026</v>
       </c>
       <c r="G6" t="n">
-        <v>316562.379362636</v>
+        <v>311095.2536780025</v>
       </c>
       <c r="H6" t="n">
-        <v>316562.379362636</v>
+        <v>311095.2536780025</v>
       </c>
       <c r="I6" t="n">
-        <v>313087.1881060009</v>
+        <v>307837.9638778174</v>
       </c>
       <c r="J6" t="n">
-        <v>317982.6273766493</v>
+        <v>312733.4031484657</v>
       </c>
       <c r="K6" t="n">
-        <v>317982.6273766491</v>
+        <v>312733.4031484655</v>
       </c>
       <c r="L6" t="n">
-        <v>317982.6273766493</v>
+        <v>312733.4031484657</v>
       </c>
       <c r="M6" t="n">
-        <v>165965.041115777</v>
+        <v>160497.9154311435</v>
       </c>
       <c r="N6" t="n">
-        <v>316562.379362636</v>
+        <v>311095.2536780025</v>
       </c>
       <c r="O6" t="n">
-        <v>316562.379362636</v>
+        <v>311095.2536780026</v>
       </c>
       <c r="P6" t="n">
-        <v>316562.379362636</v>
+        <v>311095.2536780025</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074875</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="K3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="L3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074874</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="G4" t="n">
         <v>622.7228616087749</v>
       </c>
       <c r="H4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="I4" t="n">
-        <v>641.1322360870909</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
         <v>641.1322360870907</v>
@@ -26822,16 +26822,16 @@
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>18.40937447831573</v>
+        <v>18.40937447831584</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304596</v>
+        <v>604.313487130459</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087752</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,31 +31834,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
         <v>252.4604554824181</v>
@@ -31867,13 +31867,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H13" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
@@ -32001,7 +32001,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
         <v>583.325679086115</v>
@@ -32010,22 +32010,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O14" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T14" t="n">
         <v>16.18115843796694</v>
@@ -32080,22 +32080,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153592</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
         <v>200.5390467268526</v>
@@ -32180,16 +32180,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598672</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I20" t="n">
         <v>142.5069356207243</v>
@@ -32475,7 +32475,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L20" t="n">
         <v>583.325679086115</v>
@@ -32484,22 +32484,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O20" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q20" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T20" t="n">
         <v>16.18115843796694</v>
@@ -32554,22 +32554,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K21" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L21" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N21" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O21" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q21" t="n">
         <v>252.4604554824181</v>
@@ -32578,13 +32578,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S21" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T21" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H22" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K22" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L22" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N22" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O22" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P22" t="n">
         <v>200.5390467268526</v>
@@ -32654,16 +32654,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R22" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S22" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I23" t="n">
         <v>142.5069356207243</v>
@@ -32712,7 +32712,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L23" t="n">
         <v>583.325679086115</v>
@@ -32721,22 +32721,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O23" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q23" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T23" t="n">
         <v>16.18115843796694</v>
@@ -32791,22 +32791,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K24" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L24" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N24" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O24" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q24" t="n">
         <v>252.4604554824181</v>
@@ -32815,13 +32815,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S24" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T24" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H25" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K25" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L25" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N25" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O25" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P25" t="n">
         <v>200.5390467268526</v>
@@ -32891,16 +32891,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R25" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S25" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I26" t="n">
         <v>142.5069356207243</v>
@@ -32949,7 +32949,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L26" t="n">
         <v>583.325679086115</v>
@@ -32958,22 +32958,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O26" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q26" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T26" t="n">
         <v>16.18115843796694</v>
@@ -33028,22 +33028,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K27" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L27" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N27" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O27" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q27" t="n">
         <v>252.4604554824181</v>
@@ -33052,13 +33052,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S27" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T27" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H28" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K28" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L28" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N28" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P28" t="n">
         <v>200.5390467268526</v>
@@ -33128,16 +33128,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R28" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S28" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I29" t="n">
         <v>142.5069356207243</v>
@@ -33186,7 +33186,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L29" t="n">
         <v>583.325679086115</v>
@@ -33195,22 +33195,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O29" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q29" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T29" t="n">
         <v>16.18115843796694</v>
@@ -33265,22 +33265,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K30" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L30" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N30" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O30" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q30" t="n">
         <v>252.4604554824181</v>
@@ -33289,13 +33289,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S30" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T30" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H31" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K31" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L31" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N31" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P31" t="n">
         <v>200.5390467268526</v>
@@ -33365,16 +33365,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R31" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S31" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I32" t="n">
         <v>142.5069356207243</v>
@@ -33423,7 +33423,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L32" t="n">
         <v>583.325679086115</v>
@@ -33432,22 +33432,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O32" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q32" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T32" t="n">
         <v>16.18115843796694</v>
@@ -33502,22 +33502,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K33" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L33" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N33" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O33" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4604554824181</v>
@@ -33526,13 +33526,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S33" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T33" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H34" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L34" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N34" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O34" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P34" t="n">
         <v>200.5390467268526</v>
@@ -33602,16 +33602,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R34" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S34" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I35" t="n">
         <v>142.5069356207243</v>
@@ -33660,7 +33660,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L35" t="n">
         <v>583.325679086115</v>
@@ -33669,22 +33669,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O35" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q35" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796694</v>
@@ -33739,22 +33739,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L36" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O36" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q36" t="n">
         <v>252.4604554824181</v>
@@ -33763,13 +33763,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H37" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K37" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L37" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N37" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P37" t="n">
         <v>200.5390467268526</v>
@@ -33839,16 +33839,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S37" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I38" t="n">
         <v>142.5069356207243</v>
@@ -33897,7 +33897,7 @@
         <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L38" t="n">
         <v>583.325679086115</v>
@@ -33906,22 +33906,22 @@
         <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857307</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O38" t="n">
         <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q38" t="n">
         <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454523</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796694</v>
@@ -33976,22 +33976,22 @@
         <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L39" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610806</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O39" t="n">
         <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q39" t="n">
         <v>252.4604554824181</v>
@@ -34000,13 +34000,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153591</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H40" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445195</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K40" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L40" t="n">
         <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N40" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P40" t="n">
         <v>200.5390467268526</v>
@@ -34076,16 +34076,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S40" t="n">
         <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598671</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040869</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I41" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M41" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013572</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U41" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,31 +34204,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J42" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L42" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4604554824181</v>
@@ -34237,13 +34237,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T42" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H43" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K43" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L43" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M43" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N43" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q43" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T43" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I44" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936366</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T44" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,31 +34441,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J45" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L45" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4604554824181</v>
@@ -34474,13 +34474,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H46" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I46" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J46" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K46" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L46" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M46" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N46" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P46" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q46" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063827</v>
+        <v>60.01815506597376</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5043145717685</v>
+        <v>370.2098690080886</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35576,19 +35576,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L14" t="n">
         <v>347.5592641161277</v>
@@ -35658,19 +35658,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O14" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597381</v>
+        <v>92.62341400781919</v>
       </c>
       <c r="K15" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L15" t="n">
-        <v>480.625884394469</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390624</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>622.7228616087752</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,7 +35813,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
         <v>297.8659196396851</v>
@@ -35825,7 +35825,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K18" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158209</v>
@@ -35974,19 +35974,19 @@
         <v>358.9874790390624</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922272</v>
+        <v>554.0224568062418</v>
       </c>
       <c r="O18" t="n">
         <v>327.9652704179365</v>
       </c>
       <c r="P18" t="n">
-        <v>253.6606312197538</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R18" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L20" t="n">
         <v>347.5592641161277</v>
@@ -36132,19 +36132,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O20" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605021</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K21" t="n">
-        <v>181.524853957753</v>
+        <v>329.8669931509806</v>
       </c>
       <c r="L21" t="n">
-        <v>565.3061878494586</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N21" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O21" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P21" t="n">
         <v>243.6926936986961</v>
@@ -36223,7 +36223,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36287,7 +36287,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M22" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N22" t="n">
         <v>297.8659196396851</v>
@@ -36299,7 +36299,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.5783561699797</v>
+        <v>139.8619362969962</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L23" t="n">
         <v>347.5592641161277</v>
@@ -36369,19 +36369,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O23" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722501</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K24" t="n">
-        <v>181.524853957753</v>
+        <v>402.7606779540089</v>
       </c>
       <c r="L24" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M24" t="n">
-        <v>603.2246604424229</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N24" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O24" t="n">
-        <v>641.1322360870909</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P24" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36524,7 +36524,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M25" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N25" t="n">
         <v>297.8659196396851</v>
@@ -36536,7 +36536,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161277</v>
+        <v>420.452948919156</v>
       </c>
       <c r="M26" t="n">
         <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O26" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P26" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q26" t="n">
-        <v>184.0453210905482</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R26" t="n">
-        <v>82.32727126020745</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>77.18830519559606</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K27" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L27" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M27" t="n">
-        <v>641.1322360870907</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N27" t="n">
-        <v>641.1322360870907</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O27" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P27" t="n">
-        <v>243.6926936986961</v>
+        <v>464.9285176949521</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36761,7 +36761,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M28" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N28" t="n">
         <v>297.8659196396851</v>
@@ -36773,7 +36773,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L29" t="n">
         <v>347.5592641161277</v>
@@ -36843,19 +36843,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O29" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2131298993163</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605025</v>
+        <v>184.0453210905482</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722501</v>
+        <v>82.32727126020748</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K30" t="n">
-        <v>445.9900909703316</v>
+        <v>402.7606779540089</v>
       </c>
       <c r="L30" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N30" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O30" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P30" t="n">
-        <v>536.6316037586321</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -36998,7 +36998,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M31" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N31" t="n">
         <v>297.8659196396851</v>
@@ -37010,7 +37010,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161277</v>
+        <v>420.452948919156</v>
       </c>
       <c r="M32" t="n">
         <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O32" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q32" t="n">
-        <v>249.7617409635307</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.42742087754235</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K33" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L33" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O33" t="n">
-        <v>641.1322360870907</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P33" t="n">
-        <v>243.6926936986961</v>
+        <v>464.9285176949521</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37235,7 +37235,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M34" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N34" t="n">
         <v>297.8659196396851</v>
@@ -37247,7 +37247,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L35" t="n">
         <v>347.5592641161277</v>
@@ -37317,19 +37317,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188059</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722467</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.01815506597379</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K36" t="n">
         <v>181.524853957753</v>
       </c>
       <c r="L36" t="n">
-        <v>503.2632058152558</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O36" t="n">
-        <v>622.7228616087751</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P36" t="n">
-        <v>243.6926936986961</v>
+        <v>392.0348328919237</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K37" t="n">
         <v>170.3709935295874</v>
@@ -37472,7 +37472,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N37" t="n">
         <v>297.8659196396851</v>
@@ -37484,7 +37484,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575408</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L38" t="n">
         <v>347.5592641161277</v>
@@ -37554,19 +37554,19 @@
         <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891398</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O38" t="n">
         <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605025</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722501</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K39" t="n">
-        <v>300.2644154702829</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390623</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N39" t="n">
-        <v>622.7228616087751</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P39" t="n">
-        <v>243.6926936986961</v>
+        <v>392.0348328919237</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078703</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058015</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K40" t="n">
         <v>170.3709935295874</v>
@@ -37709,7 +37709,7 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N40" t="n">
         <v>297.8659196396851</v>
@@ -37721,7 +37721,7 @@
         <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669503</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722513</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K42" t="n">
-        <v>192.2226459216769</v>
+        <v>329.8669931509806</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M42" t="n">
-        <v>622.7228616087748</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P42" t="n">
         <v>243.6926936986961</v>
@@ -37882,7 +37882,7 @@
         <v>322.5559691322457</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K43" t="n">
         <v>170.3709935295874</v>
@@ -37946,19 +37946,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N43" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O43" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669503</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063826</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8669931509808</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922271</v>
+        <v>383.0429961922272</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P45" t="n">
-        <v>243.6926936986961</v>
+        <v>518.1258682323327</v>
       </c>
       <c r="Q45" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078705</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K46" t="n">
         <v>170.3709935295874</v>
@@ -38183,19 +38183,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N46" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O46" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
